--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1362713132257123</v>
+        <v>0.1347371501114819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1194769697101007</v>
+        <v>0.04151671143829085</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03044718825733305</v>
+        <v>0.06494486761115334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09618314654255837</v>
+        <v>0.03042013396336822</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02791603865112054</v>
+        <v>0.005154180654820139</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005346411051251836</v>
+        <v>0.05755544578194443</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03193763843947766</v>
+        <v>0.003018232451658484</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02726407965737134</v>
+        <v>0.07461388534091211</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03498204230068729</v>
+        <v>0.03117301163625163</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03271122617764073</v>
+        <v>0.08356560146949718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06345948496577335</v>
+        <v>0.03747574011037939</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09903083776178168</v>
+        <v>0.07715047970169141</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01829659654314952</v>
+        <v>0.05657625326179198</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08395738160796457</v>
+        <v>0.08337535646447286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07396106322347815</v>
+        <v>0.02065431854709226</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01598844849065309</v>
+        <v>0.0676740185477033</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0181410661229673</v>
+        <v>0.04682904048252491</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001311208049131433</v>
+        <v>0.005732789991085793</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05144454685494607</v>
+        <v>0.06585776301736325</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01396113646121719</v>
+        <v>0.03146660034757048</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01025777523182131</v>
+        <v>0.004354187874498022</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.065269731916288</v>
+        <v>0.06948119574697192</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07567326121647033</v>
+        <v>0.02980443703513512</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.002982720766816727</v>
+        <v>0.01160574852382325</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1005538790521097</v>
+        <v>0.0813690089722293</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1763676847813277</v>
+        <v>0.1583965341422859</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01212514615554097</v>
+        <v>0.008369815308553283</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009038158739833069</v>
+        <v>0.03724965497613789</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05478888951271469</v>
+        <v>0.05420216044640983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002685524860841771</v>
+        <v>0.001737215255588137</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008649858795529611</v>
+        <v>0.07876278369808454</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01003145774720816</v>
+        <v>0.0100988034695391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05762284594491598</v>
+        <v>0.04388963771180889</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08147353024955596</v>
+        <v>0.09383975850649277</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008039483309306259</v>
+        <v>0.07662392800016399</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01257425660022174</v>
+        <v>0.04512838703674688</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002966714176118245</v>
+        <v>0.01000527713260752</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04781286531088978</v>
+        <v>0.02585498466029533</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09048408892798045</v>
+        <v>0.07662970279964051</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09114799889340101</v>
+        <v>0.07613597486682157</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08548770257300863</v>
+        <v>0.0821198386029504</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009373753372532805</v>
+        <v>0.01025475798029433</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006449112701158251</v>
+        <v>0.06444198737519889</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03880270773357515</v>
+        <v>0.0496930680930182</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0188063698036562</v>
+        <v>0.03277107965272324</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07366306839204226</v>
+        <v>0.05734310395664338</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.09875686262159838</v>
+        <v>0.01858897343729174</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08002700148808455</v>
+        <v>0.003277227940470476</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09919260209028591</v>
+        <v>0.04298187909251919</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1051473598477699</v>
+        <v>0.1020986141018159</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1502970444837014</v>
+        <v>0.1477590451178088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04465387075064559</v>
+        <v>0.0841723113373017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03312612920692806</v>
+        <v>0.03327468851902399</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03168506650256393</v>
+        <v>0.01585031306890968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04044775470057905</v>
+        <v>0.03401101415802928</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04660956382735623</v>
+        <v>0.07044654096044312</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0283726767354141</v>
+        <v>0.03272704417126236</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0605669652471797</v>
+        <v>0.04099943619125217</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0280077434373165</v>
+        <v>0.05574968124170657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05109232424370301</v>
+        <v>0.04013795927884339</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06544963657797825</v>
+        <v>0.06221354050139058</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0206616692059423</v>
+        <v>0.04395416317834625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07530565647310619</v>
+        <v>0.03958821692355017</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06131194392943846</v>
+        <v>0.04448323328415268</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006122808375373152</v>
+        <v>0.03513042359031469</v>
       </c>
       <c r="T4" t="n">
-        <v>0.006436114063700476</v>
+        <v>0.003428859693299949</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04510632102762236</v>
+        <v>0.08813552619578877</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01582923748409368</v>
+        <v>0.009450987838767041</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06395996636550345</v>
+        <v>0.08106561407944544</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06749242105801037</v>
+        <v>0.02078656274192082</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05445288859745481</v>
+        <v>0.06219174998441359</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07853397564474776</v>
+        <v>0.09209773806942781</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06807246653938709</v>
+        <v>0.003806990401569417</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.006702800005955628</v>
+        <v>0.006297404590840235</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.02435818428066022</v>
+        <v>-0.05326298023225386</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2055482190502375</v>
+        <v>0.1993919251572517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04615082213985183</v>
+        <v>0.06718156846404337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005405298625462902</v>
+        <v>0.02310335499876404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01791241692791421</v>
+        <v>0.004488469092876774</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09085873537300886</v>
+        <v>0.09014482418002889</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01310875657580386</v>
+        <v>0.0004312820193411698</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01431067740437229</v>
+        <v>0.009660926731974771</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07499409403499135</v>
+        <v>0.07825909337447723</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05899693704598451</v>
+        <v>0.05956281861091123</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08100509677352413</v>
+        <v>0.04285584608977829</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04640680854758875</v>
+        <v>0.03134532954307691</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008045453783218838</v>
+        <v>0.01588071847632844</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05336422258867696</v>
+        <v>0.05553325097566077</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01801804283254784</v>
+        <v>0.04023813427603543</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05180134643426028</v>
+        <v>0.01261393777997866</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0710750619746751</v>
+        <v>0.07816150140141619</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09439683815708273</v>
+        <v>0.05033364829211553</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01868737238644083</v>
+        <v>0.06718975175265984</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01778625382729976</v>
+        <v>0.07384078520192373</v>
       </c>
       <c r="X5" t="n">
-        <v>0.036923518587175</v>
+        <v>0.05746315843236689</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05565880966918595</v>
+        <v>0.04408409572797824</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.000462648188677219</v>
+        <v>0.0247690573099981</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04844968573963951</v>
+        <v>0.021092531242318</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07618110238261717</v>
+        <v>0.05176591602594768</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.04725168057463734</v>
+        <v>-0.03570668148683907</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1419996298357057</v>
+        <v>0.1406671392702686</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01399375058266164</v>
+        <v>0.03097297709318893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06890586316140258</v>
+        <v>0.09406513707607767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04430816264743295</v>
+        <v>0.02500076218896614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07229542338923925</v>
+        <v>0.07078760834843643</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01084044173266027</v>
+        <v>0.006559361303485461</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01843148976054867</v>
+        <v>0.00760025308980156</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007015418948003116</v>
+        <v>0.01651427338026188</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006212351662050634</v>
+        <v>0.01056990342083643</v>
       </c>
       <c r="N6" t="n">
-        <v>0.008588694873583606</v>
+        <v>0.05833721633904027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05126589623604656</v>
+        <v>0.08854686174929766</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0922201847166754</v>
+        <v>0.07181509291225181</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01955014444216435</v>
+        <v>0.05802286788876247</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06014924413648762</v>
+        <v>0.07026881322082516</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01887666370838231</v>
+        <v>0.04124284721473254</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08171417496132447</v>
+        <v>0.03635695933686736</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02276503271556452</v>
+        <v>0.02223962602773902</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03066027299228963</v>
+        <v>0.0004665996063049207</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05739139424819054</v>
+        <v>0.0231134701425211</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04625695092463771</v>
+        <v>0.02066640669220451</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.09121621082959219</v>
+        <v>0.08603064175272204</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09155196591355744</v>
+        <v>0.07698039533245553</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07904621928681238</v>
+        <v>0.07128215937028545</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.006744048130692098</v>
+        <v>0.01255976651293577</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03130178406046265</v>
+        <v>0.05694499017169452</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1780410537652744</v>
+        <v>0.1626799512121508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04880152243524708</v>
+        <v>0.03579249057052256</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09560681951538465</v>
+        <v>0.04430349759810323</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01274066347413206</v>
+        <v>0.01799044002001812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07042454703546866</v>
+        <v>0.05901384129507996</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03168660967003452</v>
+        <v>0.0001366011409098758</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0142490633136395</v>
+        <v>0.0315196813100725</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07211874708724109</v>
+        <v>0.08616260374495896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05177819390368572</v>
+        <v>0.002942516922002735</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01866910796793812</v>
+        <v>0.05379812885767354</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05412532410719693</v>
+        <v>0.05026599271468485</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001997973162984268</v>
+        <v>0.02175238879638249</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09192965369292383</v>
+        <v>0.06223818779791422</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006750709488604074</v>
+        <v>0.01028508878743388</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007119449991717399</v>
+        <v>0.07811319227306421</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04710705693391731</v>
+        <v>0.0791509133853564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08854456655874236</v>
+        <v>0.08670528478937811</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07098761872813321</v>
+        <v>0.008554947631093303</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02248881219236959</v>
+        <v>0.08337909216676764</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01944555015415915</v>
+        <v>0.01257148723639507</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04781534178787717</v>
+        <v>0.06705681912730095</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004230336078478053</v>
+        <v>0.02290482413542923</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03108760496667841</v>
+        <v>0.01108375328704363</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09029472775344694</v>
+        <v>0.07427822641241481</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0455331714978507</v>
+        <v>0.03458030262198944</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1484088567849894</v>
+        <v>0.1495028920182387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03326552300076594</v>
+        <v>0.06438646934903529</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01255932595172495</v>
+        <v>0.05692103414247821</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07552057536747343</v>
+        <v>0.05342715530807121</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007269702892216745</v>
+        <v>0.007358662942392543</v>
       </c>
       <c r="J8" t="n">
-        <v>0.008904166729541869</v>
+        <v>0.0184156725124402</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04362526004365019</v>
+        <v>0.005127226775392406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07202679392591214</v>
+        <v>0.04085018033433606</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01502275196974319</v>
+        <v>0.03720841031900408</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05428422848148388</v>
+        <v>0.001465217455195861</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08326707729950721</v>
+        <v>0.04348287864059681</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03718460992650244</v>
+        <v>0.09299790563632021</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03674971108615992</v>
+        <v>0.03654664556556797</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07049042662963939</v>
+        <v>0.06690640015600195</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02348280626667901</v>
+        <v>0.03429936606920161</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01156159712724143</v>
+        <v>0.01755908132567078</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08416994405328056</v>
+        <v>0.1012025240991437</v>
       </c>
       <c r="V8" t="n">
-        <v>0.07674254706102328</v>
+        <v>0.01032617387535573</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04525690483625165</v>
+        <v>0.06806421347793222</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0703716715581414</v>
+        <v>0.0733306915526902</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05730186337381336</v>
+        <v>0.08538344946196925</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01559555756802132</v>
+        <v>0.01046097641071222</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04772360925056732</v>
+        <v>0.07265799892246051</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01762334560065945</v>
+        <v>0.00162166566803102</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1692979142627719</v>
+        <v>-0.1758208234456784</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1693578238570174</v>
+        <v>0.1862030255887649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07405111149903368</v>
+        <v>0.07720145674387958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006401129780128746</v>
+        <v>0.04813337428608708</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08225898950445336</v>
+        <v>0.06393683747192654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0337899806389179</v>
+        <v>0.05242763279454742</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002738296904229858</v>
+        <v>0.02298649333112958</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02177907054630658</v>
+        <v>0.007718271571812654</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08980046852282902</v>
+        <v>0.07525768160493841</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0270669673277606</v>
+        <v>0.0572076273429987</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01980396964017975</v>
+        <v>0.0156355793766957</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05881722157972741</v>
+        <v>0.02894950360965534</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01963623067440908</v>
+        <v>0.07765489234565784</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02480072247936174</v>
+        <v>0.0785276831523067</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0853976051286639</v>
+        <v>0.01574560942174385</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02864174011499572</v>
+        <v>0.004184258243073125</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01099543187176797</v>
+        <v>0.0735570174749203</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08045557845509939</v>
+        <v>0.008202498286906912</v>
       </c>
       <c r="V9" t="n">
-        <v>0.009580088164583112</v>
+        <v>0.0008658608909841761</v>
       </c>
       <c r="W9" t="n">
-        <v>0.06494008588429291</v>
+        <v>0.0866000586207334</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04164851498274178</v>
+        <v>0.0425419859827184</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06431709669364202</v>
+        <v>0.01306106882802726</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0001203719527113405</v>
+        <v>0.004171016273185991</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07237159089140807</v>
+        <v>0.0662195808930891</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.08058773676275598</v>
+        <v>0.07921401145298178</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1523040832999951</v>
+        <v>-0.1319813867981288</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1614529667640276</v>
+        <v>0.1623068732403446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007111977138812856</v>
+        <v>0.03952242881579709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02000326160592071</v>
+        <v>0.006591442450769643</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02060972504751043</v>
+        <v>0.004192335442544451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02147398707482875</v>
+        <v>0.04920849049170421</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01752948496550626</v>
+        <v>0.0583597134770267</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0341895362718108</v>
+        <v>0.05849146584112667</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02052330512199084</v>
+        <v>0.001913256109464264</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0246336672048418</v>
+        <v>0.03996804054459316</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01684200802071378</v>
+        <v>0.03686261983616008</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02322002229635227</v>
+        <v>0.01560261178848788</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1020071028192596</v>
+        <v>0.06219983672229042</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.09938745786537391</v>
+        <v>0.05960603067559812</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03543687476767064</v>
+        <v>0.06178688882219459</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05354826590169282</v>
+        <v>0.07124363196913258</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01576855017966667</v>
+        <v>0.03699267759685627</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1154798161962702</v>
+        <v>0.04242291757640454</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007412926726605724</v>
+        <v>0.007915358941714057</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05173620566986413</v>
+        <v>0.07034552245378241</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1050017280202203</v>
+        <v>0.05233616405361601</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06504912713018225</v>
+        <v>0.05191408145715849</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1093198364709989</v>
+        <v>0.07674985091211092</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02816874078058361</v>
+        <v>0.02158598943341601</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.005546392723322867</v>
+        <v>0.07418864458805134</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.06656591999729156</v>
+        <v>-0.07684045662055893</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1803061446524008</v>
+        <v>0.1880700596527733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08176911200529935</v>
+        <v>0.0476861138991108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02517926368579941</v>
+        <v>0.0316344924040586</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02263553716065764</v>
+        <v>0.05105318041119625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06882083677398564</v>
+        <v>0.05481477348213559</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01577432366834211</v>
+        <v>0.007444735618363238</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01623760757809947</v>
+        <v>0.04475398187074855</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07315388694746641</v>
+        <v>0.05136055400717608</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00829187439779297</v>
+        <v>0.0389196707294502</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06188686931930536</v>
+        <v>0.02667943281458558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02606656152118798</v>
+        <v>0.005744621519062256</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01455114408212242</v>
+        <v>0.08139835348855863</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.083072856752164</v>
+        <v>0.06484419612306892</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07758313985873345</v>
+        <v>0.04325271606170001</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07651253127453654</v>
+        <v>0.08056852600043245</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00115671629887628</v>
+        <v>0.0227299361559989</v>
       </c>
       <c r="U11" t="n">
-        <v>0.000333969422948546</v>
+        <v>0.009984397499787748</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01618949651787724</v>
+        <v>0.01765233360410269</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0470446537938446</v>
+        <v>0.1223449045342963</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07017124135644251</v>
+        <v>0.02547707536676938</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01587944495089026</v>
+        <v>0.009954597438041862</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05103504709344637</v>
+        <v>0.02781095107006604</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06435746346136503</v>
+        <v>0.02912841315856619</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08229642207881643</v>
+        <v>0.1047620427427238</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.06781488123077732</v>
+        <v>-0.08570468636454964</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.179979294041095</v>
+        <v>0.1785744865407725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08170798245670345</v>
+        <v>0.05479187424547708</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01341587585908053</v>
+        <v>0.003475954176267988</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03978910508456279</v>
+        <v>0.03740189173441619</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05537048323611176</v>
+        <v>0.05064496364056116</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03088791268857937</v>
+        <v>0.05109227402323247</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07946660400390357</v>
+        <v>0.05316466215513638</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02285723208539386</v>
+        <v>0.01695690876362291</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06411371653997305</v>
+        <v>0.04428562597036449</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02313070397789442</v>
+        <v>0.04064127834081727</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01140143920100577</v>
+        <v>0.006598489084048664</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03795619716303961</v>
+        <v>0.01932322370329015</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01169743824929558</v>
+        <v>0.04672516706922945</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02728955883921081</v>
+        <v>0.05313481010443177</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07184543919125096</v>
+        <v>0.06087182834883597</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04603290266355336</v>
+        <v>0.03775103688675346</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06609631640095669</v>
+        <v>0.03302590122341491</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0008608496824915296</v>
+        <v>0.001711225552261509</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08151534770264116</v>
+        <v>0.06360418202861014</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07400993334071286</v>
+        <v>0.06306669383469836</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.05069249974336722</v>
+        <v>0.07347543124233033</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03283512047024893</v>
+        <v>0.05860581628049218</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06604123133628249</v>
+        <v>0.06409064407281563</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01098611008374016</v>
+        <v>0.06556011751889153</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3553385504882132</v>
+        <v>-0.3875358177900524</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3097554440922754</v>
+        <v>0.2802489116627178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0570602733956897</v>
+        <v>0.08233360418232316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09732592659345096</v>
+        <v>0.01790796166013841</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04319569879144616</v>
+        <v>0.05367383886764048</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07505292018342154</v>
+        <v>0.06660984608351568</v>
       </c>
       <c r="J13" t="n">
-        <v>0.009811782562882549</v>
+        <v>0.018825715284987</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04538929200637605</v>
+        <v>0.00161078740142204</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006034989949185636</v>
+        <v>0.006173642146957065</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001378645532822329</v>
+        <v>0.004452741248802515</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01740033510868416</v>
+        <v>0.006917785017282468</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01000127313474396</v>
+        <v>0.1273992415069175</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03883810673743843</v>
+        <v>0.101114409178735</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09318628403472279</v>
+        <v>0.08458991650160012</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02479937481458581</v>
+        <v>0.02846829584226025</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009795642333486678</v>
+        <v>0.03876275563961556</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02397364419554649</v>
+        <v>0.002565370681573936</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004161136816266513</v>
+        <v>0.01331683629352312</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04582674268506171</v>
+        <v>0.02764723666239103</v>
       </c>
       <c r="W13" t="n">
-        <v>0.06788406893303825</v>
+        <v>0.001392203827423995</v>
       </c>
       <c r="X13" t="n">
-        <v>0.04444218645232706</v>
+        <v>0.06367437320041426</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04878501560115737</v>
+        <v>0.006316536467098376</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07215753473547429</v>
+        <v>0.07297305198139943</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06940864318579937</v>
+        <v>0.07769014212610348</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09533126319593213</v>
+        <v>0.09558370819787505</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4774868958886845</v>
+        <v>-0.3930203541572335</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2463109528040839</v>
+        <v>0.2416138792019686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00957933192458128</v>
+        <v>0.02257721583551501</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004753349403421797</v>
+        <v>0.04856933698351834</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04209326741057387</v>
+        <v>0.03754724292676311</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04381052778996583</v>
+        <v>0.01287206545134986</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0351365693950982</v>
+        <v>0.003258766616209342</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09854425674916101</v>
+        <v>0.02028103874400135</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02206494516517136</v>
+        <v>0.006215912215276022</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006473849306364483</v>
+        <v>0.03203875184938292</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02599038761422463</v>
+        <v>0.005821937109519369</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05284451584514636</v>
+        <v>0.03231774326305881</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03585842657419445</v>
+        <v>0.06501484549023412</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001807275405506658</v>
+        <v>0.03527314609219171</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1045217431846689</v>
+        <v>0.1118139554412318</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1070101924350345</v>
+        <v>0.03296599151966745</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05965471225570987</v>
+        <v>0.0647944308080519</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05666510110180745</v>
+        <v>0.08248981667717863</v>
       </c>
       <c r="V14" t="n">
-        <v>0.009173619212995133</v>
+        <v>0.002443082335251656</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05038404738905082</v>
+        <v>0.07658062896566389</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06793610419864418</v>
+        <v>0.1044471512218887</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08751553239745129</v>
+        <v>0.001133028819661958</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0525762574034578</v>
+        <v>0.09108575158980736</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004715822005973367</v>
+        <v>0.01753235359603253</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0208901658317969</v>
+        <v>0.09292580644854412</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.09988280913611086</v>
+        <v>-0.05175241099462968</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3574814829431913</v>
+        <v>0.4048993186250046</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004391521973211672</v>
+        <v>0.01169826725940464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02584053513108545</v>
+        <v>0.1114616900695233</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1024666861970033</v>
+        <v>0.02730947799853485</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06463656442737342</v>
+        <v>0.02230868085712315</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02795546976846746</v>
+        <v>0.01326843403692217</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01295601313946085</v>
+        <v>0.0149031687013345</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001127723341639722</v>
+        <v>0.06247376546160061</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06247761586235198</v>
+        <v>0.1118263696771526</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1018585000381248</v>
+        <v>0.1198592006274849</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01776455669196467</v>
+        <v>0.00215130204698608</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06759480721917928</v>
+        <v>0.05690417699765447</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04767719013442887</v>
+        <v>0.04727636554683448</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0601499466060582</v>
+        <v>0.05451783614460074</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07114997703828287</v>
+        <v>0.04152640750169726</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04372613157814288</v>
+        <v>0.02429049077528868</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001553404671276184</v>
+        <v>0.01529740040900311</v>
       </c>
       <c r="V15" t="n">
-        <v>0.09939590497217093</v>
+        <v>0.1201215541044177</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001427792703854353</v>
+        <v>0.05307976883262009</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07942126673040122</v>
+        <v>0.01617624669123651</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01471820356062702</v>
+        <v>0.03204873723681427</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01544745183459135</v>
+        <v>0.006227115016821961</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06804026005987482</v>
+        <v>0.01322142921616416</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.008222476320428888</v>
+        <v>0.02205211479077988</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.04036731350679526</v>
+        <v>0.07136410518439568</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2669226045847549</v>
+        <v>0.2689709395026247</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07577067877957555</v>
+        <v>0.06298087790976585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01574032371704615</v>
+        <v>0.008967461012815155</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0175589206974147</v>
+        <v>0.02107012132637419</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01081982603005506</v>
+        <v>0.02373602427426904</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07758749930547371</v>
+        <v>0.02498988881715486</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04722009660058673</v>
+        <v>0.03545222928400528</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004605397056142034</v>
+        <v>0.006806212359394184</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02186561523040854</v>
+        <v>0.02816594631389528</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01480494148559053</v>
+        <v>0.03120616224495817</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01888482362645094</v>
+        <v>0.07584426843789079</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04988171146895284</v>
+        <v>0.07084606490448504</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04925200464079371</v>
+        <v>0.03058965303383625</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07286881437542918</v>
+        <v>0.06124996739192794</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07759267237331771</v>
+        <v>0.08551593411010248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02746888493209061</v>
+        <v>0.03820555326362466</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0623078150744597</v>
+        <v>0.07850908169315637</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03559963648655833</v>
+        <v>0.009085419860858064</v>
       </c>
       <c r="W16" t="n">
-        <v>0.05955310628130809</v>
+        <v>0.032431560298035</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02319072569214656</v>
+        <v>0.06845447461138561</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.05383099231379423</v>
+        <v>0.082774621643074</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08620622100052293</v>
+        <v>0.04102582225573305</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01255357052768172</v>
+        <v>0.009935850326063221</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08898057965472808</v>
+        <v>0.0721568046271954</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.139338960893698</v>
+        <v>0.1256321363026952</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3123046730924943</v>
+        <v>0.3467265857900036</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0243884817043071</v>
+        <v>0.00313214814098727</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09625909542686241</v>
+        <v>0.01568372796300672</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01565221553895602</v>
+        <v>0.001886815852578435</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03226907872147283</v>
+        <v>0.001161185262076662</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06923138115230017</v>
+        <v>0.01623590350146604</v>
       </c>
       <c r="K17" t="n">
-        <v>0.009386359211900121</v>
+        <v>0.05824507282910148</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01110035202408218</v>
+        <v>0.04870475476128881</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01462131366154245</v>
+        <v>0.08191796597591475</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09236314487805625</v>
+        <v>0.09800240145354883</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01337137357161589</v>
+        <v>0.03620681487699979</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1002818423589143</v>
+        <v>0.05600561036032945</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04112027288769516</v>
+        <v>0.09803932885260253</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1134119443824</v>
+        <v>0.08683178664265127</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02974759374462297</v>
+        <v>0.00694219963486935</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04522234511959273</v>
+        <v>0.0418212906538243</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01356534176750606</v>
+        <v>0.05783771252770692</v>
       </c>
       <c r="V17" t="n">
-        <v>0.08938215166756659</v>
+        <v>0.1229689136051155</v>
       </c>
       <c r="W17" t="n">
-        <v>0.007888617725815653</v>
+        <v>0.00419581637185079</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02624524767486448</v>
+        <v>0.005659903134716526</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01644729524970599</v>
+        <v>0.04918333765925021</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.109261975738543</v>
+        <v>0.04783640702900429</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001001070277394732</v>
+        <v>0.02453479932010989</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02778150551428293</v>
+        <v>0.03696610359100006</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1430867320307551</v>
+        <v>0.1662229210372103</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2904424787589702</v>
+        <v>0.2861972294043012</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03581842106744434</v>
+        <v>0.03712637411031847</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04143062916136456</v>
+        <v>0.003160145828564552</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006197877653231041</v>
+        <v>0.03056306714190199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003336475763021899</v>
+        <v>0.05079090337638632</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000745056458103091</v>
+        <v>0.01856750200361895</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07146005076130213</v>
+        <v>0.05911928870510776</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05908342824641037</v>
+        <v>0.02455055941826602</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02080364251284092</v>
+        <v>0.02551982302770851</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01767929902485086</v>
+        <v>0.03415638863091588</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02964738857211034</v>
+        <v>0.04691722339742699</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04579050330111757</v>
+        <v>0.01978575758966753</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04315362760120357</v>
+        <v>0.04973599255763016</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09988475014667075</v>
+        <v>0.1142374054976141</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1087417848320449</v>
+        <v>0.09157213128994711</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01426784342578494</v>
+        <v>0.006169866376468043</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06649391121324438</v>
+        <v>0.07741653563359517</v>
       </c>
       <c r="V18" t="n">
-        <v>0.004484523233800714</v>
+        <v>0.002273993666981744</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06796738294457209</v>
+        <v>0.06970033049441429</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05145804020710618</v>
+        <v>0.06018289804898098</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06806817103900707</v>
+        <v>0.0002950017269874057</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08598320138866788</v>
+        <v>0.1363399172059938</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02195610590571439</v>
+        <v>0.01234084544301182</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03554788554038602</v>
+        <v>0.02947804882849263</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1446362328271117</v>
+        <v>0.1420657329275352</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3710244037148851</v>
+        <v>0.3708707413981347</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00784576508600175</v>
+        <v>0.01182253301623658</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006955343653039865</v>
+        <v>0.03799631443978398</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005287707365566767</v>
+        <v>0.01086816108446431</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07516077859224683</v>
+        <v>0.02257177744097926</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09394934988359036</v>
+        <v>0.04486446550005725</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01932820060360986</v>
+        <v>0.03235924369137447</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08710183249242683</v>
+        <v>0.05472844347207147</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006893130467181156</v>
+        <v>0.0135502911181874</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09423120351141034</v>
+        <v>0.116349634033142</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02232129639699272</v>
+        <v>0.0288537824302099</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02324815903701182</v>
+        <v>0.07694544045222484</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05729999027160928</v>
+        <v>0.01676254088406116</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08299128725153508</v>
+        <v>0.1112883579269795</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01137905031928763</v>
+        <v>0.03583685674156612</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03793870124418916</v>
+        <v>0.04699085136261114</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1077402357641806</v>
+        <v>0.1065497274189039</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1155076607832516</v>
+        <v>0.09174817668121368</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04579829158836942</v>
+        <v>0.002464958063163332</v>
       </c>
       <c r="X19" t="n">
-        <v>0.004306952667226751</v>
+        <v>0.004668333011585669</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01826497595858103</v>
+        <v>0.002249372279021042</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0407179790741719</v>
+        <v>0.007605010715613906</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03280779160211091</v>
+        <v>0.1114567529291497</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.002924316386408252</v>
+        <v>0.01146897530739952</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1423928296577733</v>
+        <v>0.1553789570795664</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3068196598794036</v>
+        <v>0.3034969545607045</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03064580804980027</v>
+        <v>0.0005792035865350171</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04628121440454734</v>
+        <v>0.005159109890244372</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04786893978207502</v>
+        <v>0.08755239076728999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003609748549203964</v>
+        <v>0.0353069432753978</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003474180911433354</v>
+        <v>0.01450086400649749</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03584411198491202</v>
+        <v>0.05963830430233216</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0271378780217617</v>
+        <v>0.02272348413516131</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03853602966733547</v>
+        <v>0.01055452582147318</v>
       </c>
       <c r="N20" t="n">
-        <v>0.004917379524675599</v>
+        <v>0.004085617256248698</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01745376354249063</v>
+        <v>0.0944752641688567</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03896569837094408</v>
+        <v>0.1058715875472063</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05802616106010668</v>
+        <v>0.09135408698994389</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1061638166674584</v>
+        <v>0.0798845208051476</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02882405787606655</v>
+        <v>0.01125783858300273</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02535214333416187</v>
+        <v>0.0688460187672217</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01675286179643556</v>
+        <v>0.02691481201572163</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02504115673855381</v>
+        <v>0.01393064674679378</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09063913099942814</v>
+        <v>0.09370349478817197</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08440494811254187</v>
+        <v>0.03142615255223997</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09880485417769441</v>
+        <v>0.03065975242323283</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09794666449194356</v>
+        <v>0.06676579105280482</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01439985718637172</v>
+        <v>0.00845345532184022</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05890959475005803</v>
+        <v>0.03635613519663596</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.020962191647871</v>
+        <v>-0.008281616630704133</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3979251315514682</v>
+        <v>0.367200688207641</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0744826203681007</v>
+        <v>0.01721252216488361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002076838616948073</v>
+        <v>0.03381784740281507</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002898277777365122</v>
+        <v>0.1013085023277476</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03035173733808277</v>
+        <v>0.002371555717117068</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04957546174201818</v>
+        <v>0.004752146485083587</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02915444700117839</v>
+        <v>0.0600314047752129</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01123326944027119</v>
+        <v>0.01203131906898269</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07485578398682695</v>
+        <v>0.06306429651198371</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1064811556721477</v>
+        <v>0.02455430007917879</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03789586476803146</v>
+        <v>0.04526015618431221</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03895549514574708</v>
+        <v>0.01297344641713393</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.006269744063152293</v>
+        <v>0.002442246617132771</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0517674561341105</v>
+        <v>0.0814715967211298</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0500863968947311</v>
+        <v>0.02280373775633194</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04562104227595816</v>
+        <v>0.06314631840282611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09487048439807251</v>
+        <v>0.1121174543309606</v>
       </c>
       <c r="V21" t="n">
-        <v>0.12994027572742</v>
+        <v>0.1033406509354444</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01564240026094436</v>
+        <v>0.02578880635063012</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01679000382130317</v>
+        <v>0.05981323421644842</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0151243949167546</v>
+        <v>0.04127828173093639</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02167919365741751</v>
+        <v>0.04681952718586544</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07607567711611153</v>
+        <v>0.0297675096652981</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01817197887730668</v>
+        <v>0.03383313895254479</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.07591425084915276</v>
+        <v>0.05150866380851259</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2736470243875883</v>
+        <v>0.2789336169392975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08733975176907711</v>
+        <v>0.08277412142814521</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02340667249274844</v>
+        <v>0.01328832997211735</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08369779219623373</v>
+        <v>0.02559287900492861</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09785049177279707</v>
+        <v>0.1052203095622321</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0143328858573998</v>
+        <v>0.06519585078726362</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03866669200705836</v>
+        <v>0.009323132390620581</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008111563338454617</v>
+        <v>0.00193330598275172</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001689372872127618</v>
+        <v>0.06118002575362928</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01067625743525432</v>
+        <v>0.0179952190288305</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03578735532728631</v>
+        <v>0.001214542261821903</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06540443490396937</v>
+        <v>0.03611465897822243</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03086522397449273</v>
+        <v>0.03059478923309118</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03284506745764119</v>
+        <v>0.09471262116288011</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0503781215188952</v>
+        <v>0.06004946481578072</v>
       </c>
       <c r="T22" t="n">
-        <v>0.018475358010658</v>
+        <v>0.07116846338394554</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02478825466856632</v>
+        <v>0.0490812139120331</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002061283836199226</v>
+        <v>0.01463123555614972</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06323308651734548</v>
+        <v>0.09744909060282597</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03555060171777396</v>
+        <v>0.03484472439974098</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1067426277996971</v>
+        <v>0.05886961707078119</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1276935072972853</v>
+        <v>0.04689559009994773</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.008176625128217247</v>
+        <v>0.0133863056702546</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.03222697210082145</v>
+        <v>0.008484508942006181</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2841433937584809</v>
+        <v>0.3137484251626129</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08330835910345333</v>
+        <v>0.06204857645724538</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01240794877909136</v>
+        <v>0.02914990736296927</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0122460064805943</v>
+        <v>0.06583968145484362</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007167052969754055</v>
+        <v>0.04081335203839157</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02730666553983005</v>
+        <v>0.06242616962867064</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009578642510048854</v>
+        <v>0.04259984219506086</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006945976751168051</v>
+        <v>0.07882035428950762</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04423026337890076</v>
+        <v>0.01918076505220893</v>
       </c>
       <c r="N23" t="n">
-        <v>0.005502650696996064</v>
+        <v>0.01180212480704881</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04512548313184413</v>
+        <v>0.01403859484779936</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1066288769407117</v>
+        <v>0.04647271921528239</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00476716680057669</v>
+        <v>0.005632710760854349</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08210400197974757</v>
+        <v>0.07130122063242195</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1042731788261632</v>
+        <v>0.04221381351340716</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07120288078802493</v>
+        <v>0.0200417266411478</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01903748637973815</v>
+        <v>0.05616073257608017</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09017622430017258</v>
+        <v>0.08210039308814261</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02213985559977725</v>
+        <v>0.05591334631320858</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0001033259354345473</v>
+        <v>0.004453461913090119</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02678822587911756</v>
+        <v>0.02738777088513709</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1082512233826182</v>
+        <v>0.06265237744284728</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01025781639663707</v>
+        <v>0.01215345620805925</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1004506874495997</v>
+        <v>0.08679690267657494</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2860623473536602</v>
+        <v>0.2805253845298168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06337288885988952</v>
+        <v>0.08539191873167239</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01126857522480068</v>
+        <v>0.00612277855931598</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01214999976488858</v>
+        <v>0.007078879957266381</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09277126159121987</v>
+        <v>0.07783971842079147</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04409474253048905</v>
+        <v>0.06815190693653372</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04093424058317529</v>
+        <v>0.009502039579044752</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001552285123132925</v>
+        <v>0.01627290315441502</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02353763337215509</v>
+        <v>0.04804386356289622</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01013607630482525</v>
+        <v>0.02195227258811904</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03337930283532233</v>
+        <v>0.006565571959554703</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07185734293973563</v>
+        <v>0.04086700674203668</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.06581067711134837</v>
+        <v>0.02547385350859472</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04980085481011427</v>
+        <v>0.06177065507961913</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07147816578147116</v>
+        <v>0.05056163966471672</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00811298099733946</v>
+        <v>0.02769770533555714</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04088403628416223</v>
+        <v>0.08480851683573172</v>
       </c>
       <c r="V24" t="n">
-        <v>0.005164326447349015</v>
+        <v>0.01381514506616081</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08679529101226152</v>
+        <v>0.08375715976136271</v>
       </c>
       <c r="X24" t="n">
-        <v>0.07120791201632067</v>
+        <v>0.06527071145770358</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06883950738783631</v>
+        <v>0.08169088070034564</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02608619496265508</v>
+        <v>0.05695481692399234</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0535583649248153</v>
+        <v>0.005019008619068068</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.04720733913469238</v>
+        <v>0.0553910468555013</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.08313536830678755</v>
+        <v>0.100265250120685</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4003913645621594</v>
+        <v>0.3145680346064431</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06077016394752027</v>
+        <v>0.02626939828793761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002610329655465281</v>
+        <v>0.01501168455119171</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05677807552315589</v>
+        <v>0.0840507792141147</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07813157459717107</v>
+        <v>0.02377639259873619</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0981023985911479</v>
+        <v>0.09166354792051004</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03536475841514137</v>
+        <v>0.01025289056356791</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05239664297195211</v>
+        <v>0.01216767005827357</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003061646437614279</v>
+        <v>0.03089179911449702</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06643868418308162</v>
+        <v>0.0687216254745998</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01882077274128658</v>
+        <v>0.01000641447862121</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05817049027721941</v>
+        <v>0.01331312236068687</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.03938635672525391</v>
+        <v>0.0006131394897219537</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001005243285430165</v>
+        <v>0.05309236572588184</v>
       </c>
       <c r="S25" t="n">
-        <v>0.04663032955972469</v>
+        <v>0.08663449713397711</v>
       </c>
       <c r="T25" t="n">
-        <v>0.005883781639877871</v>
+        <v>0.03022888807943245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009771578285531195</v>
+        <v>0.09979231771793561</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03431810695124141</v>
+        <v>0.00512400302041128</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02372193743766787</v>
+        <v>0.01222764330955109</v>
       </c>
       <c r="X25" t="n">
-        <v>0.002527549768305039</v>
+        <v>0.05030071384005751</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01783593939798398</v>
+        <v>0.08563045279047846</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.112934206175491</v>
+        <v>0.05687364840723055</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05867364472996149</v>
+        <v>0.05531533385834907</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1166657887027755</v>
+        <v>0.07804167200423662</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1590121674305472</v>
+        <v>0.1441617297782654</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.200419506665709</v>
+        <v>0.19131802880516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05469162766855522</v>
+        <v>0.07114725632817133</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04242992905995867</v>
+        <v>0.01315083539963362</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02713911078257679</v>
+        <v>0.005845875445886715</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01611238282504971</v>
+        <v>0.06956228810442991</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03654428395411768</v>
+        <v>0.04234688716044945</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002079863487171075</v>
+        <v>0.004727307816164736</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03825868055360207</v>
+        <v>0.03572751566740199</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02546113696847269</v>
+        <v>0.001846061245045061</v>
       </c>
       <c r="N26" t="n">
-        <v>0.04327441533867712</v>
+        <v>0.02832849994258304</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03096784166155462</v>
+        <v>0.09986872300871859</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06851726165367945</v>
+        <v>0.00857636332766985</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04233591108952835</v>
+        <v>0.06098022039960924</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06621708483445</v>
+        <v>0.08186108177473714</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08566200672783766</v>
+        <v>0.1009095001551995</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01076828319245035</v>
+        <v>0.0007495204079165429</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05635182243088847</v>
+        <v>0.01727657133625594</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0375981399730536</v>
+        <v>0.003223388820034773</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05085073251805032</v>
+        <v>0.09258362106172723</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05915560361873663</v>
+        <v>0.0399223596650703</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.09933431966972059</v>
+        <v>0.08274902056387518</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07124123564402558</v>
+        <v>0.05710083728387484</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02776656187047779</v>
+        <v>0.03514842828799244</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.007241764477365482</v>
+        <v>0.04636783679755273</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0652073198252054</v>
+        <v>0.06571441597167615</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2406994358156277</v>
+        <v>0.227973723233021</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01357720961986248</v>
+        <v>0.01117861720758282</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03248381911762706</v>
+        <v>0.00529203296444001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00469362155390943</v>
+        <v>0.05535212897043414</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06753823194355518</v>
+        <v>0.06216436196681104</v>
       </c>
       <c r="J27" t="n">
-        <v>0.103661707614078</v>
+        <v>0.08109956897017832</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02002573371171402</v>
+        <v>0.0107203774382623</v>
       </c>
       <c r="L27" t="n">
-        <v>0.09196505830317878</v>
+        <v>0.01776390628808988</v>
       </c>
       <c r="M27" t="n">
-        <v>0.008139167671455285</v>
+        <v>0.03974879860617212</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02370592866468628</v>
+        <v>0.04060467973166634</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01765212092598477</v>
+        <v>0.007031440393720912</v>
       </c>
       <c r="P27" t="n">
-        <v>0.04360253548905342</v>
+        <v>0.09676264946626678</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.001428767714365845</v>
+        <v>0.0197926922366323</v>
       </c>
       <c r="R27" t="n">
-        <v>0.009676203812104621</v>
+        <v>0.06446293850609652</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1031248508468984</v>
+        <v>0.08938211047958837</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0272287852675343</v>
+        <v>0.02601587004019392</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05679625456537055</v>
+        <v>0.07758847369382649</v>
       </c>
       <c r="V27" t="n">
-        <v>0.07713304757580716</v>
+        <v>0.04618986509574285</v>
       </c>
       <c r="W27" t="n">
-        <v>0.09460405083110626</v>
+        <v>0.03131734507286357</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04684145488786412</v>
+        <v>0.00625937892695403</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02229780454996323</v>
+        <v>0.01768310498734946</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02532163476342569</v>
+        <v>0.008245279744338812</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.06461798883148527</v>
+        <v>0.1067950659102303</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04388402173896985</v>
+        <v>0.07854931330255858</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.07057963995077211</v>
+        <v>0.08080391844028767</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1963176870508751</v>
+        <v>0.1960158091646213</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01364563969632723</v>
+        <v>0.04979876329730328</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04227311736956187</v>
+        <v>0.07387294157635285</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005741902890352919</v>
+        <v>0.02860709516215276</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0363219518358209</v>
+        <v>0.0406200534606848</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008761862770051419</v>
+        <v>0.04556718806251233</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02787321429386122</v>
+        <v>0.0655187031060713</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02248790292276465</v>
+        <v>0.03638584270214425</v>
       </c>
       <c r="M28" t="n">
-        <v>0.028801246213177</v>
+        <v>0.02940358045818637</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07800100015323155</v>
+        <v>0.01976246040592608</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0426055723328346</v>
+        <v>0.03233947075597305</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0774692033863084</v>
+        <v>0.0290992394217114</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003517929962293161</v>
+        <v>0.01051224624640857</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04601709351521827</v>
+        <v>0.03999023495698534</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07399048307937084</v>
+        <v>0.008655151025453696</v>
       </c>
       <c r="T28" t="n">
-        <v>0.009898894149772498</v>
+        <v>0.05228839646814065</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09252380877851024</v>
+        <v>0.092473544790589</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01971463828135896</v>
+        <v>0.005762384303759483</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09550585302061393</v>
+        <v>0.0728886322108465</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07991952440029376</v>
+        <v>0.08417156029664374</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1129309937079504</v>
+        <v>0.02838305238397369</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0568517842623547</v>
+        <v>0.096978515737955</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01713688565920106</v>
+        <v>0.05682421022389857</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.008009497318770535</v>
+        <v>9.673294632732554e-05</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2525173979995479</v>
+        <v>-0.2481334190863838</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2274116479295019</v>
+        <v>0.2590838136876497</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02130567284649727</v>
+        <v>0.05448187527418429</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08586717580410932</v>
+        <v>0.048504751523913</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04741614497015468</v>
+        <v>0.07088769413701107</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05549482675687017</v>
+        <v>0.02531290563692591</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1066769579203805</v>
+        <v>0.09729676993424856</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1019341288387157</v>
+        <v>0.07526077897966653</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03224800553117258</v>
+        <v>0.005074988122078453</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0101610860668243</v>
+        <v>0.01576041853475191</v>
       </c>
       <c r="N29" t="n">
-        <v>0.06173553224428251</v>
+        <v>0.01170943730193878</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01695980933144969</v>
+        <v>0.01005207778145539</v>
       </c>
       <c r="P29" t="n">
-        <v>0.001496185403446339</v>
+        <v>0.05138219898046609</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01256917297764823</v>
+        <v>0.0055639814951877</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03838906729128434</v>
+        <v>0.02023568639228997</v>
       </c>
       <c r="S29" t="n">
-        <v>0.001795799834495141</v>
+        <v>0.04158509413923071</v>
       </c>
       <c r="T29" t="n">
-        <v>0.06437671378885633</v>
+        <v>0.0504385163671465</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05719490627966706</v>
+        <v>0.06457271666930607</v>
       </c>
       <c r="V29" t="n">
-        <v>0.005919748772893354</v>
+        <v>0.06289625980083002</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01473399817965367</v>
+        <v>0.06483565880155659</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1111967679022236</v>
+        <v>0.030398113027916</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01961996184509069</v>
+        <v>0.01763789334259516</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01830724478660123</v>
+        <v>0.01230327393172786</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07432355248342259</v>
+        <v>0.0894918810267977</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04027754014426099</v>
+        <v>0.07431702879877584</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2795394603569517</v>
+        <v>-0.2368264597345006</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.175432043991964</v>
+        <v>0.1762409507181714</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02251893892356873</v>
+        <v>0.03518002253464526</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03290432561030948</v>
+        <v>0.03523515181819135</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01342264565736927</v>
+        <v>0.07007252701293322</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05622913468269692</v>
+        <v>0.05530531999432814</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01570822165265701</v>
+        <v>0.003103705988257375</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0142476591871634</v>
+        <v>0.005351440405163357</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002706045812027337</v>
+        <v>0.02276106982131054</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06993217999314542</v>
+        <v>0.08668392388018077</v>
       </c>
       <c r="N30" t="n">
-        <v>0.007633349745913657</v>
+        <v>0.01310225195948255</v>
       </c>
       <c r="O30" t="n">
-        <v>0.07569199131952331</v>
+        <v>0.01620263607254974</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07879757382208316</v>
+        <v>0.06855937139110016</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01211218910997732</v>
+        <v>0.009339493554126209</v>
       </c>
       <c r="R30" t="n">
-        <v>0.04853941726179779</v>
+        <v>0.06616282939112786</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07413102668223391</v>
+        <v>0.03718212915417596</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01807150433623784</v>
+        <v>0.02866585921221772</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07119254226728471</v>
+        <v>0.0815261003379535</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06979825897255186</v>
+        <v>0.06163764357829833</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09696305160070361</v>
+        <v>0.06451570637603052</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0209293400855574</v>
+        <v>0.07700029531071466</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.03543837686542733</v>
+        <v>0.01074266913520392</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.07356377506321332</v>
+        <v>0.06621725527959493</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01918019429857254</v>
+        <v>0.003367590707806189</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.07028825704998494</v>
+        <v>0.08208500708460754</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05931280052392129</v>
+        <v>0.05552690071467495</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2030776016435096</v>
+        <v>0.2166961880798221</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02567273112971943</v>
+        <v>0.05876423600920194</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01181485541274486</v>
+        <v>0.02438391222553384</v>
       </c>
       <c r="H31" t="n">
-        <v>0.007327516986582652</v>
+        <v>0.02073526342660476</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004063875999862516</v>
+        <v>0.003938052654536357</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1011520846684294</v>
+        <v>0.09140909167029726</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07968049701539226</v>
+        <v>0.08110778850283833</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05208201774377172</v>
+        <v>0.03804442127204565</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06051879029634979</v>
+        <v>0.023305736416443</v>
       </c>
       <c r="N31" t="n">
-        <v>0.001257932144875937</v>
+        <v>0.01960130974714923</v>
       </c>
       <c r="O31" t="n">
-        <v>0.06305302638713912</v>
+        <v>0.04442192168472617</v>
       </c>
       <c r="P31" t="n">
-        <v>0.04692112286226984</v>
+        <v>0.01026344406943599</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01157638480810513</v>
+        <v>0.02467844580549358</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09569425101583656</v>
+        <v>0.06746781090671126</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03905770484423425</v>
+        <v>0.0788770437959555</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02598510436816834</v>
+        <v>0.06517549347590122</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02715747549185975</v>
+        <v>0.0796106701002315</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09467862071484617</v>
+        <v>0.09207716805668138</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0661014047030707</v>
+        <v>0.01559214299662551</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02014034105086285</v>
+        <v>0.003482519651865178</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.004969956479434236</v>
+        <v>0.02015094605152755</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04407628920172219</v>
+        <v>0.01413464051608583</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0311944202595154</v>
+        <v>0.03331295302880866</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08582359641520687</v>
+        <v>0.08946498793530043</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02679345363174752</v>
+        <v>0.02486085290129483</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1942013309935869</v>
+        <v>0.1959982707276997</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06489745135211201</v>
+        <v>0.0427957656312834</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000223165197969735</v>
+        <v>0.009289776445891844</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04327670987460064</v>
+        <v>0.02387707993647886</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03956416716094763</v>
+        <v>0.04665410226571057</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04582860728415675</v>
+        <v>0.02477620124262729</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02013489802762134</v>
+        <v>0.0007064038262453765</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03203323082362274</v>
+        <v>0.03961651577346641</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07876971969893572</v>
+        <v>0.03016355228974442</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02225791968415516</v>
+        <v>0.05152645812750416</v>
       </c>
       <c r="O32" t="n">
-        <v>0.06726753927072825</v>
+        <v>0.01803094370769712</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07988241144124264</v>
+        <v>0.0536332338333917</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0230002298533558</v>
+        <v>0.02272381327468118</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07725168255894722</v>
+        <v>0.09538763500227278</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08761080407643279</v>
+        <v>0.05814098907543268</v>
       </c>
       <c r="T32" t="n">
-        <v>0.002877163051900565</v>
+        <v>0.01028637353757404</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08425102326500059</v>
+        <v>0.07310377858747952</v>
       </c>
       <c r="V32" t="n">
-        <v>0.00671904537033932</v>
+        <v>0.03358497532986398</v>
       </c>
       <c r="W32" t="n">
-        <v>0.05647808409134594</v>
+        <v>0.06479950698938469</v>
       </c>
       <c r="X32" t="n">
-        <v>0.04473475177995323</v>
+        <v>0.08147591029925261</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02346991202782979</v>
+        <v>0.03664464937373361</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01547624662266316</v>
+        <v>0.08830502582413459</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04711562116664504</v>
+        <v>0.08915700970702779</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.03687961631949394</v>
+        <v>0.00532029991912164</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.09863481893579434</v>
+        <v>0.0885665233015827</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2151121008349204</v>
+        <v>0.21115514780474</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08984721886735593</v>
+        <v>0.08051086733698341</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03620272842129183</v>
+        <v>0.002092461928567831</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04017378575383281</v>
+        <v>0.09723759295559696</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002498227043291649</v>
+        <v>0.006148572302118441</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004891144649457562</v>
+        <v>0.0942749641134084</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1101443206145356</v>
+        <v>0.01869303512990732</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04707895935356436</v>
+        <v>0.00293279507485712</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01192257203855184</v>
+        <v>0.07221553692782652</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001298776378863212</v>
+        <v>0.07020294179050625</v>
       </c>
       <c r="O33" t="n">
-        <v>0.08627675656921227</v>
+        <v>0.07837909818947683</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03653753013201583</v>
+        <v>0.009832466298159075</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04653576917235514</v>
+        <v>0.006866145351601029</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09823693039579674</v>
+        <v>0.0590513846819948</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08494411148060126</v>
+        <v>0.08580890571400147</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01944698525349953</v>
+        <v>0.01664104369939272</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002377353117765896</v>
+        <v>0.06644757408053253</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06119348645240263</v>
+        <v>0.06132368365420669</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1073908492559601</v>
+        <v>0.06236421502401741</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02958373716988583</v>
+        <v>0.04631401053133623</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02728830968123307</v>
+        <v>0.01809529549738041</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02579480033721352</v>
+        <v>0.01595521462469391</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.001126365364803747</v>
+        <v>0.02124726004423746</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02920928249650964</v>
+        <v>0.007364935049196905</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1313323741164718</v>
+        <v>0.1340588223107868</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2084263787800977</v>
+        <v>0.2040840716449</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02700742655884907</v>
+        <v>0.0164230732687578</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01475635806950783</v>
+        <v>0.06133909719385594</v>
       </c>
       <c r="H34" t="n">
-        <v>0.004327963709591605</v>
+        <v>0.006302200459894301</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02488672476464156</v>
+        <v>0.03167581512282533</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03683439724284262</v>
+        <v>0.01850047497411261</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02936517421459086</v>
+        <v>0.007837811226137617</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01746063511372352</v>
+        <v>0.01170953830745376</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03570457799276956</v>
+        <v>0.05886818590456458</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01280628119182695</v>
+        <v>0.02613661447942308</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07345464360756498</v>
+        <v>0.003183037318629036</v>
       </c>
       <c r="P34" t="n">
-        <v>0.02752498100219177</v>
+        <v>0.0892949186652747</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.09189783285109891</v>
+        <v>0.05917025706658612</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08325065105941419</v>
+        <v>0.06926907319613453</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08716283503564136</v>
+        <v>0.1093797926695112</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0001352783165188753</v>
+        <v>0.01023993372927718</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07616643212734997</v>
+        <v>0.09010242886085951</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01014038671635049</v>
+        <v>0.0719325205526129</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06509832619403913</v>
+        <v>0.09988037013598762</v>
       </c>
       <c r="X34" t="n">
-        <v>0.08254459078971842</v>
+        <v>0.02148533746243493</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03538328110749486</v>
+        <v>0.04431689897818201</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01424779180872422</v>
+        <v>0.02009489910792463</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.09572084667359643</v>
+        <v>0.06795518795144642</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.05412258385195304</v>
+        <v>0.004902533368113999</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04469504244308859</v>
+        <v>0.02277083504806572</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2437912030814753</v>
+        <v>0.2388069501479128</v>
       </c>
       <c r="F35" t="n">
-        <v>0.032341755216787</v>
+        <v>0.1197354733893689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02706827933065273</v>
+        <v>0.01488909808912279</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01156327950524074</v>
+        <v>0.03501525969722193</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01505757089592402</v>
+        <v>0.07380394477024665</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07366652207243503</v>
+        <v>0.0005518976893261034</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1001792474689069</v>
+        <v>0.004018632843238151</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03228979974691115</v>
+        <v>0.002576483640077696</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0336411267579281</v>
+        <v>0.01193114635228391</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01518192943414098</v>
+        <v>0.00357980811626006</v>
       </c>
       <c r="O35" t="n">
-        <v>0.006540557294934303</v>
+        <v>0.03046961934381663</v>
       </c>
       <c r="P35" t="n">
-        <v>0.03112041468762806</v>
+        <v>0.05577482777096071</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.008804334516703677</v>
+        <v>0.03614401257971549</v>
       </c>
       <c r="R35" t="n">
-        <v>0.04723232060450778</v>
+        <v>0.06134550400754889</v>
       </c>
       <c r="S35" t="n">
-        <v>0.006643742747428839</v>
+        <v>0.01432061801160007</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01495467192849411</v>
+        <v>0.002731587087735159</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09956953981693119</v>
+        <v>0.1170057960357223</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0939536295603238</v>
+        <v>0.02396563374509367</v>
       </c>
       <c r="W35" t="n">
-        <v>0.09921976346161808</v>
+        <v>0.09247894094204807</v>
       </c>
       <c r="X35" t="n">
-        <v>0.008841336174330619</v>
+        <v>0.04116645709343209</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.0126556296977003</v>
+        <v>0.01191758451501438</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.09339953482939202</v>
+        <v>0.04636527035095846</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04832872302902577</v>
+        <v>0.08868086834993774</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.08774629122205455</v>
+        <v>0.1115315355792701</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.01250230897124258</v>
+        <v>0.04571436392986222</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2200832734194407</v>
+        <v>0.2207247844412436</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09102516742005115</v>
+        <v>0.0623430389007392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006064034076425289</v>
+        <v>0.05890425957716391</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02759401327571116</v>
+        <v>0.0003185544904951393</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03665009124766956</v>
+        <v>0.007768814253016373</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02883944410139298</v>
+        <v>0.02378861494705956</v>
       </c>
       <c r="K36" t="n">
-        <v>6.054932579590865e-05</v>
+        <v>0.01049485934341955</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04499111128733001</v>
+        <v>0.0571249713638125</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05384008573160602</v>
+        <v>0.06524652361988169</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03562547844125168</v>
+        <v>0.01556379132568254</v>
       </c>
       <c r="O36" t="n">
-        <v>0.002729409546369515</v>
+        <v>0.04438976255281948</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03134675663498174</v>
+        <v>0.07775400624193994</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.003275834249048226</v>
+        <v>0.01715732837857566</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1019441364337582</v>
+        <v>0.08812099111971754</v>
       </c>
       <c r="S36" t="n">
-        <v>0.09540948995883806</v>
+        <v>0.09113656829409157</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03275813234010794</v>
+        <v>0.06293326185947241</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03089518827591915</v>
+        <v>0.0174436009188379</v>
       </c>
       <c r="V36" t="n">
-        <v>0.07734116896476832</v>
+        <v>0.0480310839554486</v>
       </c>
       <c r="W36" t="n">
-        <v>0.007991551213080686</v>
+        <v>0.06010140208485789</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07083039912167578</v>
+        <v>0.02991300215191437</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02032383125474837</v>
+        <v>0.02165694085327712</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06420296661535929</v>
+        <v>0.04187997528539211</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.105238349176035</v>
+        <v>0.05378598853808114</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03102281130807586</v>
+        <v>0.04414265994430396</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0711994817581254</v>
+        <v>0.05890411277489923</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2786401604201731</v>
+        <v>0.2429316479396328</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04859621448102073</v>
+        <v>0.09164975950784507</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01234396964427233</v>
+        <v>0.00564817679340044</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01240525815885046</v>
+        <v>0.008852042802548536</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1055246082572154</v>
+        <v>0.09545773010447134</v>
       </c>
       <c r="J37" t="n">
-        <v>0.002700354296465711</v>
+        <v>0.05796242563853244</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03789741833307117</v>
+        <v>0.02025750661154706</v>
       </c>
       <c r="L37" t="n">
-        <v>0.005727961771180438</v>
+        <v>0.00415288893460187</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02221453620960049</v>
+        <v>0.009564324042290863</v>
       </c>
       <c r="N37" t="n">
-        <v>0.004510973115855203</v>
+        <v>0.08169574262012008</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06475368089098808</v>
+        <v>0.09273563882107412</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08424961747425166</v>
+        <v>0.03474596640438132</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.07491236708037688</v>
+        <v>0.01733099482279287</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01440469096970148</v>
+        <v>0.031192841647117</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07040903403159013</v>
+        <v>0.0591867715818649</v>
       </c>
       <c r="T37" t="n">
-        <v>0.008564617715660729</v>
+        <v>0.02618441622221072</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07535199507406194</v>
+        <v>0.006790580250108712</v>
       </c>
       <c r="V37" t="n">
-        <v>0.00325982970710404</v>
+        <v>0.004573829306256133</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1034227222575602</v>
+        <v>0.088260094577682</v>
       </c>
       <c r="X37" t="n">
-        <v>0.001358540348301805</v>
+        <v>0.05875536361838621</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02851499321696327</v>
+        <v>0.01329061932569431</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0962865333173251</v>
+        <v>0.07634643597609939</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.02371515449419811</v>
+        <v>0.0598180674122888</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.09887492915438473</v>
+        <v>0.05554778297868588</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.04915175314794019</v>
+        <v>0.09074591688184123</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2060775189069344</v>
+        <v>0.2075801106831972</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01733822261529064</v>
+        <v>0.02266285059916066</v>
       </c>
       <c r="G38" t="n">
-        <v>0.008850082285230361</v>
+        <v>0.01461063294975389</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002598915367502482</v>
+        <v>0.001632736355527369</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1050452965860706</v>
+        <v>0.04791232946155175</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01317863429498069</v>
+        <v>0.08801137783528194</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0008848637340587006</v>
+        <v>0.01168855860432246</v>
       </c>
       <c r="L38" t="n">
-        <v>0.08913975283418561</v>
+        <v>0.006750116825799617</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06832369463074263</v>
+        <v>0.07566701112603978</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01432242267383593</v>
+        <v>0.006274574689117142</v>
       </c>
       <c r="O38" t="n">
-        <v>0.009464940365527931</v>
+        <v>0.009135627213977694</v>
       </c>
       <c r="P38" t="n">
-        <v>0.03395902851441364</v>
+        <v>0.08104194912062913</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01229828078235052</v>
+        <v>0.0393636004722793</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0935186077413241</v>
+        <v>0.08513863173566784</v>
       </c>
       <c r="S38" t="n">
-        <v>0.09006109539995792</v>
+        <v>0.08693413518927902</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06791764419967704</v>
+        <v>0.02029943446896429</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03042963506569867</v>
+        <v>0.07342652109959236</v>
       </c>
       <c r="V38" t="n">
-        <v>0.003962816816668458</v>
+        <v>0.02882894334520598</v>
       </c>
       <c r="W38" t="n">
-        <v>0.06844855628916476</v>
+        <v>0.06966172860877963</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0005110980266441682</v>
+        <v>0.06135576083612075</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.08178433108000176</v>
+        <v>0.002804773971957007</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08193162268506156</v>
+        <v>0.06649952474965355</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.1025830540350684</v>
+        <v>0.04443019388620098</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.003447403976543448</v>
+        <v>0.05586898685513781</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02272516438920047</v>
+        <v>0.0231828966048601</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2384700122881161</v>
+        <v>0.2375065472907136</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0126427176827087</v>
+        <v>0.05293881315560389</v>
       </c>
       <c r="G39" t="n">
-        <v>0.009472745801804806</v>
+        <v>0.02265248969530282</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04437676909382048</v>
+        <v>0.001399582692103703</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1447444733471911</v>
+        <v>0.08785117411965006</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0003875554886707837</v>
+        <v>0.01084120432496721</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07945279866279598</v>
+        <v>0.08360787331903775</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0007279217270624941</v>
+        <v>0.06478040733128733</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04661459382041633</v>
+        <v>0.0142656253762621</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01785221608237176</v>
+        <v>0.01202556972614122</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03722293577967371</v>
+        <v>0.08678920717647662</v>
       </c>
       <c r="P39" t="n">
-        <v>0.08325891234118847</v>
+        <v>0.04455141677707346</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01114656396857869</v>
+        <v>0.05504729935899592</v>
       </c>
       <c r="R39" t="n">
-        <v>0.009961735613188477</v>
+        <v>0.04240258444173849</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07848756888495934</v>
+        <v>0.08964012191941592</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04558027993674626</v>
+        <v>0.05773227131867145</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09367527416961449</v>
+        <v>0.02210670599654594</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03509487202669422</v>
+        <v>0.01534526752156808</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0163246187844277</v>
+        <v>0.03122153729865008</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0005016002441162258</v>
+        <v>0.03919839262219531</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01497882955380148</v>
+        <v>0.008445486260427022</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04902964067988479</v>
+        <v>0.07416812042377778</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.03174203057823604</v>
+        <v>0.04203542832912623</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.1367233457320477</v>
+        <v>0.04095342081498145</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01971233375639903</v>
+        <v>0.03495046693754375</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2242083468119832</v>
+        <v>0.2251967418090011</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04994330862267111</v>
+        <v>0.06383675524120966</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07707519280007161</v>
+        <v>0.009004588077462596</v>
       </c>
       <c r="H40" t="n">
-        <v>0.01469079939209079</v>
+        <v>0.05507252657348073</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05141260427192301</v>
+        <v>0.01583638510029302</v>
       </c>
       <c r="J40" t="n">
-        <v>0.007337425872539254</v>
+        <v>0.0732908645401517</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001273595836131903</v>
+        <v>0.00362010064432375</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05085658487968293</v>
+        <v>0.03058033661596151</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0375020131432917</v>
+        <v>0.08240087411953638</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01422212735600263</v>
+        <v>0.005927416792203538</v>
       </c>
       <c r="O40" t="n">
-        <v>0.002226526839430619</v>
+        <v>0.02148259483245389</v>
       </c>
       <c r="P40" t="n">
-        <v>0.07977706918207168</v>
+        <v>0.03578049736516829</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03155333586216512</v>
+        <v>0.03412773519556055</v>
       </c>
       <c r="R40" t="n">
-        <v>0.097926050769404</v>
+        <v>0.07642574656873057</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06094021190766175</v>
+        <v>0.06741773792531483</v>
       </c>
       <c r="T40" t="n">
-        <v>0.001419400325158632</v>
+        <v>0.004429077224437683</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0186589959023832</v>
+        <v>0.008825654992298043</v>
       </c>
       <c r="V40" t="n">
-        <v>0.08793993670804522</v>
+        <v>0.0561467875848096</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04385400065761328</v>
+        <v>0.03692777574078639</v>
       </c>
       <c r="X40" t="n">
-        <v>0.005062021253093541</v>
+        <v>0.07711354477314462</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.057097327805767</v>
+        <v>0.06028225303747319</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08652176319056092</v>
+        <v>0.08472843786799307</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.08752451841557971</v>
+        <v>0.06557694454622784</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03518518900666029</v>
+        <v>0.03116536464097864</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.006320150010339767</v>
+        <v>-0.01274923616325488</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2786793076760274</v>
+        <v>0.2873343975649406</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1009745284924084</v>
+        <v>0.01615276399411865</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08560270679728216</v>
+        <v>0.09685081868772015</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04747955934214815</v>
+        <v>0.01853666541886016</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03434853062644594</v>
+        <v>0.02694754561828011</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06288408346958224</v>
+        <v>0.08297589464385331</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09985141760154247</v>
+        <v>0.09797038642098924</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001794474269621962</v>
+        <v>0.005827017679384899</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05010142013820428</v>
+        <v>0.06678948030789682</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03583896508797385</v>
+        <v>0.06717268843767567</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03034118556902797</v>
+        <v>0.01936344608850046</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03500150829930584</v>
+        <v>0.03000254759701831</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.03884862603742521</v>
+        <v>0.007332090685337786</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03246872827978169</v>
+        <v>0.03741265989976197</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07672242906036685</v>
+        <v>0.06127868212747089</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06174419588768498</v>
+        <v>0.06586389576316995</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02220329907934146</v>
+        <v>0.05082721044275448</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01166149126047107</v>
+        <v>0.03339211458026911</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01140309626137384</v>
+        <v>0.006605876885224781</v>
       </c>
       <c r="X41" t="n">
-        <v>0.04797671142920854</v>
+        <v>0.05441137946112157</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02837557193967739</v>
+        <v>0.003411200675876455</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04629225194837624</v>
+        <v>0.06509353623898403</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.02881272848367931</v>
+        <v>0.04527822347531786</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.009272490639070199</v>
+        <v>0.04050387487041336</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.006235989213090164</v>
+        <v>0.01995055392497634</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1987513158970395</v>
+        <v>0.1954929495621948</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03115988647574322</v>
+        <v>0.07869429729827374</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02630376406179383</v>
+        <v>0.007702607310371114</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08294207443481424</v>
+        <v>0.05084842795685592</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0007621763812752904</v>
+        <v>0.01218333345084109</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02385513824104916</v>
+        <v>0.01934165099012806</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01743980869373491</v>
+        <v>0.002508020311552307</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05292889644873346</v>
+        <v>0.0280730587130874</v>
       </c>
       <c r="M42" t="n">
-        <v>0.08228862439219345</v>
+        <v>0.06084593639429078</v>
       </c>
       <c r="N42" t="n">
-        <v>0.001051188992792548</v>
+        <v>0.0465266291904604</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02230150666770752</v>
+        <v>0.03350861661924558</v>
       </c>
       <c r="P42" t="n">
-        <v>0.07482417132364449</v>
+        <v>0.08176895714072419</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07892598790308798</v>
+        <v>0.0908756865665801</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08441281696596531</v>
+        <v>0.07039008829044513</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06685854635723078</v>
+        <v>0.06066969725580411</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0353959209027596</v>
+        <v>0.005180426254390348</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03379101147432402</v>
+        <v>0.04288162782685913</v>
       </c>
       <c r="V42" t="n">
-        <v>0.007113611244263361</v>
+        <v>0.036946725199065</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04495680959953816</v>
+        <v>0.0272504608460567</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0605191299299434</v>
+        <v>0.06717588591122857</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.05928613020550634</v>
+        <v>0.03878491251317158</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.04969471329462835</v>
+        <v>0.05938057450080386</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.06050869202288401</v>
+        <v>0.07323823546487271</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.002679393986386745</v>
+        <v>0.005224143994892226</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1443494564630048</v>
+        <v>0.1384810220570401</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2236058067932202</v>
+        <v>0.2247850570482759</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04197285835547836</v>
+        <v>0.09395220937534443</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05478036847914706</v>
+        <v>0.05857156607042366</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05398565815542228</v>
+        <v>0.08007526060255031</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01720099431055387</v>
+        <v>0.0207101207601315</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01950598163055256</v>
+        <v>0.09572744665816611</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0846155417699815</v>
+        <v>0.04774880332411897</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03441207664258479</v>
+        <v>0.04673724520159524</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04214195168419601</v>
+        <v>0.008756883160871622</v>
       </c>
       <c r="N43" t="n">
-        <v>0.009349559457402342</v>
+        <v>0.004110425760682833</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09738448019334553</v>
+        <v>0.1121807510642087</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01232048782030544</v>
+        <v>0.04487171444231147</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.009025115897698572</v>
+        <v>0.01204799183306528</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02451918012206635</v>
+        <v>0.01484419437343441</v>
       </c>
       <c r="S43" t="n">
-        <v>0.05308667801594083</v>
+        <v>0.07122414132745554</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0181528283116621</v>
+        <v>0.07065899620786213</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06811509149359303</v>
+        <v>0.09082853002895311</v>
       </c>
       <c r="V43" t="n">
-        <v>0.00960885464459062</v>
+        <v>0.02754503088820794</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05208986128955787</v>
+        <v>0.0004184019309837669</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0287383315787041</v>
+        <v>0.02390031206436483</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02241968295782484</v>
+        <v>0.0242366197245807</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.09628285180497154</v>
+        <v>0.0328269637128649</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1125549042199814</v>
+        <v>0.01519351117489642</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.03773666116443891</v>
+        <v>0.002832880312926081</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1575229169901762</v>
+        <v>0.1509587798637736</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1677239339543456</v>
+        <v>0.1673142887856729</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08965148427525087</v>
+        <v>0.01225027152540198</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07819737771475931</v>
+        <v>0.07541878855898644</v>
       </c>
       <c r="H44" t="n">
-        <v>0.006077850859278604</v>
+        <v>0.02289899190942274</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01462581951751085</v>
+        <v>0.004161415148729868</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004816682032016361</v>
+        <v>0.005769784400055724</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0208330949171816</v>
+        <v>0.01124433865606676</v>
       </c>
       <c r="L44" t="n">
-        <v>0.007317320476319793</v>
+        <v>0.02753824937602235</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04537826609046024</v>
+        <v>0.04067207866721746</v>
       </c>
       <c r="N44" t="n">
-        <v>0.006113968494577325</v>
+        <v>0.007057846106902886</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0264467608163864</v>
+        <v>0.07830445372756145</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0757286255171675</v>
+        <v>0.01063628808695222</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.07670618274991667</v>
+        <v>0.08410499700234929</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0578804216608891</v>
+        <v>0.06381248175646907</v>
       </c>
       <c r="S44" t="n">
-        <v>0.07229899939946556</v>
+        <v>0.06841132591791094</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02038095743269695</v>
+        <v>0.02317318505365661</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05001721296771646</v>
+        <v>0.06235741361376965</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02586263764780715</v>
+        <v>0.01409226639262807</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0801509363055842</v>
+        <v>0.04292886551904267</v>
       </c>
       <c r="X44" t="n">
-        <v>0.05217606971765208</v>
+        <v>0.0805263320524358</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01956219740562821</v>
+        <v>0.08132396861957142</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.02266747452477069</v>
+        <v>0.061963362202569</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.09533950987221856</v>
+        <v>0.07063907663726632</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05177014960474548</v>
+        <v>0.05071421906901128</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.02152832237134696</v>
+        <v>0.003723875677803335</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2088994691596137</v>
+        <v>0.20644644695942</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07862628696616271</v>
+        <v>0.004295443898347127</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03445954938990477</v>
+        <v>0.07985139117023259</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01433186867655659</v>
+        <v>0.00973116560667095</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01000928627752416</v>
+        <v>0.01599002611278974</v>
       </c>
       <c r="J45" t="n">
-        <v>0.009671119449807159</v>
+        <v>0.05311530709939209</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09893204384127049</v>
+        <v>0.1147161867758884</v>
       </c>
       <c r="L45" t="n">
-        <v>0.07341176317356361</v>
+        <v>0.08730634677321834</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05186749160140666</v>
+        <v>0.0376620281503388</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04530104429853253</v>
+        <v>0.006910207175548613</v>
       </c>
       <c r="O45" t="n">
-        <v>0.09592208020354649</v>
+        <v>0.1027665069160458</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03435574246884678</v>
+        <v>0.03387139125238209</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.009805292994772915</v>
+        <v>0.003045934955763658</v>
       </c>
       <c r="R45" t="n">
-        <v>0.02732135135564752</v>
+        <v>0.01639408390454559</v>
       </c>
       <c r="S45" t="n">
-        <v>0.08215198493403218</v>
+        <v>0.1176493891779633</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02174432554375096</v>
+        <v>0.05182669820138194</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05812714347964575</v>
+        <v>0.0241957988285055</v>
       </c>
       <c r="V45" t="n">
-        <v>0.006136859248261653</v>
+        <v>0.0461705300243242</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07160014676824773</v>
+        <v>0.04476937382275074</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0003835387121270818</v>
+        <v>0.005172660433709406</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.02318337743544257</v>
+        <v>0.06203887852601291</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02652400547607332</v>
+        <v>0.01164200159356919</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.03757546697141277</v>
+        <v>0.01730136149504263</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.08855823073346333</v>
+        <v>0.05357728810557636</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.01341631109493607</v>
+        <v>0.0233067789819946</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1636374971993992</v>
+        <v>0.1726254074445798</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003465779617205963</v>
+        <v>0.07871336989366598</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07728955907212794</v>
+        <v>0.0650005879925154</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003430642448709737</v>
+        <v>0.02067687220371343</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01169324974756682</v>
+        <v>0.04311746751526684</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01235446257587851</v>
+        <v>0.04066722426919053</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04185337553520408</v>
+        <v>0.02116320526332962</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00377179500191069</v>
+        <v>0.005893496946135212</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09249500952050886</v>
+        <v>0.05253809883859395</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0007499736859238517</v>
+        <v>0.01104377692672441</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03437491042723594</v>
+        <v>0.1023699752809331</v>
       </c>
       <c r="P46" t="n">
-        <v>0.06945979420092235</v>
+        <v>0.03119517762907965</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.09017121328392391</v>
+        <v>0.05401009647009436</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09233020676352856</v>
+        <v>0.07667809993644049</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01236912290354754</v>
+        <v>0.04818080123157745</v>
       </c>
       <c r="T46" t="n">
-        <v>0.05251479650555291</v>
+        <v>0.00393401345373798</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0662167929822244</v>
+        <v>0.07521720534450531</v>
       </c>
       <c r="V46" t="n">
-        <v>0.002104817021750659</v>
+        <v>0.02631128470415327</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08900059670349117</v>
+        <v>0.0941671479005602</v>
       </c>
       <c r="X46" t="n">
-        <v>0.03775793337748929</v>
+        <v>0.02063886882668323</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.03617478069861561</v>
+        <v>0.02746937292751497</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07598510434613512</v>
+        <v>0.04127090711711122</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.01684513092774145</v>
+        <v>0.001652753391951455</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.07759095265280443</v>
+        <v>0.05809019593652202</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.01216703301478067</v>
+        <v>-0.01098926181057257</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2067802644500303</v>
+        <v>0.2106795048813286</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03351931708021813</v>
+        <v>0.03497647635695151</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07081045590778375</v>
+        <v>0.1050825349837137</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04512245702059193</v>
+        <v>0.0153958319321074</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09535225057601612</v>
+        <v>0.0988561228320962</v>
       </c>
       <c r="J47" t="n">
-        <v>0.09336551787053698</v>
+        <v>0.05000881939563426</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02716912475594629</v>
+        <v>0.06537236835256305</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01034706338270221</v>
+        <v>0.0002354948197971396</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0172473972594608</v>
+        <v>0.01370729507384568</v>
       </c>
       <c r="N47" t="n">
-        <v>0.001393703113871905</v>
+        <v>0.01010540190753652</v>
       </c>
       <c r="O47" t="n">
-        <v>0.06119354317944992</v>
+        <v>0.09184294936374017</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08262763207749978</v>
+        <v>0.1024194168553692</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05979618099531481</v>
+        <v>0.001879985833160759</v>
       </c>
       <c r="R47" t="n">
-        <v>0.009194816396646306</v>
+        <v>0.001002384879575831</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01834793545591107</v>
+        <v>0.01537620684750991</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0009410045735994781</v>
+        <v>0.02776021746877285</v>
       </c>
       <c r="U47" t="n">
-        <v>0.07507757702684585</v>
+        <v>0.0574091729601602</v>
       </c>
       <c r="V47" t="n">
-        <v>0.06063147745336547</v>
+        <v>0.05140510218674027</v>
       </c>
       <c r="W47" t="n">
-        <v>0.06377594313810656</v>
+        <v>0.04670037567173583</v>
       </c>
       <c r="X47" t="n">
-        <v>0.06171367672702503</v>
+        <v>0.1220059386940151</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.008255914974797281</v>
+        <v>0.02377384637357101</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.02050682945063894</v>
+        <v>0.06154477951122801</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.06746166269253563</v>
+        <v>0.002138519821590703</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0161485188911359</v>
+        <v>0.001000757878584553</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.004050131520468016</v>
+        <v>-0.01345824280807723</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1446692692115223</v>
+        <v>0.1439454391882468</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04627078354423767</v>
+        <v>0.08790558308140947</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05832084794868358</v>
+        <v>0.0887671161105964</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02455274400714593</v>
+        <v>0.04017092536838145</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03533904576288539</v>
+        <v>0.0158466289128464</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02670571509537155</v>
+        <v>0.0582481238818023</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01400339140346747</v>
+        <v>0.0008174220557318414</v>
       </c>
       <c r="L48" t="n">
-        <v>0.07635604688150137</v>
+        <v>0.03539337941634527</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04987273026757951</v>
+        <v>0.05894509178376664</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01081489978416974</v>
+        <v>0.008161754507881241</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02965242262563742</v>
+        <v>0.03862222043835503</v>
       </c>
       <c r="P48" t="n">
-        <v>0.05795384289003568</v>
+        <v>0.006617596092891384</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.05255536120762976</v>
+        <v>0.07017577314812673</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06358126609566919</v>
+        <v>0.07379471665969323</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01303157490394112</v>
+        <v>0.0217526791659014</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06143077191090754</v>
+        <v>0.08446948701891283</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07455897320492968</v>
+        <v>0.02311837176606019</v>
       </c>
       <c r="V48" t="n">
-        <v>0.002733424747124019</v>
+        <v>0.02025929762053578</v>
       </c>
       <c r="W48" t="n">
-        <v>0.009830488234331938</v>
+        <v>0.009774687016182573</v>
       </c>
       <c r="X48" t="n">
-        <v>0.05672500568075638</v>
+        <v>0.01269600160708479</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.06859801335762937</v>
+        <v>0.05703282489530106</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08132893426578026</v>
+        <v>0.0907033924181916</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.001508739799533149</v>
+        <v>0.06046394776050196</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.08427497638105207</v>
+        <v>0.03626297927350011</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.05118672759887959</v>
+        <v>0.02935024089008401</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1967341700373198</v>
+        <v>0.203860785956329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.007691867071542628</v>
+        <v>0.005634096297614741</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07239217293439158</v>
+        <v>0.02204962279544102</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05129831226457293</v>
+        <v>0.06269549181335954</v>
       </c>
       <c r="I49" t="n">
-        <v>0.08219602402267057</v>
+        <v>0.1029091554626946</v>
       </c>
       <c r="J49" t="n">
-        <v>0.08614340552804013</v>
+        <v>0.04009799365932057</v>
       </c>
       <c r="K49" t="n">
-        <v>0.06670637654404449</v>
+        <v>0.05554559245606142</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1492459906617684</v>
+        <v>0.07115454877587983</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09811933313158276</v>
+        <v>0.007460255465006001</v>
       </c>
       <c r="N49" t="n">
-        <v>0.02334131665502782</v>
+        <v>0.005296433268894489</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0129379312408747</v>
+        <v>0.09313715527080905</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0375436738255957</v>
+        <v>0.07618570103831522</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01905592869047767</v>
+        <v>0.006641459922368319</v>
       </c>
       <c r="R49" t="n">
-        <v>0.02224032549239836</v>
+        <v>0.005016107777562827</v>
       </c>
       <c r="S49" t="n">
-        <v>0.04523828996929888</v>
+        <v>0.05870287524829765</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02761430016059625</v>
+        <v>0.02997709220879103</v>
       </c>
       <c r="U49" t="n">
-        <v>0.002661235706421539</v>
+        <v>0.06137568978795224</v>
       </c>
       <c r="V49" t="n">
-        <v>0.008558308955774569</v>
+        <v>0.05579446425609465</v>
       </c>
       <c r="W49" t="n">
-        <v>0.09901409834639276</v>
+        <v>0.06413861098653065</v>
       </c>
       <c r="X49" t="n">
-        <v>0.06657147665084624</v>
+        <v>0.08493031309472639</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.01789832346810833</v>
+        <v>0.003374470656918228</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0009084094849002564</v>
+        <v>0.02453580773226794</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.001578336544428636</v>
+        <v>0.01402002929033854</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.001044562650244841</v>
+        <v>0.04932703273475517</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07315660933031665</v>
+        <v>0.07372688960544371</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1422994730931859</v>
+        <v>0.1410795141760511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02730491423122101</v>
+        <v>0.08491975725351775</v>
       </c>
       <c r="G50" t="n">
-        <v>0.007300548014102384</v>
+        <v>0.01432973882416796</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08437603401139848</v>
+        <v>0.02272028315189694</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02792985593302898</v>
+        <v>0.02711807977350798</v>
       </c>
       <c r="J50" t="n">
-        <v>0.001408703714629075</v>
+        <v>0.03584545504735599</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01651522764544125</v>
+        <v>0.02387148502557462</v>
       </c>
       <c r="L50" t="n">
-        <v>0.001189436930697848</v>
+        <v>0.02989461294949868</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0538711625397257</v>
+        <v>0.008502651797346335</v>
       </c>
       <c r="N50" t="n">
-        <v>0.03701728566786122</v>
+        <v>0.04221566223323595</v>
       </c>
       <c r="O50" t="n">
-        <v>0.05989430534703969</v>
+        <v>0.003639708264235766</v>
       </c>
       <c r="P50" t="n">
-        <v>0.02187454973142154</v>
+        <v>0.01436364550850004</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.03676760441479209</v>
+        <v>0.09452935010735392</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08121231135472028</v>
+        <v>0.09647228785977216</v>
       </c>
       <c r="S50" t="n">
-        <v>0.04080340622453833</v>
+        <v>0.04138580099132605</v>
       </c>
       <c r="T50" t="n">
-        <v>0.06482995679438705</v>
+        <v>0.04555097967024348</v>
       </c>
       <c r="U50" t="n">
-        <v>0.07827334563784326</v>
+        <v>0.08256192783998065</v>
       </c>
       <c r="V50" t="n">
-        <v>0.05775293769053694</v>
+        <v>0.07920094698608807</v>
       </c>
       <c r="W50" t="n">
-        <v>0.007872646063433013</v>
+        <v>0.01929896439838788</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07557709653449649</v>
+        <v>0.06029476459072512</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02405381209866766</v>
+        <v>0.05532636508561831</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.07656092411508859</v>
+        <v>0.08299090164832061</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06504673544186446</v>
+        <v>0.02554050514418487</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.05256719986306473</v>
+        <v>0.009426125849160897</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.153932608797337</v>
+        <v>0.143316286058201</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.161402599910959</v>
+        <v>0.1552434123723701</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02643236156954131</v>
+        <v>0.003318873770868732</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04727426432073002</v>
+        <v>0.04512585966224349</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09713248629700388</v>
+        <v>0.006618950332885477</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1012653671813685</v>
+        <v>0.07000843255912882</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01681189213372893</v>
+        <v>0.01310113345014608</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1021295668408874</v>
+        <v>0.06834807350683614</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06489487731105772</v>
+        <v>0.04290647847792959</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06661657178770945</v>
+        <v>0.01439156097132619</v>
       </c>
       <c r="N51" t="n">
-        <v>0.006910778242385625</v>
+        <v>0.03269928814201441</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02915466913840719</v>
+        <v>0.03647307444564565</v>
       </c>
       <c r="P51" t="n">
-        <v>0.006877007487060811</v>
+        <v>0.006642884899125412</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.00783456288870963</v>
+        <v>0.08375476186447069</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0538857545808629</v>
+        <v>0.07148238472499872</v>
       </c>
       <c r="S51" t="n">
-        <v>0.08495750079335107</v>
+        <v>0.08641774580167617</v>
       </c>
       <c r="T51" t="n">
-        <v>0.02162710014872557</v>
+        <v>0.03127762856873748</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02677550358346691</v>
+        <v>0.02991178469451235</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02891914841519158</v>
+        <v>0.08010245560376468</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08575410093052696</v>
+        <v>0.07270211569602725</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0409284113887752</v>
+        <v>0.06108735248136588</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.03964180644995396</v>
+        <v>0.05057064049116908</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02171552074254026</v>
+        <v>0.05420053606232995</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01547577119299971</v>
+        <v>0.03538528049717269</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.006984976575015488</v>
+        <v>0.003472703295624978</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1744674237318891</v>
+        <v>0.137156027046877</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1741638793540356</v>
+        <v>0.1744471754248549</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05327465592942762</v>
+        <v>0.05056876547017441</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03119694236408388</v>
+        <v>0.05018056981949177</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02862155776845067</v>
+        <v>0.06971745484790129</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05458904822491574</v>
+        <v>0.01987910635118266</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06774106965383163</v>
+        <v>0.06985560642112591</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05197031298991053</v>
+        <v>0.05189391556294605</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01068194225171045</v>
+        <v>0.03402402501326188</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01860302856058594</v>
+        <v>0.03535521591512962</v>
       </c>
       <c r="N52" t="n">
-        <v>0.06190330606861087</v>
+        <v>0.07665681818863108</v>
       </c>
       <c r="O52" t="n">
-        <v>0.08642081331441413</v>
+        <v>0.04577902233245721</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01053564116754975</v>
+        <v>0.07418738208660346</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08297175254637214</v>
+        <v>0.03383474242342276</v>
       </c>
       <c r="R52" t="n">
-        <v>0.04167724785306948</v>
+        <v>0.05661773590934063</v>
       </c>
       <c r="S52" t="n">
-        <v>0.002990921288205028</v>
+        <v>0.03133394422339901</v>
       </c>
       <c r="T52" t="n">
-        <v>0.08337840029479014</v>
+        <v>0.07722831199064327</v>
       </c>
       <c r="U52" t="n">
-        <v>0.09648041502924874</v>
+        <v>0.0102839084660619</v>
       </c>
       <c r="V52" t="n">
-        <v>0.002576616502943253</v>
+        <v>0.0121018649027206</v>
       </c>
       <c r="W52" t="n">
-        <v>0.00725313291854636</v>
+        <v>0.007221659473947871</v>
       </c>
       <c r="X52" t="n">
-        <v>0.07485664062882241</v>
+        <v>0.07081487410631454</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.01478309610579671</v>
+        <v>0.0230126893144979</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.008301887859964281</v>
+        <v>0.01359210213323886</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07224987120084585</v>
+        <v>0.07480102867546208</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.03694169947790464</v>
+        <v>0.01105925637204543</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.172109968589517</v>
+        <v>-0.1537510469735322</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.231907560622039</v>
+        <v>0.2131756113793955</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0143593904408947</v>
+        <v>0.001223653805237647</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03421221784156887</v>
+        <v>0.001438078408306592</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01254837560580349</v>
+        <v>0.000272613448279974</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06230263731870257</v>
+        <v>0.05360636565228454</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04297853827632289</v>
+        <v>0.080620002308563</v>
       </c>
       <c r="K53" t="n">
-        <v>0.04363124099293135</v>
+        <v>0.0379570346366581</v>
       </c>
       <c r="L53" t="n">
-        <v>0.009520793891042253</v>
+        <v>0.02738519749770769</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06750327219888888</v>
+        <v>0.0950903929387879</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03630977088999757</v>
+        <v>0.0225618528947248</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05289061201363032</v>
+        <v>0.04615810005484287</v>
       </c>
       <c r="P53" t="n">
-        <v>0.05191132826357917</v>
+        <v>0.03967080020299874</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03364726485120693</v>
+        <v>0.01786638128942796</v>
       </c>
       <c r="R53" t="n">
-        <v>0.008778289499323218</v>
+        <v>0.08593717771551168</v>
       </c>
       <c r="S53" t="n">
-        <v>0.07971359138394227</v>
+        <v>0.07195402976407338</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0977725071267783</v>
+        <v>0.08895531972862535</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06185766629226298</v>
+        <v>0.035117249884248</v>
       </c>
       <c r="V53" t="n">
-        <v>0.02126469959382823</v>
+        <v>0.03410882965233451</v>
       </c>
       <c r="W53" t="n">
-        <v>0.09308066982846712</v>
+        <v>0.07375590125492598</v>
       </c>
       <c r="X53" t="n">
-        <v>0.06901225224861325</v>
+        <v>0.04267577994394645</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.009992456282593357</v>
+        <v>0.007599578098793151</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.06593945674187088</v>
+        <v>0.02947105621614453</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01255137417303737</v>
+        <v>0.01823799009052113</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.01822159424471393</v>
+        <v>0.08833661451305608</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.124489626611456</v>
+        <v>-0.1389958052082297</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1610551833197735</v>
+        <v>0.165973107446288</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08401866464872906</v>
+        <v>0.07187261469665307</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07316438498844956</v>
+        <v>0.08023067691579565</v>
       </c>
       <c r="H54" t="n">
-        <v>0.008015725001096747</v>
+        <v>0.03080482304170067</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02729192406861154</v>
+        <v>0.01813196817665102</v>
       </c>
       <c r="J54" t="n">
-        <v>0.03679751536826666</v>
+        <v>0.008553382409780399</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00638420911898787</v>
+        <v>0.04580582649995017</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002887229702075405</v>
+        <v>0.01940440632905403</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02836664749196299</v>
+        <v>0.003409096972538334</v>
       </c>
       <c r="N54" t="n">
-        <v>0.004019288927290685</v>
+        <v>0.03964723005293263</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05766003091506019</v>
+        <v>0.05871970175200873</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04266383598558152</v>
+        <v>0.0349627983387959</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.07634765564652074</v>
+        <v>0.06567770920987971</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0913782647649849</v>
+        <v>0.07068804354068889</v>
       </c>
       <c r="S54" t="n">
-        <v>0.009051960875126292</v>
+        <v>0.04421362656056682</v>
       </c>
       <c r="T54" t="n">
-        <v>0.05380311318252216</v>
+        <v>0.03484722790821208</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08929256053189071</v>
+        <v>0.08621158040721565</v>
       </c>
       <c r="V54" t="n">
-        <v>0.09563631076667777</v>
+        <v>0.08086179250554458</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0317618297494231</v>
+        <v>0.07385800953883818</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06994737999962258</v>
+        <v>0.03727146259528536</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.03248381933887816</v>
+        <v>0.008252276918126277</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.04138375549314618</v>
+        <v>0.01551944001368539</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.03328712289921939</v>
+        <v>0.04473214605132629</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.004356770535875711</v>
+        <v>0.02632415956477021</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1335965120248618</v>
+        <v>0.1121007637889977</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.174300432281989</v>
+        <v>0.1728100479392447</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04963203398840456</v>
+        <v>0.07076813624907426</v>
       </c>
       <c r="G55" t="n">
-        <v>0.076830495510726</v>
+        <v>0.04726161617448902</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07242581191946328</v>
+        <v>0.03302569502439094</v>
       </c>
       <c r="I55" t="n">
-        <v>0.003853085951185875</v>
+        <v>0.03064334265636941</v>
       </c>
       <c r="J55" t="n">
-        <v>0.03681269445674072</v>
+        <v>0.009334213529049938</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03969352247453685</v>
+        <v>0.08753353973949633</v>
       </c>
       <c r="L55" t="n">
-        <v>0.02705599182278697</v>
+        <v>0.006192656743815206</v>
       </c>
       <c r="M55" t="n">
-        <v>0.08663951969248171</v>
+        <v>0.02296330970112982</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0329960522193713</v>
+        <v>0.03080546246401573</v>
       </c>
       <c r="O55" t="n">
-        <v>0.01754839517746446</v>
+        <v>0.05422229019161395</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02148288495495319</v>
+        <v>0.007237365667849147</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03899121126011496</v>
+        <v>0.005364133796121464</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08588815838785345</v>
+        <v>0.08630715532864085</v>
       </c>
       <c r="S55" t="n">
-        <v>0.08331030195255704</v>
+        <v>0.06444091513672495</v>
       </c>
       <c r="T55" t="n">
-        <v>0.06363778974367994</v>
+        <v>0.07058805670210549</v>
       </c>
       <c r="U55" t="n">
-        <v>0.04562602802972549</v>
+        <v>0.08352213445882911</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08924405590965022</v>
+        <v>0.08583564592253901</v>
       </c>
       <c r="W55" t="n">
-        <v>0.08742293468188682</v>
+        <v>0.07924256164777223</v>
       </c>
       <c r="X55" t="n">
-        <v>0.001426694779897591</v>
+        <v>0.04203844822556999</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0009670077599037059</v>
+        <v>0.02267889914034645</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.01748247829422902</v>
+        <v>0.03017622246891963</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0103679087408842</v>
+        <v>0.02305284623588381</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01066494229150257</v>
+        <v>0.006765352795253116</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1197844204635262</v>
+        <v>0.1336142072779639</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1879922686733779</v>
+        <v>0.1876778391887244</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03199791587123761</v>
+        <v>0.02670151268265498</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07884989363114485</v>
+        <v>0.08358335478939037</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07981062773773412</v>
+        <v>0.07788908102887336</v>
       </c>
       <c r="I56" t="n">
-        <v>0.007035229789662198</v>
+        <v>0.02626545807238179</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04180557840373695</v>
+        <v>0.01601957167329426</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01124217968220702</v>
+        <v>0.1042620718300985</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01006486226578604</v>
+        <v>0.03288242254611785</v>
       </c>
       <c r="M56" t="n">
-        <v>0.07069950768741363</v>
+        <v>0.09230030369851332</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01241102171022192</v>
+        <v>0.005998829945442844</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0799640554378139</v>
+        <v>0.02503180655232001</v>
       </c>
       <c r="P56" t="n">
-        <v>0.02408543211750316</v>
+        <v>0.01141593817272591</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01600178796709513</v>
+        <v>0.006693264051713809</v>
       </c>
       <c r="R56" t="n">
-        <v>0.000419637306431815</v>
+        <v>0.005860895327398978</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0703745399731586</v>
+        <v>0.08231081275290514</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05754066981061666</v>
+        <v>0.01051091266019756</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0825362887669525</v>
+        <v>0.08313879111265922</v>
       </c>
       <c r="V56" t="n">
-        <v>0.04381299419301784</v>
+        <v>0.01768746012915264</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04233260012819621</v>
+        <v>0.08930550579202017</v>
       </c>
       <c r="X56" t="n">
-        <v>0.05414427427129085</v>
+        <v>0.02570850354663265</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04475582577926782</v>
+        <v>0.04025103212049546</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.03941415573289629</v>
+        <v>0.03769086774972149</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05935481987654113</v>
+        <v>0.08483081861978342</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.04134610186007358</v>
+        <v>0.01366078514550618</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.003076771704461975</v>
+        <v>-0.01854569271260227</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2047401107683627</v>
+        <v>0.2077842324964046</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07056094948854655</v>
+        <v>0.09968331895692283</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08609146134934101</v>
+        <v>0.0214792073007532</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0001707414703412918</v>
+        <v>0.0637092828371698</v>
       </c>
       <c r="I57" t="n">
-        <v>0.07614381071955691</v>
+        <v>0.00456583716843404</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005834034282959728</v>
+        <v>0.03490987808948996</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08498844284114748</v>
+        <v>0.007365518608640618</v>
       </c>
       <c r="L57" t="n">
-        <v>0.004319303428625254</v>
+        <v>0.05847951585124542</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05591453153538802</v>
+        <v>0.05942761971732551</v>
       </c>
       <c r="N57" t="n">
-        <v>0.009895654326549657</v>
+        <v>3.390003083789587e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01219265969203242</v>
+        <v>0.003429008099871205</v>
       </c>
       <c r="P57" t="n">
-        <v>0.04026158002272184</v>
+        <v>0.01483199796557421</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02827757450281226</v>
+        <v>0.02445199786404017</v>
       </c>
       <c r="R57" t="n">
-        <v>0.06993372973681025</v>
+        <v>0.05541696909436603</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0853776220688164</v>
+        <v>0.07256842158057056</v>
       </c>
       <c r="T57" t="n">
-        <v>0.06542725306100283</v>
+        <v>0.09227716078971265</v>
       </c>
       <c r="U57" t="n">
-        <v>0.02082362696161351</v>
+        <v>0.07777763555953243</v>
       </c>
       <c r="V57" t="n">
-        <v>0.06771772624234905</v>
+        <v>0.09607123871077912</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03999180144605397</v>
+        <v>0.03516789332463768</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04703306418367937</v>
+        <v>0.02525921511192343</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01385406572665756</v>
+        <v>0.01941382655113722</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.06048787262073766</v>
+        <v>0.06453447190902296</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.0377693174649016</v>
+        <v>0.02516777481189878</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.01693317682735542</v>
+        <v>0.04397831006611424</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.01419932799699446</v>
+        <v>0.007280970801648936</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2012672432597266</v>
+        <v>0.2015232150222885</v>
       </c>
       <c r="F58" t="n">
-        <v>0.01420936820894974</v>
+        <v>0.0104122623253578</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08844704690813733</v>
+        <v>0.04406964835722958</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01217464262221092</v>
+        <v>0.05924382786981631</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02846505607819304</v>
+        <v>0.07105178449523315</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04403774535564213</v>
+        <v>0.04450150319035528</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01292435260110604</v>
+        <v>0.02899729148456802</v>
       </c>
       <c r="L58" t="n">
-        <v>0.04887138386355325</v>
+        <v>0.0921439164804659</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04749624812368424</v>
+        <v>0.04778347038204504</v>
       </c>
       <c r="N58" t="n">
-        <v>0.02190519629969502</v>
+        <v>0.01216558633127541</v>
       </c>
       <c r="O58" t="n">
-        <v>0.008394660780270754</v>
+        <v>0.08933163594283028</v>
       </c>
       <c r="P58" t="n">
-        <v>0.05110912836283089</v>
+        <v>0.003029972209208395</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.03775781399138792</v>
+        <v>0.01226431681165884</v>
       </c>
       <c r="R58" t="n">
-        <v>0.01751350340168083</v>
+        <v>0.003899765425177091</v>
       </c>
       <c r="S58" t="n">
-        <v>0.08547260821197529</v>
+        <v>0.07861117489413967</v>
       </c>
       <c r="T58" t="n">
-        <v>0.009311168338765606</v>
+        <v>0.01195300072541907</v>
       </c>
       <c r="U58" t="n">
-        <v>0.05234959579140533</v>
+        <v>0.08744065512599063</v>
       </c>
       <c r="V58" t="n">
-        <v>0.03828168621765336</v>
+        <v>0.06053522254784166</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07417658796506854</v>
+        <v>0.002062191864194064</v>
       </c>
       <c r="X58" t="n">
-        <v>0.08732962354314648</v>
+        <v>0.08740944466753868</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.06614311754090899</v>
+        <v>0.03574179868833863</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.08184905291690731</v>
+        <v>0.08193865275919307</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.06734101195134028</v>
+        <v>0.01127093603694693</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.004439400925486668</v>
+        <v>0.02414194138517628</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.03304244018169115</v>
+        <v>0.03813848060411969</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2288147701957211</v>
+        <v>0.2333977231320725</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08737819212145777</v>
+        <v>0.09981684215715199</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003973602039326188</v>
+        <v>0.02588858381574918</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04738940122251772</v>
+        <v>0.02070457365694723</v>
       </c>
       <c r="I59" t="n">
-        <v>0.009893727772376189</v>
+        <v>0.03758739648173492</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01169287957684298</v>
+        <v>0.02927420939714688</v>
       </c>
       <c r="K59" t="n">
-        <v>0.05389521493477589</v>
+        <v>0.07172853359092451</v>
       </c>
       <c r="L59" t="n">
-        <v>0.05030924855814595</v>
+        <v>0.009904679760005428</v>
       </c>
       <c r="M59" t="n">
-        <v>0.03969363165431396</v>
+        <v>0.01216012164408282</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01040876961587569</v>
+        <v>0.006474761184469728</v>
       </c>
       <c r="O59" t="n">
-        <v>0.006888032230867987</v>
+        <v>0.0195955406899212</v>
       </c>
       <c r="P59" t="n">
-        <v>0.008892605078306965</v>
+        <v>0.0578799067021231</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.002710012299699311</v>
+        <v>0.003160726695698406</v>
       </c>
       <c r="R59" t="n">
-        <v>0.07127092192421519</v>
+        <v>0.03617047794241098</v>
       </c>
       <c r="S59" t="n">
-        <v>0.08894897970529278</v>
+        <v>0.07335087072513675</v>
       </c>
       <c r="T59" t="n">
-        <v>0.03443587706789081</v>
+        <v>0.09338363938411388</v>
       </c>
       <c r="U59" t="n">
-        <v>0.07801958403925309</v>
+        <v>0.06621886172073287</v>
       </c>
       <c r="V59" t="n">
-        <v>0.07613895407367821</v>
+        <v>0.08276085373559169</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08406710993774662</v>
+        <v>0.08341754308953037</v>
       </c>
       <c r="X59" t="n">
-        <v>0.06982162504048339</v>
+        <v>0.03152836474134717</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.04843623655042269</v>
+        <v>0.02145325043719912</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.08182239519313675</v>
+        <v>0.06544381658721606</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.03248537567253103</v>
+        <v>0.03710555337402947</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.001427623690842593</v>
+        <v>0.01499089248673628</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.08098382713800852</v>
+        <v>0.07546069113270223</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2150626338880765</v>
+        <v>0.2168188433493091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04507646696729992</v>
+        <v>0.01675134316324821</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06753561295445332</v>
+        <v>0.03455616075983869</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03802491582596772</v>
+        <v>0.06450819758276946</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0265203585111826</v>
+        <v>0.0389488795967522</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01062323359238897</v>
+        <v>0.05221339491452445</v>
       </c>
       <c r="K60" t="n">
-        <v>0.04445551219270046</v>
+        <v>0.02098827596501824</v>
       </c>
       <c r="L60" t="n">
-        <v>0.008582661409561473</v>
+        <v>0.003053426234764189</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1036214070648967</v>
+        <v>0.07440911248919688</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0153960366275681</v>
+        <v>0.01150850543397772</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01109922173210892</v>
+        <v>0.09924367563281372</v>
       </c>
       <c r="P60" t="n">
-        <v>0.01451918699714181</v>
+        <v>0.007216793385092416</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.04109677950476263</v>
+        <v>0.03656293528705268</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1005376758435415</v>
+        <v>0.1492874338177219</v>
       </c>
       <c r="S60" t="n">
-        <v>0.09473328892162622</v>
+        <v>0.04310944146342873</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02265742078302336</v>
+        <v>0.07922650857800193</v>
       </c>
       <c r="U60" t="n">
-        <v>0.05428483112830113</v>
+        <v>0.00285830539693143</v>
       </c>
       <c r="V60" t="n">
-        <v>0.03008720192359077</v>
+        <v>0.01792712095763513</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06562366132582882</v>
+        <v>0.03563373566002524</v>
       </c>
       <c r="X60" t="n">
-        <v>0.06467494178846218</v>
+        <v>0.1148472325702246</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.01462761018436178</v>
+        <v>0.03744789587718701</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0387053349468522</v>
+        <v>0.00558558408653445</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.06734412938583104</v>
+        <v>0.02085158591336514</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.02017251038854846</v>
+        <v>0.03326445523389591</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06743055787268414</v>
+        <v>0.07024787945312415</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2417092163601723</v>
+        <v>0.2406110982218421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1107210672048288</v>
+        <v>0.08847081096122918</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00221257332626563</v>
+        <v>0.005500396417410841</v>
       </c>
       <c r="H61" t="n">
-        <v>0.06215391370927337</v>
+        <v>0.004731329138757185</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06619418565243312</v>
+        <v>0.003820045197186611</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02028132195702371</v>
+        <v>0.01813404130896966</v>
       </c>
       <c r="K61" t="n">
-        <v>0.04291450237021351</v>
+        <v>0.07339420609893574</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01326288676849079</v>
+        <v>0.06431008574458426</v>
       </c>
       <c r="M61" t="n">
-        <v>0.02065928655297759</v>
+        <v>0.0375076963966528</v>
       </c>
       <c r="N61" t="n">
-        <v>0.008129238933879608</v>
+        <v>0.0003220863870761076</v>
       </c>
       <c r="O61" t="n">
-        <v>0.01427155870269557</v>
+        <v>0.04574115580670769</v>
       </c>
       <c r="P61" t="n">
-        <v>0.001708527775597128</v>
+        <v>0.04020853592324525</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.008908247742273077</v>
+        <v>0.04896323919443456</v>
       </c>
       <c r="R61" t="n">
-        <v>0.03494474091040856</v>
+        <v>0.06876763723317111</v>
       </c>
       <c r="S61" t="n">
-        <v>0.07473316641925479</v>
+        <v>0.09274232176391428</v>
       </c>
       <c r="T61" t="n">
-        <v>0.08393599552983845</v>
+        <v>0.09077769067891282</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0009006572477038244</v>
+        <v>0.06946153850790927</v>
       </c>
       <c r="V61" t="n">
-        <v>0.1111266251946503</v>
+        <v>0.08070028046367092</v>
       </c>
       <c r="W61" t="n">
-        <v>0.07655771659675426</v>
+        <v>0.04548018339753723</v>
       </c>
       <c r="X61" t="n">
-        <v>0.06416517584975305</v>
+        <v>0.01302374592154618</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.02424494539285274</v>
+        <v>0.003748533467909011</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.1018142058153047</v>
+        <v>0.02006078052157941</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.01924770323415589</v>
+        <v>0.06213272959038894</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.03691175711337154</v>
+        <v>0.02200092987827072</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.06914164069411184</v>
+        <v>0.05725820351431644</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1983436630691139</v>
+        <v>0.1995219208371148</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09266750841916647</v>
+        <v>0.04318969239964692</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03037674478787463</v>
+        <v>0.08824527185233687</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01242369639255255</v>
+        <v>0.02391438568176982</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0523087652147199</v>
+        <v>0.005575606316656942</v>
       </c>
       <c r="J62" t="n">
-        <v>0.004352285384780779</v>
+        <v>0.001031803046682831</v>
       </c>
       <c r="K62" t="n">
-        <v>0.04036208422128187</v>
+        <v>0.07024183365781275</v>
       </c>
       <c r="L62" t="n">
-        <v>0.09338566849074591</v>
+        <v>0.0345790095316711</v>
       </c>
       <c r="M62" t="n">
-        <v>0.06870281422131413</v>
+        <v>0.08134570358240524</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01112062646505264</v>
+        <v>0.02368156062327932</v>
       </c>
       <c r="O62" t="n">
-        <v>0.01808599962843288</v>
+        <v>0.03559678824921769</v>
       </c>
       <c r="P62" t="n">
-        <v>0.05655104791491162</v>
+        <v>0.03810567661545915</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0145650238091733</v>
+        <v>0.05531225169461013</v>
       </c>
       <c r="R62" t="n">
-        <v>0.0722400059714489</v>
+        <v>0.07181581299570558</v>
       </c>
       <c r="S62" t="n">
-        <v>0.06482900794024385</v>
+        <v>0.02453660433808837</v>
       </c>
       <c r="T62" t="n">
-        <v>0.01743711141938574</v>
+        <v>0.02288359137852883</v>
       </c>
       <c r="U62" t="n">
-        <v>0.05590922296649333</v>
+        <v>0.07306473226666586</v>
       </c>
       <c r="V62" t="n">
-        <v>0.002571720226655454</v>
+        <v>0.004041438880986231</v>
       </c>
       <c r="W62" t="n">
-        <v>0.09438952964764619</v>
+        <v>0.04564027727206284</v>
       </c>
       <c r="X62" t="n">
-        <v>0.09181122896039524</v>
+        <v>0.08870474830150415</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.003405197914773143</v>
+        <v>0.01169713068879387</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.03752576754815005</v>
+        <v>0.07286162128377142</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.06378589357772034</v>
+        <v>0.08059700216415992</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.001193048877081095</v>
+        <v>0.003337457178184021</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.05797298157471915</v>
+        <v>0.06562825524976</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2132549784847191</v>
+        <v>0.2129518823711205</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09564801564441865</v>
+        <v>0.07624504561269768</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01029476035610961</v>
+        <v>0.0095866378787361</v>
       </c>
       <c r="H63" t="n">
-        <v>0.041540351589702</v>
+        <v>0.04520586217529975</v>
       </c>
       <c r="I63" t="n">
-        <v>0.09579494133457643</v>
+        <v>0.01927220148786057</v>
       </c>
       <c r="J63" t="n">
-        <v>0.007555013446848288</v>
+        <v>0.001814717853106824</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02030052947687636</v>
+        <v>0.00209741034332047</v>
       </c>
       <c r="L63" t="n">
-        <v>0.02983959097969006</v>
+        <v>0.08071643652357773</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03374056032641457</v>
+        <v>0.0361465418744876</v>
       </c>
       <c r="N63" t="n">
-        <v>0.01167055971198227</v>
+        <v>0.005315337167934067</v>
       </c>
       <c r="O63" t="n">
-        <v>0.09841736867557321</v>
+        <v>0.0389081329702545</v>
       </c>
       <c r="P63" t="n">
-        <v>0.06706307050044737</v>
+        <v>0.01264212801156231</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.06728137813504151</v>
+        <v>0.04432696325911676</v>
       </c>
       <c r="R63" t="n">
-        <v>0.0733629670007017</v>
+        <v>0.08461746963600139</v>
       </c>
       <c r="S63" t="n">
-        <v>0.09748330175418092</v>
+        <v>0.0686277450608854</v>
       </c>
       <c r="T63" t="n">
-        <v>0.05236879275204608</v>
+        <v>0.05746225270933002</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01969542660878932</v>
+        <v>0.05507495821949655</v>
       </c>
       <c r="V63" t="n">
-        <v>0.002874202252655063</v>
+        <v>0.01388498558538491</v>
       </c>
       <c r="W63" t="n">
-        <v>0.005033678339139462</v>
+        <v>0.08279290739891115</v>
       </c>
       <c r="X63" t="n">
-        <v>0.001167106479695803</v>
+        <v>0.009545637500306807</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0199197272686263</v>
+        <v>0.03658322010084771</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.03805099372961507</v>
+        <v>0.009737724203484833</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.1008602923811078</v>
+        <v>0.09720908151110791</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.01003737125576229</v>
+        <v>0.1121866029162888</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.06366797005592542</v>
+        <v>0.05894839158643086</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2021363561330762</v>
+        <v>0.2032517507846837</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07652186696371065</v>
+        <v>0.09189106249373247</v>
       </c>
       <c r="G64" t="n">
-        <v>0.006448046733942143</v>
+        <v>0.01703231715800877</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02036645587600446</v>
+        <v>0.09350915688585197</v>
       </c>
       <c r="I64" t="n">
-        <v>0.07427791902610963</v>
+        <v>0.09780847231034227</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0003910045010871545</v>
+        <v>0.01843723114499237</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0189690497474746</v>
+        <v>0.004330912988906126</v>
       </c>
       <c r="L64" t="n">
-        <v>0.02601042812624158</v>
+        <v>0.002486733894385394</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06433127384110235</v>
+        <v>0.03039370034089599</v>
       </c>
       <c r="N64" t="n">
-        <v>0.007124206996342797</v>
+        <v>0.00970098247407457</v>
       </c>
       <c r="O64" t="n">
-        <v>0.09873586070485063</v>
+        <v>0.05715492084497367</v>
       </c>
       <c r="P64" t="n">
-        <v>0.097100913335687</v>
+        <v>0.07878869059365076</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.004097552195535797</v>
+        <v>0.02153317180438983</v>
       </c>
       <c r="R64" t="n">
-        <v>0.04939587005274301</v>
+        <v>0.08084217129176492</v>
       </c>
       <c r="S64" t="n">
-        <v>0.09640906589094642</v>
+        <v>0.03974843218975849</v>
       </c>
       <c r="T64" t="n">
-        <v>0.03169566126351038</v>
+        <v>0.04633127813615981</v>
       </c>
       <c r="U64" t="n">
-        <v>0.04092652491395665</v>
+        <v>0.00546961052108321</v>
       </c>
       <c r="V64" t="n">
-        <v>0.02791150460238575</v>
+        <v>0.001817533677815974</v>
       </c>
       <c r="W64" t="n">
-        <v>0.05824622008559394</v>
+        <v>0.05954985667321145</v>
       </c>
       <c r="X64" t="n">
-        <v>0.07201486065248811</v>
+        <v>0.09580648869278452</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0119387403858114</v>
+        <v>0.08298104989379208</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.0102013952745931</v>
+        <v>0.003409785064159231</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.08112207375319916</v>
+        <v>0.03900276011743286</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.02576350507668318</v>
+        <v>0.02197368080783333</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.04190622592110791</v>
+        <v>-0.01124868724526061</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.213756677247084</v>
+        <v>0.2114716581711409</v>
       </c>
       <c r="F65" t="n">
-        <v>0.09222126636019901</v>
+        <v>0.1229733208132586</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08724434289889371</v>
+        <v>0.008185337739683843</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06043275993839295</v>
+        <v>0.02302891045293041</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03302570586498829</v>
+        <v>0.0466206469684247</v>
       </c>
       <c r="J65" t="n">
-        <v>0.008182143380827164</v>
+        <v>0.04673658155310248</v>
       </c>
       <c r="K65" t="n">
-        <v>0.02317770289809132</v>
+        <v>0.02789259346450051</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001491126669135166</v>
+        <v>0.01442230508303805</v>
       </c>
       <c r="M65" t="n">
-        <v>0.04191717906861139</v>
+        <v>0.02235729206563074</v>
       </c>
       <c r="N65" t="n">
-        <v>0.009521282480783084</v>
+        <v>0.006613468348330852</v>
       </c>
       <c r="O65" t="n">
-        <v>0.07335577845466985</v>
+        <v>0.04827628699950066</v>
       </c>
       <c r="P65" t="n">
-        <v>0.02646845284325505</v>
+        <v>0.07549864248419735</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01292717399817037</v>
+        <v>0.009673094501448471</v>
       </c>
       <c r="R65" t="n">
-        <v>0.06419844181815956</v>
+        <v>0.1221094051244122</v>
       </c>
       <c r="S65" t="n">
-        <v>0.02096103408101295</v>
+        <v>0.04503843387088662</v>
       </c>
       <c r="T65" t="n">
-        <v>0.001598358990566426</v>
+        <v>0.005084861923002238</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0438158850531363</v>
+        <v>0.0344587420323765</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01989629601614619</v>
+        <v>0.04429291333103268</v>
       </c>
       <c r="W65" t="n">
-        <v>0.04874627379596418</v>
+        <v>0.0003068284383054802</v>
       </c>
       <c r="X65" t="n">
-        <v>0.01899115888865207</v>
+        <v>0.09731428705098474</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.08513587155480866</v>
+        <v>0.1089893744894187</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08490935433754394</v>
+        <v>0.01963662539619975</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.09352040533319492</v>
+        <v>0.03838584367648909</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.04826200527479738</v>
+        <v>0.03210420419284517</v>
       </c>
       <c r="AC65" t="n">
-        <v>-0.01272880018481863</v>
+        <v>0.003059007493109253</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1767115439309244</v>
+        <v>0.1761935695385973</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06269140607793858</v>
+        <v>0.002807640649233487</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0558470687117775</v>
+        <v>0.06237228249216085</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07744385591114923</v>
+        <v>0.1138606821984154</v>
       </c>
       <c r="I66" t="n">
-        <v>0.08442920052089789</v>
+        <v>0.02608471627931531</v>
       </c>
       <c r="J66" t="n">
-        <v>0.05714664223032816</v>
+        <v>0.04536409880473222</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02371616202988699</v>
+        <v>0.006196645786479558</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01017617979551814</v>
+        <v>0.03384425189130208</v>
       </c>
       <c r="M66" t="n">
-        <v>0.04233574049127833</v>
+        <v>0.103110204176465</v>
       </c>
       <c r="N66" t="n">
-        <v>0.00411048333555996</v>
+        <v>0.003727439785419542</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0004945053497205622</v>
+        <v>0.002368791198452977</v>
       </c>
       <c r="P66" t="n">
-        <v>0.02687758572554047</v>
+        <v>0.07249948804518774</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.04745639625149025</v>
+        <v>0.01134857596608979</v>
       </c>
       <c r="R66" t="n">
-        <v>0.006014230925360718</v>
+        <v>0.0161953589620667</v>
       </c>
       <c r="S66" t="n">
-        <v>0.08987823954387425</v>
+        <v>0.109531694436138</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02330594819519748</v>
+        <v>0.02548070217715409</v>
       </c>
       <c r="U66" t="n">
-        <v>0.0385378380112787</v>
+        <v>0.08586085132094588</v>
       </c>
       <c r="V66" t="n">
-        <v>0.003181024147595743</v>
+        <v>0.031931273779861</v>
       </c>
       <c r="W66" t="n">
-        <v>0.09545876592491628</v>
+        <v>0.02277290024682559</v>
       </c>
       <c r="X66" t="n">
-        <v>0.09243780138577179</v>
+        <v>0.08266668277182973</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.01586226067451485</v>
+        <v>0.02264723232433496</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.04110631709991831</v>
+        <v>0.06077431970096228</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.07649333533516103</v>
+        <v>0.03465018510619223</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.02499901232532501</v>
+        <v>0.02390398190043557</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.01532485253564942</v>
+        <v>0.0349751502538146</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.201387461672599</v>
+        <v>0.1953103152395131</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1037060959458418</v>
+        <v>0.0942928573479766</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03086210749135933</v>
+        <v>0.02119554254543947</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1016555543926793</v>
+        <v>0.0708548348209134</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006378854748663064</v>
+        <v>0.02825371005229397</v>
       </c>
       <c r="J67" t="n">
-        <v>0.003931222867220041</v>
+        <v>0.06233908116074407</v>
       </c>
       <c r="K67" t="n">
-        <v>0.002618835888936837</v>
+        <v>0.01511153164969818</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001782383779891512</v>
+        <v>0.007157057374247555</v>
       </c>
       <c r="M67" t="n">
-        <v>0.006012168366860859</v>
+        <v>0.01008130528595693</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01501969375907512</v>
+        <v>0.02265121528875401</v>
       </c>
       <c r="O67" t="n">
-        <v>0.09493192460813574</v>
+        <v>0.03578454140721689</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0470677079519554</v>
+        <v>0.002432308153498516</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03335741997257064</v>
+        <v>0.02117081336351595</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0036744646152077</v>
+        <v>0.02629705361245047</v>
       </c>
       <c r="S67" t="n">
-        <v>0.03333888011561353</v>
+        <v>0.01805442637931673</v>
       </c>
       <c r="T67" t="n">
-        <v>0.09530805179033711</v>
+        <v>0.02619024076321194</v>
       </c>
       <c r="U67" t="n">
-        <v>0.07553123845896935</v>
+        <v>0.07570713650228753</v>
       </c>
       <c r="V67" t="n">
-        <v>0.04726478828892285</v>
+        <v>0.08836030872430423</v>
       </c>
       <c r="W67" t="n">
-        <v>0.08896121105734393</v>
+        <v>0.01349701666644793</v>
       </c>
       <c r="X67" t="n">
-        <v>0.07289329121101049</v>
+        <v>0.05854324128816284</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.03779601122210818</v>
+        <v>0.07185050561209358</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.003631517085641183</v>
+        <v>0.08525885377121509</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.01458085422871398</v>
+        <v>0.09402778583332061</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.0796957221529421</v>
+        <v>0.05088863239693341</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.0387360246450751</v>
+        <v>0.03626026001771351</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1553140212293994</v>
+        <v>0.1559712236795664</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07203612821321226</v>
+        <v>0.07644960751604805</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0172317065702342</v>
+        <v>0.03275623063394693</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0843137175574204</v>
+        <v>0.04850373551721624</v>
       </c>
       <c r="I68" t="n">
-        <v>0.07372995097162675</v>
+        <v>0.06658308968235595</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07887851981881672</v>
+        <v>0.04680042420696061</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03397761018575014</v>
+        <v>0.05072004016828136</v>
       </c>
       <c r="L68" t="n">
-        <v>0.06527726220615827</v>
+        <v>0.05693519168549801</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04877067942519427</v>
+        <v>0.03580835584537028</v>
       </c>
       <c r="N68" t="n">
-        <v>0.01922979471089064</v>
+        <v>0.02499593164155909</v>
       </c>
       <c r="O68" t="n">
-        <v>0.006127014883832403</v>
+        <v>0.009194039688357648</v>
       </c>
       <c r="P68" t="n">
-        <v>0.05535048958522474</v>
+        <v>0.07232531966630025</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.0172404576042772</v>
+        <v>0.02628795179449244</v>
       </c>
       <c r="R68" t="n">
-        <v>0.08382360649137778</v>
+        <v>0.07436528429749695</v>
       </c>
       <c r="S68" t="n">
-        <v>0.02603284504995962</v>
+        <v>0.02670798101967203</v>
       </c>
       <c r="T68" t="n">
-        <v>0.001704178536428887</v>
+        <v>0.07296451100355894</v>
       </c>
       <c r="U68" t="n">
-        <v>0.04964877887345883</v>
+        <v>0.063959931721387</v>
       </c>
       <c r="V68" t="n">
-        <v>0.008264721402813438</v>
+        <v>0.001280060321790913</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05417695468407818</v>
+        <v>0.02427483537971957</v>
       </c>
       <c r="X68" t="n">
-        <v>0.07256344028084169</v>
+        <v>0.05049147305499057</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.02025441333312936</v>
+        <v>0.0001491507366651607</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.07040708127240534</v>
+        <v>0.06466655917185614</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.01844647655413165</v>
+        <v>0.07348362049815817</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.02251417178873728</v>
+        <v>0.0002966747483176935</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.000814355755831845</v>
+        <v>-0.01553740118537122</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2029428189989841</v>
+        <v>0.229682263801797</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06437858308144934</v>
+        <v>0.0770863130795211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02707574292896168</v>
+        <v>0.01178254066579545</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0137166069414135</v>
+        <v>0.005394162713865239</v>
       </c>
       <c r="I69" t="n">
-        <v>0.003843089573247916</v>
+        <v>0.02702247010208729</v>
       </c>
       <c r="J69" t="n">
-        <v>0.09632647560407658</v>
+        <v>0.0233722365790182</v>
       </c>
       <c r="K69" t="n">
-        <v>0.09175108762775581</v>
+        <v>0.08754294526542791</v>
       </c>
       <c r="L69" t="n">
-        <v>0.02058489973776297</v>
+        <v>0.003288036387971214</v>
       </c>
       <c r="M69" t="n">
-        <v>0.06443444094463309</v>
+        <v>0.08709774277704355</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04034094757388765</v>
+        <v>0.01209168018107819</v>
       </c>
       <c r="O69" t="n">
-        <v>0.01999810148061741</v>
+        <v>0.04649388402288911</v>
       </c>
       <c r="P69" t="n">
-        <v>0.002839916939812134</v>
+        <v>0.03066677815585449</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.07250388476512007</v>
+        <v>0.08131053260006309</v>
       </c>
       <c r="R69" t="n">
-        <v>0.0204232762459687</v>
+        <v>0.001000391086533328</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01287273208556784</v>
+        <v>0.002803531327183455</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01605085466582823</v>
+        <v>0.02114204634810339</v>
       </c>
       <c r="U69" t="n">
-        <v>0.05957872230948887</v>
+        <v>0.03324815992231989</v>
       </c>
       <c r="V69" t="n">
-        <v>0.06555035287924493</v>
+        <v>0.09733446935012333</v>
       </c>
       <c r="W69" t="n">
-        <v>0.004182503211193503</v>
+        <v>0.02988878053572289</v>
       </c>
       <c r="X69" t="n">
-        <v>0.009956627726901755</v>
+        <v>0.09547934771415721</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.07844255994424433</v>
+        <v>0.08460894038042842</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.09160216873772124</v>
+        <v>0.006241957756910146</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.0801887079720837</v>
+        <v>0.06579797524069522</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.0433577170230189</v>
+        <v>0.06930507780720785</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.005498506123459932</v>
+        <v>0.01767072443274826</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1345307606241894</v>
+        <v>0.1331055526391479</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06255008775383186</v>
+        <v>0.03332218199499777</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01202437281655104</v>
+        <v>0.03568832801040626</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001838070683019015</v>
+        <v>0.09303123871820566</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04325361353313829</v>
+        <v>0.03829383430557724</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03666931215633722</v>
+        <v>0.02061555944349978</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02684889495302251</v>
+        <v>0.01668779062974683</v>
       </c>
       <c r="L70" t="n">
-        <v>0.07454217774126248</v>
+        <v>0.005565340066558245</v>
       </c>
       <c r="M70" t="n">
-        <v>0.003873200588244001</v>
+        <v>0.0274481730737333</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0002588026103539613</v>
+        <v>0.001750065665863156</v>
       </c>
       <c r="O70" t="n">
-        <v>0.03780345603170728</v>
+        <v>0.07023290629671015</v>
       </c>
       <c r="P70" t="n">
-        <v>0.05211953495103926</v>
+        <v>0.03898251197019858</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.08778018545564949</v>
+        <v>0.06029418206344189</v>
       </c>
       <c r="R70" t="n">
-        <v>0.09008246353494379</v>
+        <v>0.0793817275314735</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02595117589207665</v>
+        <v>0.05561015142293873</v>
       </c>
       <c r="T70" t="n">
-        <v>0.05503500505358027</v>
+        <v>0.02870796861899104</v>
       </c>
       <c r="U70" t="n">
-        <v>0.09306734992003954</v>
+        <v>0.0921411830641751</v>
       </c>
       <c r="V70" t="n">
-        <v>0.01413552493913231</v>
+        <v>0.02319292053065749</v>
       </c>
       <c r="W70" t="n">
-        <v>0.0773536546487065</v>
+        <v>0.08147916257613935</v>
       </c>
       <c r="X70" t="n">
-        <v>0.02642815544124741</v>
+        <v>0.04503076140662404</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.008163083234620082</v>
+        <v>0.01207959290027191</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08896697899091927</v>
+        <v>0.08514074214581757</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.07262039932663442</v>
+        <v>0.04577724193045543</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.008634499743943676</v>
+        <v>0.009546435633516925</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.0300178533289119</v>
+        <v>-0.02297574462045</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1588048120483898</v>
+        <v>0.1570564509356377</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06826240060493616</v>
+        <v>0.05081887730255348</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0784914924896056</v>
+        <v>0.05932259429046526</v>
       </c>
       <c r="H71" t="n">
-        <v>0.006385357543844291</v>
+        <v>0.008631458603807629</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02130114536074463</v>
+        <v>0.04653609019554895</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02338184515755426</v>
+        <v>0.02168692577651853</v>
       </c>
       <c r="K71" t="n">
-        <v>0.016054035625854</v>
+        <v>0.02440238236367129</v>
       </c>
       <c r="L71" t="n">
-        <v>0.04907218626134426</v>
+        <v>0.02743577517691924</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07679613209066112</v>
+        <v>0.01368196581127684</v>
       </c>
       <c r="N71" t="n">
-        <v>0.02881166504503107</v>
+        <v>0.009081753780282583</v>
       </c>
       <c r="O71" t="n">
-        <v>0.03878187932139565</v>
+        <v>0.08009990145949365</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01170887137689074</v>
+        <v>0.0137092550877215</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.08363300132774854</v>
+        <v>0.08101345485745795</v>
       </c>
       <c r="R71" t="n">
-        <v>0.03362379220054995</v>
+        <v>0.0151802831689635</v>
       </c>
       <c r="S71" t="n">
-        <v>0.01034838809538598</v>
+        <v>0.07299863297388631</v>
       </c>
       <c r="T71" t="n">
-        <v>0.001374559300123826</v>
+        <v>0.02867356893258062</v>
       </c>
       <c r="U71" t="n">
-        <v>0.006832534721309021</v>
+        <v>0.02126583090490547</v>
       </c>
       <c r="V71" t="n">
-        <v>0.09299093668510827</v>
+        <v>0.07725710016361309</v>
       </c>
       <c r="W71" t="n">
-        <v>0.07049800369800147</v>
+        <v>0.0213950251536348</v>
       </c>
       <c r="X71" t="n">
-        <v>0.008699723964451598</v>
+        <v>0.06294046828131802</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.09074366051940431</v>
+        <v>0.08527119378033962</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.09686635566254891</v>
+        <v>0.09266632909504173</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0325424681203419</v>
+        <v>0.0134623529020412</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.05279956482716443</v>
+        <v>0.07246877993795864</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.02323265944064578</v>
+        <v>-0.04741592731315789</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1217437017592418</v>
+        <v>0.1188634426582181</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04318126129119237</v>
+        <v>0.06966099175926564</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05388939792528748</v>
+        <v>0.03809017769252132</v>
       </c>
       <c r="H72" t="n">
-        <v>0.003704301170866202</v>
+        <v>0.002020887212104063</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0257160815941811</v>
+        <v>0.05389748853281452</v>
       </c>
       <c r="J72" t="n">
-        <v>0.09439394798836465</v>
+        <v>0.05220025944941189</v>
       </c>
       <c r="K72" t="n">
-        <v>0.03332024633584061</v>
+        <v>0.01728159660325539</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02007332214562631</v>
+        <v>0.041825664828321</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04519488395772056</v>
+        <v>0.06521086444104716</v>
       </c>
       <c r="N72" t="n">
-        <v>0.02466782442202116</v>
+        <v>0.02547304788761147</v>
       </c>
       <c r="O72" t="n">
-        <v>0.06078084898089869</v>
+        <v>0.03977356773869232</v>
       </c>
       <c r="P72" t="n">
-        <v>0.06986336240678749</v>
+        <v>0.07950622907476598</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.07929617293910167</v>
+        <v>0.08019719773821438</v>
       </c>
       <c r="R72" t="n">
-        <v>0.06318272791686094</v>
+        <v>0.00982407354669851</v>
       </c>
       <c r="S72" t="n">
-        <v>0.005761852006700131</v>
+        <v>0.02099204355408235</v>
       </c>
       <c r="T72" t="n">
-        <v>0.06330521815333302</v>
+        <v>0.05807497476945207</v>
       </c>
       <c r="U72" t="n">
-        <v>0.06752101244311032</v>
+        <v>0.07620026438875971</v>
       </c>
       <c r="V72" t="n">
-        <v>0.005679034050769841</v>
+        <v>0.009245535564916993</v>
       </c>
       <c r="W72" t="n">
-        <v>0.0245034334966324</v>
+        <v>0.05548460764392047</v>
       </c>
       <c r="X72" t="n">
-        <v>0.08071537523599062</v>
+        <v>0.07116587702486077</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0112642513806233</v>
+        <v>0.0002058982954911184</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.04566236262392907</v>
+        <v>0.07685028402381169</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.01061675787037213</v>
+        <v>0.05497080780984524</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.06770632366378991</v>
+        <v>0.001847660420136051</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1425954477504105</v>
+        <v>-0.1390226207186355</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1389350822959136</v>
+        <v>0.1320539530529969</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02788800108369209</v>
+        <v>0.0773277471841428</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1198073078448562</v>
+        <v>0.08547216512199365</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02947917294604398</v>
+        <v>0.02954019519336292</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03088758793736638</v>
+        <v>0.02234856936456731</v>
       </c>
       <c r="J73" t="n">
-        <v>0.004405791697443224</v>
+        <v>0.01363695067598916</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05958347247892439</v>
+        <v>0.05166575144247093</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01403093660159027</v>
+        <v>0.03458469733545457</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02084187464459397</v>
+        <v>0.06252284293377082</v>
       </c>
       <c r="N73" t="n">
-        <v>0.03123669129505314</v>
+        <v>0.000244519415378819</v>
       </c>
       <c r="O73" t="n">
-        <v>0.06223865737320099</v>
+        <v>0.07141875571632127</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01320525551502115</v>
+        <v>0.02674976007548934</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.1098030757454507</v>
+        <v>0.0805405740013279</v>
       </c>
       <c r="R73" t="n">
-        <v>0.05335424375314766</v>
+        <v>0.0663419989260787</v>
       </c>
       <c r="S73" t="n">
-        <v>0.01317105240827076</v>
+        <v>0.0117930805954623</v>
       </c>
       <c r="T73" t="n">
-        <v>0.006537045801522456</v>
+        <v>0.0005982198261935705</v>
       </c>
       <c r="U73" t="n">
-        <v>0.004611226713730609</v>
+        <v>0.01581362346748945</v>
       </c>
       <c r="V73" t="n">
-        <v>0.04560552005695113</v>
+        <v>0.04459713300145324</v>
       </c>
       <c r="W73" t="n">
-        <v>0.002266380800052121</v>
+        <v>0.0078296686020938</v>
       </c>
       <c r="X73" t="n">
-        <v>0.009909165744345954</v>
+        <v>0.0757034989049182</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.09095502586731657</v>
+        <v>0.07634067944828718</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.1201987317557239</v>
+        <v>0.03427703075960326</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.03761746766324931</v>
+        <v>0.05083919518305614</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.09236631427245282</v>
+        <v>0.05981334282509469</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1626880217657804</v>
+        <v>-0.15300506394399</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1156225435810264</v>
+        <v>0.1190605374385875</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01096012614821484</v>
+        <v>0.002315449992530352</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05880050639737446</v>
+        <v>0.06138416810943811</v>
       </c>
       <c r="H74" t="n">
-        <v>0.009938266382734444</v>
+        <v>0.004613253999285287</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03472037675430847</v>
+        <v>0.05136073079149474</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0847930737804385</v>
+        <v>0.03005305199947582</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01908043425992132</v>
+        <v>0.04420206803089342</v>
       </c>
       <c r="L74" t="n">
-        <v>0.009248788585677174</v>
+        <v>0.02692203628001647</v>
       </c>
       <c r="M74" t="n">
-        <v>0.1023166934890971</v>
+        <v>0.08437180510753148</v>
       </c>
       <c r="N74" t="n">
-        <v>0.0003383974472323753</v>
+        <v>0.02091522461244051</v>
       </c>
       <c r="O74" t="n">
-        <v>0.02649508560835196</v>
+        <v>0.05180256748831014</v>
       </c>
       <c r="P74" t="n">
-        <v>0.09336555621222928</v>
+        <v>0.07760076907200242</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.05488879238611595</v>
+        <v>0.0405820653540488</v>
       </c>
       <c r="R74" t="n">
-        <v>0.06708902195858639</v>
+        <v>0.06864782831967935</v>
       </c>
       <c r="S74" t="n">
-        <v>0.003982836120726843</v>
+        <v>0.03256926224265373</v>
       </c>
       <c r="T74" t="n">
-        <v>0.07036232752163026</v>
+        <v>0.003973044739235237</v>
       </c>
       <c r="U74" t="n">
-        <v>0.08702641362718358</v>
+        <v>0.04030582417122996</v>
       </c>
       <c r="V74" t="n">
-        <v>0.007498281023023661</v>
+        <v>0.01818189880078898</v>
       </c>
       <c r="W74" t="n">
-        <v>0.01365188920065186</v>
+        <v>0.0618478599290177</v>
       </c>
       <c r="X74" t="n">
-        <v>0.04415601646537745</v>
+        <v>0.08357540205522278</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.003423980481430435</v>
+        <v>0.04700991967826749</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.08993742212743581</v>
+        <v>0.05955580500280831</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.06000721485345703</v>
+        <v>0.06870313581523808</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.04791849916880087</v>
+        <v>0.01950682840839061</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1326373566246543</v>
+        <v>0.1332764033230485</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1404710790599907</v>
+        <v>0.1359735372821796</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0784994754269272</v>
+        <v>0.09290213469753102</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05561018513600371</v>
+        <v>0.0469423812581674</v>
       </c>
       <c r="H75" t="n">
-        <v>0.008276130666679734</v>
+        <v>0.01518184387823371</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04094066204197971</v>
+        <v>0.0556480495550056</v>
       </c>
       <c r="J75" t="n">
-        <v>0.02573136049834077</v>
+        <v>0.05261409182790165</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02266929035459005</v>
+        <v>0.05038711072222782</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00391325231073173</v>
+        <v>0.01978448141003027</v>
       </c>
       <c r="M75" t="n">
-        <v>0.01456796386270102</v>
+        <v>0.0399126232631791</v>
       </c>
       <c r="N75" t="n">
-        <v>0.02821108113386646</v>
+        <v>0.005510531518967737</v>
       </c>
       <c r="O75" t="n">
-        <v>0.01620311772401998</v>
+        <v>0.003922072106641044</v>
       </c>
       <c r="P75" t="n">
-        <v>0.05142165075861992</v>
+        <v>0.04360723328128199</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.06756711079526395</v>
+        <v>0.003957036749154567</v>
       </c>
       <c r="R75" t="n">
-        <v>0.01685496594945967</v>
+        <v>0.07081161655661332</v>
       </c>
       <c r="S75" t="n">
-        <v>0.09528959878172565</v>
+        <v>0.06623608335231762</v>
       </c>
       <c r="T75" t="n">
-        <v>0.0136247776388909</v>
+        <v>0.001534481068149366</v>
       </c>
       <c r="U75" t="n">
-        <v>0.02597536721542268</v>
+        <v>0.002148966648365351</v>
       </c>
       <c r="V75" t="n">
-        <v>0.06719009229876592</v>
+        <v>0.03944475907269964</v>
       </c>
       <c r="W75" t="n">
-        <v>0.0905817683117548</v>
+        <v>0.07168475427934527</v>
       </c>
       <c r="X75" t="n">
-        <v>0.07078047134487406</v>
+        <v>0.06212391172091606</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.07149765679187113</v>
+        <v>0.01181286907867295</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.01048960668391676</v>
+        <v>0.08434374880768444</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.1041732354715726</v>
+        <v>0.06241952647159196</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.0199311788020213</v>
+        <v>0.09706969267532217</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1258068553649228</v>
+        <v>0.151307723382007</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1260471911745984</v>
+        <v>0.1286551798447748</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03278025677277997</v>
+        <v>0.07837358528524443</v>
       </c>
       <c r="G76" t="n">
-        <v>0.08308081329870209</v>
+        <v>0.04706850625133124</v>
       </c>
       <c r="H76" t="n">
-        <v>0.004708875356128911</v>
+        <v>0.004256341425299893</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02811029240091728</v>
+        <v>0.02685426079850527</v>
       </c>
       <c r="J76" t="n">
-        <v>0.04948143687268425</v>
+        <v>0.1056106296813941</v>
       </c>
       <c r="K76" t="n">
-        <v>0.04336737776761365</v>
+        <v>0.0564303114215354</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0248203756254465</v>
+        <v>0.04402846792399884</v>
       </c>
       <c r="M76" t="n">
-        <v>0.03487161643518915</v>
+        <v>0.01403042106873313</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02732045488383377</v>
+        <v>0.02680219442631718</v>
       </c>
       <c r="O76" t="n">
-        <v>0.07291963545241524</v>
+        <v>0.06430945469330161</v>
       </c>
       <c r="P76" t="n">
-        <v>0.1049821856799149</v>
+        <v>0.1029093755023422</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.005612160915709046</v>
+        <v>0.00656683040880855</v>
       </c>
       <c r="R76" t="n">
-        <v>0.06914385024087825</v>
+        <v>0.02374781317030032</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0580391198863111</v>
+        <v>0.04315637882158608</v>
       </c>
       <c r="T76" t="n">
-        <v>0.0810429673206374</v>
+        <v>0.01577106285454497</v>
       </c>
       <c r="U76" t="n">
-        <v>0.1007899847285135</v>
+        <v>0.08332730429703011</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01399914531466827</v>
+        <v>0.02289306558458919</v>
       </c>
       <c r="W76" t="n">
-        <v>0.004318278162398397</v>
+        <v>0.03775728634163549</v>
       </c>
       <c r="X76" t="n">
-        <v>0.08055583725422039</v>
+        <v>0.07876405677312615</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.009491794041035052</v>
+        <v>0.03371778451831208</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.02791362389759484</v>
+        <v>0.0596291767157139</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.02635408629986997</v>
+        <v>0.0186818122002314</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.01629583139253796</v>
+        <v>0.005313879836118741</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.07211954009181103</v>
+        <v>-0.06343822942580687</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1581326728680175</v>
+        <v>0.1520993918930875</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1422365010380388</v>
+        <v>0.09596077590772861</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01903481222983951</v>
+        <v>0.01828441698323522</v>
       </c>
       <c r="H77" t="n">
-        <v>6.45353731543739e-05</v>
+        <v>0.04995449769214658</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02578078543394374</v>
+        <v>0.02790668327827455</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02816755397515601</v>
+        <v>0.01469558098379117</v>
       </c>
       <c r="K77" t="n">
-        <v>0.05969724692697162</v>
+        <v>0.005698813575273519</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01281638834988804</v>
+        <v>0.0006726578187317947</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03282001404524854</v>
+        <v>0.09047978883546533</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01996176943306945</v>
+        <v>0.00134592806428669</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02440305968081508</v>
+        <v>0.004084199489688751</v>
       </c>
       <c r="P77" t="n">
-        <v>0.004462036502512936</v>
+        <v>0.04819519800123678</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.1232011763071446</v>
+        <v>0.09962232157621559</v>
       </c>
       <c r="R77" t="n">
-        <v>0.06987995258799508</v>
+        <v>0.05231368606225393</v>
       </c>
       <c r="S77" t="n">
-        <v>0.02208689722500463</v>
+        <v>0.06485442981589627</v>
       </c>
       <c r="T77" t="n">
-        <v>0.02564360849822145</v>
+        <v>0.04339879041237998</v>
       </c>
       <c r="U77" t="n">
-        <v>0.0475364483629554</v>
+        <v>0.0934592464231971</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01592058606649639</v>
+        <v>0.01030076180722642</v>
       </c>
       <c r="W77" t="n">
-        <v>0.07683472544816074</v>
+        <v>0.08492717101836381</v>
       </c>
       <c r="X77" t="n">
-        <v>0.02890574603575149</v>
+        <v>0.003056001916904096</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.1065128074214669</v>
+        <v>0.08289142243260564</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.02179806081492909</v>
+        <v>0.04502525646428614</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.06323736124928417</v>
+        <v>0.01811162887539389</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.02899792699395213</v>
+        <v>0.04476074256541817</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.03671774862001857</v>
+        <v>-0.02003753732815276</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1295222614520908</v>
+        <v>0.128919009633048</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04105136883106388</v>
+        <v>0.08202880011902061</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03686145257242041</v>
+        <v>0.0187785527236686</v>
       </c>
       <c r="H78" t="n">
-        <v>0.003645003702184442</v>
+        <v>0.03994779680667961</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01274644565758081</v>
+        <v>0.02083278847186567</v>
       </c>
       <c r="J78" t="n">
-        <v>0.001911286314029611</v>
+        <v>0.08535338916230267</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02129318050427212</v>
+        <v>0.01123821073204228</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05348522305544583</v>
+        <v>0.04452091778880055</v>
       </c>
       <c r="M78" t="n">
-        <v>0.07332037360675021</v>
+        <v>0.05053559093881643</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05425317801137782</v>
+        <v>0.01603960264788986</v>
       </c>
       <c r="O78" t="n">
-        <v>0.08744336370806906</v>
+        <v>0.05571391331362374</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1023972832491397</v>
+        <v>0.1089055767261083</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.1187685577552974</v>
+        <v>0.03731328986893526</v>
       </c>
       <c r="R78" t="n">
-        <v>0.07462889129074923</v>
+        <v>0.01383102787328361</v>
       </c>
       <c r="S78" t="n">
-        <v>0.02574185275588123</v>
+        <v>0.05256703773463645</v>
       </c>
       <c r="T78" t="n">
-        <v>0.001034379144757533</v>
+        <v>0.07934308417246112</v>
       </c>
       <c r="U78" t="n">
-        <v>0.0320728930563166</v>
+        <v>0.08321699693256554</v>
       </c>
       <c r="V78" t="n">
-        <v>0.007703410914567552</v>
+        <v>0.0021921444494934</v>
       </c>
       <c r="W78" t="n">
-        <v>0.09834663542173797</v>
+        <v>0.04448410389438295</v>
       </c>
       <c r="X78" t="n">
-        <v>0.01501190498490572</v>
+        <v>0.044901379423332</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0822438815102092</v>
+        <v>0.05053066976522088</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.01184660122269216</v>
+        <v>0.05149298771521475</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.003542163973424501</v>
+        <v>0.003900031424199263</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.04065066875712714</v>
+        <v>0.002332107315456489</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.07250066767338166</v>
+        <v>0.07524738761557051</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1365429268154422</v>
+        <v>0.1365074755671777</v>
       </c>
       <c r="F79" t="n">
-        <v>0.111480073185228</v>
+        <v>0.09994254522330856</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04033407838728962</v>
+        <v>0.06601484004453807</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0001349595627821707</v>
+        <v>0.001471500652034212</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0309357444276463</v>
+        <v>0.01554673950150533</v>
       </c>
       <c r="J79" t="n">
-        <v>0.04856646294121487</v>
+        <v>0.02925505103428564</v>
       </c>
       <c r="K79" t="n">
-        <v>0.003489286029903617</v>
+        <v>0.012671772609584</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02259930975553952</v>
+        <v>0.02218921307820945</v>
       </c>
       <c r="M79" t="n">
-        <v>0.05438541284217393</v>
+        <v>0.08252158374792186</v>
       </c>
       <c r="N79" t="n">
-        <v>0.008600746245488072</v>
+        <v>0.003357448191190881</v>
       </c>
       <c r="O79" t="n">
-        <v>0.06297561532712097</v>
+        <v>0.08068809527024971</v>
       </c>
       <c r="P79" t="n">
-        <v>0.009006197908031878</v>
+        <v>0.09629916750537575</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.06771871389181326</v>
+        <v>0.02867460739041443</v>
       </c>
       <c r="R79" t="n">
-        <v>0.03101671430128814</v>
+        <v>0.02833568125134258</v>
       </c>
       <c r="S79" t="n">
-        <v>0.03151971052345369</v>
+        <v>0.06496071789381613</v>
       </c>
       <c r="T79" t="n">
-        <v>0.01806678113003841</v>
+        <v>0.02098348279185489</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03964067996873476</v>
+        <v>0.02916824793849351</v>
       </c>
       <c r="V79" t="n">
-        <v>0.0005503056779762982</v>
+        <v>0.0139928957866284</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1093350718764843</v>
+        <v>0.02704143083682819</v>
       </c>
       <c r="X79" t="n">
-        <v>0.03381071828938763</v>
+        <v>0.04470053522230306</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.1153731730026699</v>
+        <v>0.06938303049306331</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.07391477757850874</v>
+        <v>0.06826216490516175</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.04664264394983814</v>
+        <v>0.004651547142030553</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.03990282319738794</v>
+        <v>0.08988770148985971</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.09347225878723772</v>
+        <v>0.08489854849094602</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1447925632910366</v>
+        <v>0.1430314755423708</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0134048796969441</v>
+        <v>0.03728475636591008</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02209049690344972</v>
+        <v>0.03717622481169663</v>
       </c>
       <c r="H80" t="n">
-        <v>0.02645737330284819</v>
+        <v>0.00466555310082178</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03957549289520983</v>
+        <v>0.02384243969932699</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03259091398727098</v>
+        <v>0.06161173847161742</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04000642330674661</v>
+        <v>0.04318062644213515</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01616708908682789</v>
+        <v>0.02633929782651764</v>
       </c>
       <c r="M80" t="n">
-        <v>0.08709024293094682</v>
+        <v>0.07786030475501586</v>
       </c>
       <c r="N80" t="n">
-        <v>0.007087626215648556</v>
+        <v>0.04442938383307014</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02510261867804464</v>
+        <v>0.01990306909738126</v>
       </c>
       <c r="P80" t="n">
-        <v>0.04268915852254365</v>
+        <v>0.08127115469426996</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.06996482000452064</v>
+        <v>0.1128017707050212</v>
       </c>
       <c r="R80" t="n">
-        <v>0.06891804815676258</v>
+        <v>0.05742905427742912</v>
       </c>
       <c r="S80" t="n">
-        <v>0.04095235557582514</v>
+        <v>0.01385226548180019</v>
       </c>
       <c r="T80" t="n">
-        <v>0.03415348886174829</v>
+        <v>0.02814971917719528</v>
       </c>
       <c r="U80" t="n">
-        <v>0.08783643544058641</v>
+        <v>0.04335406073501102</v>
       </c>
       <c r="V80" t="n">
-        <v>0.03401106353971332</v>
+        <v>0.02054555377831978</v>
       </c>
       <c r="W80" t="n">
-        <v>0.001091894332490806</v>
+        <v>0.01188895022053633</v>
       </c>
       <c r="X80" t="n">
-        <v>0.06542477806612268</v>
+        <v>0.03578470199888288</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.07894551067806015</v>
+        <v>0.07624864324758825</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.05489818927525997</v>
+        <v>0.1014202725804985</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.0727862071424225</v>
+        <v>0.03685030618118319</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.03875489340000659</v>
+        <v>0.004110152518771288</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1753682545863743</v>
+        <v>-0.1557417508788178</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.148033307474925</v>
+        <v>0.1641278302703939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0444329350287065</v>
+        <v>0.07307325580271107</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06682184059978852</v>
+        <v>0.02364441194768719</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01532168833850116</v>
+        <v>0.006472724721716658</v>
       </c>
       <c r="I81" t="n">
-        <v>0.07695118121490646</v>
+        <v>0.02327458231174328</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02511511291823983</v>
+        <v>0.04550817393993625</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02577636159146486</v>
+        <v>0.01403271683945293</v>
       </c>
       <c r="L81" t="n">
-        <v>0.001380043712127175</v>
+        <v>0.005997199007343486</v>
       </c>
       <c r="M81" t="n">
-        <v>0.07290409650807893</v>
+        <v>0.09193923212392222</v>
       </c>
       <c r="N81" t="n">
-        <v>0.004628779758865251</v>
+        <v>0.07001589147809813</v>
       </c>
       <c r="O81" t="n">
-        <v>0.07790744183093308</v>
+        <v>0.08818500097972487</v>
       </c>
       <c r="P81" t="n">
-        <v>0.02609822987042148</v>
+        <v>0.01084995246159246</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.06545396073509671</v>
+        <v>0.0148807788967561</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08400278581819658</v>
+        <v>0.03178521417971358</v>
       </c>
       <c r="S81" t="n">
-        <v>0.004004161718117722</v>
+        <v>0.02242730540450942</v>
       </c>
       <c r="T81" t="n">
-        <v>0.05378382411535218</v>
+        <v>0.00781274078666524</v>
       </c>
       <c r="U81" t="n">
-        <v>0.03806860893400318</v>
+        <v>0.08400915476726101</v>
       </c>
       <c r="V81" t="n">
-        <v>0.04472885112903439</v>
+        <v>0.06526560294681422</v>
       </c>
       <c r="W81" t="n">
-        <v>0.01022411804373547</v>
+        <v>0.02485426840739418</v>
       </c>
       <c r="X81" t="n">
-        <v>0.001786711384482666</v>
+        <v>0.08860866760163759</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.08161170409418929</v>
+        <v>0.09241030798753745</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.08270723581298116</v>
+        <v>0.07573303741961163</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.0689412087492198</v>
+        <v>0.002839035505057601</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.02734911809355758</v>
+        <v>0.03638074448311324</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1711161819600592</v>
+        <v>-0.1662573550978095</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2008503342474037</v>
+        <v>0.2049359767027615</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02653683480179831</v>
+        <v>0.08765181055800092</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07055641639023756</v>
+        <v>0.08034927027677871</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01065192044734123</v>
+        <v>0.007002473656223581</v>
       </c>
       <c r="I82" t="n">
-        <v>0.08766976592155075</v>
+        <v>0.03853783743910964</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02897932229036921</v>
+        <v>0.02888990147925673</v>
       </c>
       <c r="K82" t="n">
-        <v>0.002586280509948324</v>
+        <v>0.04108962828486676</v>
       </c>
       <c r="L82" t="n">
-        <v>0.004217476739618459</v>
+        <v>0.02501086890411058</v>
       </c>
       <c r="M82" t="n">
-        <v>0.004915728059225351</v>
+        <v>0.02021843642887846</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02361209923349347</v>
+        <v>0.0355047134238908</v>
       </c>
       <c r="O82" t="n">
-        <v>0.05121680076675123</v>
+        <v>0.02269976648195908</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07947364735586349</v>
+        <v>0.08877025051391246</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.08087537437684576</v>
+        <v>0.08798642744696117</v>
       </c>
       <c r="R82" t="n">
-        <v>0.02124083003288407</v>
+        <v>0.07180320012655397</v>
       </c>
       <c r="S82" t="n">
-        <v>0.0702799277406545</v>
+        <v>0.009897768983967945</v>
       </c>
       <c r="T82" t="n">
-        <v>0.03407459923274581</v>
+        <v>0.01832663110402192</v>
       </c>
       <c r="U82" t="n">
-        <v>0.09419161842513382</v>
+        <v>0.06798688146215567</v>
       </c>
       <c r="V82" t="n">
-        <v>0.006139972602080787</v>
+        <v>0.01490645912020231</v>
       </c>
       <c r="W82" t="n">
-        <v>0.09413218238282409</v>
+        <v>0.03772302751805297</v>
       </c>
       <c r="X82" t="n">
-        <v>0.01757543025452111</v>
+        <v>0.06224254502525469</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.03676430197740319</v>
+        <v>0.07989957003939638</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.09570568320512746</v>
+        <v>0.06629352645887819</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.05824159283018851</v>
+        <v>0.003458418482773704</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.0003621944233935243</v>
+        <v>0.003750586784793664</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1555008802148154</v>
+        <v>0.1685177462083341</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2149599539706484</v>
+        <v>0.2132126466626207</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09692568373286344</v>
+        <v>0.08820696953340407</v>
       </c>
       <c r="G83" t="n">
-        <v>0.004718390053048443</v>
+        <v>0.0156733931500949</v>
       </c>
       <c r="H83" t="n">
-        <v>0.02637254604338575</v>
+        <v>0.03483968987901351</v>
       </c>
       <c r="I83" t="n">
-        <v>0.09334103651527846</v>
+        <v>0.04440046480643823</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01603015965142623</v>
+        <v>0.006709153506084825</v>
       </c>
       <c r="K83" t="n">
-        <v>0.004378510041380425</v>
+        <v>0.008050750708351971</v>
       </c>
       <c r="L83" t="n">
-        <v>0.006710134104523076</v>
+        <v>0.003745639082555996</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1159065211616248</v>
+        <v>0.05240190546324369</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0223955213607676</v>
+        <v>0.05769324184044868</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01755757811150347</v>
+        <v>0.06544249081582673</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0004722454233087746</v>
+        <v>0.03577298438644585</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.04028130542674898</v>
+        <v>0.09652350373707187</v>
       </c>
       <c r="R83" t="n">
-        <v>0.06320366548797211</v>
+        <v>0.08070324847231121</v>
       </c>
       <c r="S83" t="n">
-        <v>0.06973406064847917</v>
+        <v>0.01078053441507606</v>
       </c>
       <c r="T83" t="n">
-        <v>0.01602990394352576</v>
+        <v>0.01980705200966938</v>
       </c>
       <c r="U83" t="n">
-        <v>0.1027862737043611</v>
+        <v>0.0454376753010404</v>
       </c>
       <c r="V83" t="n">
-        <v>0.03880052034517922</v>
+        <v>0.008615184503173386</v>
       </c>
       <c r="W83" t="n">
-        <v>0.09067648778649567</v>
+        <v>0.008625444524348401</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0002496101549052888</v>
+        <v>0.09270290693373767</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.05977791965500787</v>
+        <v>0.08365918745443764</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.06569199335121027</v>
+        <v>0.083206906654581</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.03109690428870502</v>
+        <v>0.04129021621797665</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.01686302900829909</v>
+        <v>0.01571145660466798</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.149431516440027</v>
+        <v>0.1868303018816677</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2354378944263376</v>
+        <v>0.2355440487555106</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08005779913754417</v>
+        <v>0.02977648490456233</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0435206867929925</v>
+        <v>0.03013591316031849</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001373882523318983</v>
+        <v>0.002049617504264138</v>
       </c>
       <c r="I84" t="n">
-        <v>0.004335986842391999</v>
+        <v>0.07317017852937678</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01436879616196092</v>
+        <v>0.01825986243894949</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01319683293538588</v>
+        <v>0.009511978937200873</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01082751219002031</v>
+        <v>0.007144449713530909</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04924037154571408</v>
+        <v>0.01121141633276513</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08587323816975177</v>
+        <v>0.02804449018888941</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01692360804819238</v>
+        <v>0.01593035211758488</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0877006757769523</v>
+        <v>0.04752283222736096</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.07357039723183424</v>
+        <v>0.08949640225976398</v>
       </c>
       <c r="R84" t="n">
-        <v>0.09016508346828046</v>
+        <v>0.06683987303370084</v>
       </c>
       <c r="S84" t="n">
-        <v>0.02897418560396041</v>
+        <v>0.08529310480747763</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0004217568664637051</v>
+        <v>0.03214975527286407</v>
       </c>
       <c r="U84" t="n">
-        <v>0.08100251197428443</v>
+        <v>0.08591631106622238</v>
       </c>
       <c r="V84" t="n">
-        <v>0.05111319581129531</v>
+        <v>0.02634253488595539</v>
       </c>
       <c r="W84" t="n">
-        <v>0.09984274694545019</v>
+        <v>0.05713582305921747</v>
       </c>
       <c r="X84" t="n">
-        <v>0.001460527128384903</v>
+        <v>0.06607085759329674</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.01714369654659482</v>
+        <v>0.08838337272923415</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.03089864560974918</v>
+        <v>0.00315824534395809</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.09916704394419777</v>
+        <v>0.04731495613851586</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.01882081874527941</v>
+        <v>0.07914118775499007</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.0588242596371235</v>
+        <v>0.03723773714639652</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2704996158020804</v>
+        <v>0.2518800750552045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01620109273970438</v>
+        <v>0.07065435260861716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.00475936261468946</v>
+        <v>0.02419235048723408</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01647542482981796</v>
+        <v>0.003019253578999846</v>
       </c>
       <c r="I85" t="n">
-        <v>0.09139477695112223</v>
+        <v>0.0872557833535054</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02665535185031612</v>
+        <v>0.009617568607071011</v>
       </c>
       <c r="K85" t="n">
-        <v>0.002824897849376495</v>
+        <v>0.01707062875604766</v>
       </c>
       <c r="L85" t="n">
-        <v>0.004321487860380164</v>
+        <v>0.03481562590396825</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1066078718163954</v>
+        <v>0.08637121164021345</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01493448555244533</v>
+        <v>0.03536088891016907</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04918280561613337</v>
+        <v>0.09049337196307791</v>
       </c>
       <c r="P85" t="n">
-        <v>0.01671418839424695</v>
+        <v>0.06908122818486036</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.0957935893517106</v>
+        <v>0.04329760077963959</v>
       </c>
       <c r="R85" t="n">
-        <v>0.03181336041296581</v>
+        <v>0.04555964338592746</v>
       </c>
       <c r="S85" t="n">
-        <v>0.04401961131981455</v>
+        <v>0.02740272434963686</v>
       </c>
       <c r="T85" t="n">
-        <v>0.07603365945044691</v>
+        <v>0.0006321891469127989</v>
       </c>
       <c r="U85" t="n">
-        <v>0.002131235151276773</v>
+        <v>0.04495854615436379</v>
       </c>
       <c r="V85" t="n">
-        <v>0.03659771658015509</v>
+        <v>0.005106110080747561</v>
       </c>
       <c r="W85" t="n">
-        <v>0.08013409063283533</v>
+        <v>0.05273404556454431</v>
       </c>
       <c r="X85" t="n">
-        <v>0.04738996293920861</v>
+        <v>0.02876176845883278</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.1062988104104749</v>
+        <v>0.09954482362478524</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.09944498781432641</v>
+        <v>0.08421676216103635</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.0106691549704724</v>
+        <v>0.001422307966488735</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.01960207489168505</v>
+        <v>0.03843121433332034</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.0002148066924364345</v>
+        <v>0.0149410500384773</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1347371501114819</v>
+        <v>0.1376413179688339</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04151671143829085</v>
+        <v>0.0845381232121208</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06494486761115334</v>
+        <v>0.07035088225547374</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03042013396336822</v>
+        <v>0.00467486925820149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005154180654820139</v>
+        <v>0.005100628595105406</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05755544578194443</v>
+        <v>0.07664529654260677</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003018232451658484</v>
+        <v>0.01245284776258654</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07461388534091211</v>
+        <v>0.03683571622296199</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03117301163625163</v>
+        <v>0.0674111759475281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08356560146949718</v>
+        <v>0.0304401972111739</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03747574011037939</v>
+        <v>0.06254833196006741</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07715047970169141</v>
+        <v>0.06813392589097352</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05657625326179198</v>
+        <v>0.03258315024893788</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08337535646447286</v>
+        <v>0.07846217845243164</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02065431854709226</v>
+        <v>0.07399643656938514</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0676740185477033</v>
+        <v>0.04516215441155354</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04682904048252491</v>
+        <v>0.008517138338438663</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005732789991085793</v>
+        <v>0.02792216806033644</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06585776301736325</v>
+        <v>0.01304375150611303</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03146660034757048</v>
+        <v>0.06522786759552476</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004354187874498022</v>
+        <v>0.03415769169582472</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06948119574697192</v>
+        <v>0.07939522457288188</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02980443703513512</v>
+        <v>0.009270687851896994</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01160574852382325</v>
+        <v>0.01312955583787571</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0813690089722293</v>
+        <v>0.07113107972035676</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1583965341422859</v>
+        <v>0.1638970432322349</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008369815308553283</v>
+        <v>0.03061892265763365</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03724965497613789</v>
+        <v>0.06015179056217265</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05420216044640983</v>
+        <v>0.01690722050808306</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001737215255588137</v>
+        <v>0.01194825329509368</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07876278369808454</v>
+        <v>0.09301239884949604</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0100988034695391</v>
+        <v>0.0290303033817298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04388963771180889</v>
+        <v>0.000192056686790886</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09383975850649277</v>
+        <v>0.09871820281789419</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07662392800016399</v>
+        <v>0.04632043561485865</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04512838703674688</v>
+        <v>0.003040567299438273</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01000527713260752</v>
+        <v>0.007795302591252452</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02585498466029533</v>
+        <v>0.05787033788009189</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07662970279964051</v>
+        <v>0.0855502762844105</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07613597486682157</v>
+        <v>0.08901852630717919</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0821198386029504</v>
+        <v>0.1044718798901523</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01025475798029433</v>
+        <v>0.02698977380353748</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06444198737519889</v>
+        <v>0.02405045466888294</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0496930680930182</v>
+        <v>0.03604191901414243</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03277107965272324</v>
+        <v>0.03559227685925124</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05734310395664338</v>
+        <v>0.01099185379091593</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01858897343729174</v>
+        <v>0.01884210513858377</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003277227940470476</v>
+        <v>0.03924257495863723</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.04298187909251919</v>
+        <v>0.07360256713977183</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1020986141018159</v>
+        <v>0.109712538079388</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1477590451178088</v>
+        <v>0.1497659763509488</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0841723113373017</v>
+        <v>0.05733686227303107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03327468851902399</v>
+        <v>0.0104785777998536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01585031306890968</v>
+        <v>0.04156523744234392</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03401101415802928</v>
+        <v>0.04116641934728394</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07044654096044312</v>
+        <v>0.01212570075305378</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03272704417126236</v>
+        <v>0.03876365159035502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04099943619125217</v>
+        <v>0.07967262531563343</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05574968124170657</v>
+        <v>0.04754407365051141</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04013795927884339</v>
+        <v>0.05513483730231658</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06221354050139058</v>
+        <v>0.07477448308893422</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04395416317834625</v>
+        <v>0.06842985197967424</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03958821692355017</v>
+        <v>0.0551544653529378</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04448323328415268</v>
+        <v>0.06756514838007086</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03513042359031469</v>
+        <v>0.02559846123013562</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003428859693299949</v>
+        <v>0.001628884383722606</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08813552619578877</v>
+        <v>0.06852498753789896</v>
       </c>
       <c r="V4" t="n">
-        <v>0.009450987838767041</v>
+        <v>0.0009038837571828601</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08106561407944544</v>
+        <v>0.07699125779855627</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02078656274192082</v>
+        <v>0.0263326686030736</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06219174998441359</v>
+        <v>0.04525387163730411</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09209773806942781</v>
+        <v>0.07671196215888401</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003806990401569417</v>
+        <v>0.02761396190054246</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.006297404590840235</v>
+        <v>0.0007281267166994907</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.05326298023225386</v>
+        <v>-0.04334235139729783</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1993919251572517</v>
+        <v>0.1896874786881582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06718156846404337</v>
+        <v>0.02945524602506344</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02310335499876404</v>
+        <v>0.04982158350791648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004488469092876774</v>
+        <v>0.002377357268433455</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09014482418002889</v>
+        <v>0.1059298998368879</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0004312820193411698</v>
+        <v>0.002067602448675874</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009660926731974771</v>
+        <v>0.01060967730348979</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07825909337447723</v>
+        <v>0.04040943727131997</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05956281861091123</v>
+        <v>0.02171310383904354</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04285584608977829</v>
+        <v>0.1013082376432783</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03134532954307691</v>
+        <v>0.05904936909207088</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01588071847632844</v>
+        <v>0.0321903529116981</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05553325097566077</v>
+        <v>0.07129339964490425</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04023813427603543</v>
+        <v>0.01240521365863122</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01261393777997866</v>
+        <v>0.04261700797936178</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07816150140141619</v>
+        <v>0.01257469911521361</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05033364829211553</v>
+        <v>0.06411768376506967</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06718975175265984</v>
+        <v>0.06340201964342651</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07384078520192373</v>
+        <v>0.06962769870042705</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05746315843236689</v>
+        <v>0.004783472415918737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04408409572797824</v>
+        <v>0.1035124149612781</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0247690573099981</v>
+        <v>0.004649804214829647</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.021092531242318</v>
+        <v>0.04151379569846866</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05176591602594768</v>
+        <v>0.05457092305459278</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.03570668148683907</v>
+        <v>-0.02403659623448773</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1406671392702686</v>
+        <v>0.1395816604107263</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03097297709318893</v>
+        <v>0.06879846708349138</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09406513707607767</v>
+        <v>0.06875610502683707</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02500076218896614</v>
+        <v>0.009249840620979192</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07078760834843643</v>
+        <v>0.03026983797059964</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006559361303485461</v>
+        <v>0.03924030163147239</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00760025308980156</v>
+        <v>0.01114922804910734</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01651427338026188</v>
+        <v>0.0119929084252119</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01056990342083643</v>
+        <v>0.01138919722518166</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05833721633904027</v>
+        <v>0.02965388324880843</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08854686174929766</v>
+        <v>0.06698116364689313</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07181509291225181</v>
+        <v>0.03237098263175118</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05802286788876247</v>
+        <v>0.07390979596974334</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07026881322082516</v>
+        <v>0.05365318156928901</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04124284721473254</v>
+        <v>0.03230287637633123</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03635695933686736</v>
+        <v>0.05233875161965778</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02223962602773902</v>
+        <v>0.07007744399745154</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0004665996063049207</v>
+        <v>0.01823651830141062</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0231134701425211</v>
+        <v>0.07674964542098039</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02066640669220451</v>
+        <v>0.0456761320325844</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08603064175272204</v>
+        <v>0.08386004664936382</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07698039533245553</v>
+        <v>0.06285311954783211</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07128215937028545</v>
+        <v>0.04233480514068471</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01255976651293577</v>
+        <v>0.008155767814337593</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05694499017169452</v>
+        <v>0.04351540542916248</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1626799512121508</v>
+        <v>0.1612573787384411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03579249057052256</v>
+        <v>0.03451630458083797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04430349759810323</v>
+        <v>0.0556213685423177</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01799044002001812</v>
+        <v>0.00314339660373815</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05901384129507996</v>
+        <v>0.08736093734028577</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001366011409098758</v>
+        <v>0.004403562103092206</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0315196813100725</v>
+        <v>0.03374451103662338</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08616260374495896</v>
+        <v>0.08071551574861208</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002942516922002735</v>
+        <v>0.006364852967611936</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05379812885767354</v>
+        <v>0.02645486386075803</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05026599271468485</v>
+        <v>0.01891167005470324</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02175238879638249</v>
+        <v>0.08629140140644914</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06223818779791422</v>
+        <v>0.08224455936346686</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01028508878743388</v>
+        <v>0.01400498301942206</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07811319227306421</v>
+        <v>0.01274305359026728</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0791509133853564</v>
+        <v>0.0460541198913481</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08670528478937811</v>
+        <v>0.03630662852692115</v>
       </c>
       <c r="V7" t="n">
-        <v>0.008554947631093303</v>
+        <v>0.007834098180149305</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08337909216676764</v>
+        <v>0.08085628060514607</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01257148723639507</v>
+        <v>0.03263097887000607</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06705681912730095</v>
+        <v>0.07378358643422901</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02290482413542923</v>
+        <v>0.01789849230212886</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01108375328704363</v>
+        <v>0.08516283307458859</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07427822641241481</v>
+        <v>0.072952001897297</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03458030262198944</v>
+        <v>0.05578991574085917</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1495028920182387</v>
+        <v>0.1510827957170025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06438646934903529</v>
+        <v>0.02201072780126936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05692103414247821</v>
+        <v>0.01745427681460742</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05342715530807121</v>
+        <v>0.07356292963956099</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007358662942392543</v>
+        <v>0.01612708432267521</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0184156725124402</v>
+        <v>0.03492518670117634</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005127226775392406</v>
+        <v>0.05410302401468931</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04085018033433606</v>
+        <v>0.04829917378431768</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03720841031900408</v>
+        <v>0.02702143389247686</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001465217455195861</v>
+        <v>0.06531051178236423</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04348287864059681</v>
+        <v>0.09950203972013784</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09299790563632021</v>
+        <v>0.03666650893669449</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03654664556556797</v>
+        <v>0.02779668139092693</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06690640015600195</v>
+        <v>0.0382913682953293</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03429936606920161</v>
+        <v>0.02288692317701935</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01755908132567078</v>
+        <v>0.06358265185177878</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1012025240991437</v>
+        <v>0.0951079256948093</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01032617387535573</v>
+        <v>0.02552006463443571</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06806421347793222</v>
+        <v>0.09436476644768162</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0733306915526902</v>
+        <v>0.0678804618871434</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08538344946196925</v>
+        <v>0.03030397945601679</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01046097641071222</v>
+        <v>0.002591147878209605</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.07265799892246051</v>
+        <v>0.03114726928054379</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.00162166566803102</v>
+        <v>0.005543862596135499</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1758208234456784</v>
+        <v>-0.1441940543403089</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1862030255887649</v>
+        <v>0.1714792513304166</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07720145674387958</v>
+        <v>0.0505545419945761</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04813337428608708</v>
+        <v>0.001326300117363061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06393683747192654</v>
+        <v>0.08692886382421218</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05242763279454742</v>
+        <v>0.01751706093526277</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02298649333112958</v>
+        <v>0.01571311211917736</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007718271571812654</v>
+        <v>0.01384732844221181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07525768160493841</v>
+        <v>0.07555233546109476</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0572076273429987</v>
+        <v>0.02313168134360278</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0156355793766957</v>
+        <v>0.01976479911356926</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02894950360965534</v>
+        <v>0.04742270017699048</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07765489234565784</v>
+        <v>0.04916266433686373</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0785276831523067</v>
+        <v>0.0802366524206916</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01574560942174385</v>
+        <v>0.0396795020064292</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004184258243073125</v>
+        <v>0.04046704802958101</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0735570174749203</v>
+        <v>0.01451799318393226</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008202498286906912</v>
+        <v>0.04939524142195943</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0008658608909841761</v>
+        <v>0.006269288360456675</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0866000586207334</v>
+        <v>0.05297462988305091</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0425419859827184</v>
+        <v>0.06162170487159781</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01306106882802726</v>
+        <v>0.07358567952902782</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.004171016273185991</v>
+        <v>0.03041960444331867</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0662195808930891</v>
+        <v>0.0820289508630126</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07921401145298178</v>
+        <v>0.06788231712201773</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1319813867981288</v>
+        <v>-0.1512036640870018</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1623068732403446</v>
+        <v>0.1636581990445132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03952242881579709</v>
+        <v>0.0244443567681262</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006591442450769643</v>
+        <v>0.004067015260859111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004192335442544451</v>
+        <v>0.007714723732396897</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04920849049170421</v>
+        <v>0.08314904099108929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0583597134770267</v>
+        <v>0.08692549564790222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05849146584112667</v>
+        <v>0.07482782023511039</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001913256109464264</v>
+        <v>0.002771050670845194</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03996804054459316</v>
+        <v>0.02686647445692386</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03686261983616008</v>
+        <v>0.01053818209021948</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01560261178848788</v>
+        <v>0.0318089270896336</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06219983672229042</v>
+        <v>0.05982382503845349</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05960603067559812</v>
+        <v>0.06683300702432152</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06178688882219459</v>
+        <v>0.0764498180012128</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07124363196913258</v>
+        <v>0.03668362615248001</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03699267759685627</v>
+        <v>0.008333195454350725</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04242291757640454</v>
+        <v>0.06062104769711858</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007915358941714057</v>
+        <v>0.0209929595124051</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07034552245378241</v>
+        <v>0.07105195969814691</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05233616405361601</v>
+        <v>0.04160327870134385</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05191408145715849</v>
+        <v>0.08113081247762273</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07674985091211092</v>
+        <v>0.02736777435724972</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02158598943341601</v>
+        <v>0.03453389698524814</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07418864458805134</v>
+        <v>0.06146171195694008</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.07684045662055893</v>
+        <v>-0.07488830920606399</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1880700596527733</v>
+        <v>0.1972041350016188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0476861138991108</v>
+        <v>0.05718772151334863</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0316344924040586</v>
+        <v>0.002810105312408607</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05105318041119625</v>
+        <v>0.07722071385964556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05481477348213559</v>
+        <v>0.1196441631675525</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007444735618363238</v>
+        <v>0.00313515739593293</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04475398187074855</v>
+        <v>0.02833850596266515</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05136055400717608</v>
+        <v>0.1053130921382768</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0389196707294502</v>
+        <v>0.03473214327292577</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02667943281458558</v>
+        <v>0.07225035055484055</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005744621519062256</v>
+        <v>0.02331257506849684</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08139835348855863</v>
+        <v>0.01223415901996955</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06484419612306892</v>
+        <v>0.1104422316915645</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04325271606170001</v>
+        <v>0.02601022521356819</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08056852600043245</v>
+        <v>0.0063922369993665</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0227299361559989</v>
+        <v>0.001591804143717812</v>
       </c>
       <c r="U11" t="n">
-        <v>0.009984397499787748</v>
+        <v>0.06124276760286021</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01765233360410269</v>
+        <v>0.005150482757120752</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1223449045342963</v>
+        <v>0.06742208926994332</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02547707536676938</v>
+        <v>0.0009003245586343106</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009954597438041862</v>
+        <v>0.04561752559724939</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02781095107006604</v>
+        <v>0.03403700339534156</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02912841315856619</v>
+        <v>0.01149619037033265</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1047620427427238</v>
+        <v>0.09351843113423806</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.08570468636454964</v>
+        <v>-0.09642597429516885</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1785744865407725</v>
+        <v>0.1787143492491148</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05479187424547708</v>
+        <v>0.06540186200381803</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003475954176267988</v>
+        <v>0.006587645868793015</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03740189173441619</v>
+        <v>0.05982987190850383</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05064496364056116</v>
+        <v>0.08326277373514077</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05109227402323247</v>
+        <v>0.03274692542593891</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05316466215513638</v>
+        <v>0.07256050304259747</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01695690876362291</v>
+        <v>0.00728273809862128</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04428562597036449</v>
+        <v>0.02438347878054937</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04064127834081727</v>
+        <v>0.06808578833034561</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006598489084048664</v>
+        <v>0.004751554924436217</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01932322370329015</v>
+        <v>0.07467322426317823</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04672516706922945</v>
+        <v>0.01405292558674875</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05313481010443177</v>
+        <v>0.09377288103268236</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06087182834883597</v>
+        <v>0.04507789610787787</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03775103688675346</v>
+        <v>0.01626872926029178</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03302590122341491</v>
+        <v>0.05517579812018031</v>
       </c>
       <c r="V12" t="n">
-        <v>0.001711225552261509</v>
+        <v>0.0006413972259849955</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06360418202861014</v>
+        <v>0.01156509077703182</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06306669383469836</v>
+        <v>0.03447294907122465</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07347543124233033</v>
+        <v>0.04351395728459275</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05860581628049218</v>
+        <v>0.0259842569700358</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.06409064407281563</v>
+        <v>0.08048930433023191</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06556011751889153</v>
+        <v>0.07941844785119416</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.3875358177900524</v>
+        <v>-0.3995684129053694</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2802489116627178</v>
+        <v>0.2998373576095003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08233360418232316</v>
+        <v>0.1000641672122436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01790796166013841</v>
+        <v>0.08266365973846888</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05367383886764048</v>
+        <v>0.07460374899311892</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06660984608351568</v>
+        <v>0.08739946775433849</v>
       </c>
       <c r="J13" t="n">
-        <v>0.018825715284987</v>
+        <v>0.008498412299977789</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00161078740142204</v>
+        <v>0.03963721611379116</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006173642146957065</v>
+        <v>0.03096139979338452</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004452741248802515</v>
+        <v>0.03089968463566079</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006917785017282468</v>
+        <v>0.004447221016152958</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1273992415069175</v>
+        <v>0.04200999604231716</v>
       </c>
       <c r="P13" t="n">
-        <v>0.101114409178735</v>
+        <v>0.006476358029247141</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08458991650160012</v>
+        <v>0.06148402159178911</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02846829584226025</v>
+        <v>0.003821448425731371</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03876275563961556</v>
+        <v>0.01743019999937669</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002565370681573936</v>
+        <v>0.002566605745455196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01331683629352312</v>
+        <v>0.02112748177492467</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02764723666239103</v>
+        <v>0.05298911198177449</v>
       </c>
       <c r="W13" t="n">
-        <v>0.001392203827423995</v>
+        <v>0.07222484049584645</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06367437320041426</v>
+        <v>0.09243959757899066</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.006316536467098376</v>
+        <v>0.01571707895903629</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07297305198139943</v>
+        <v>0.01211566348645189</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07769014212610348</v>
+        <v>0.03873944225701167</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09558370819787505</v>
+        <v>0.10168317607491</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3930203541572335</v>
+        <v>-0.4650545332056512</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2416138792019686</v>
+        <v>0.2526616324783164</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02257721583551501</v>
+        <v>0.01919347973715594</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04856933698351834</v>
+        <v>0.001621780703327253</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03754724292676311</v>
+        <v>0.02499859560391898</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01287206545134986</v>
+        <v>0.0168090647540645</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003258766616209342</v>
+        <v>0.06060543610311189</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02028103874400135</v>
+        <v>0.08744719249351232</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006215912215276022</v>
+        <v>0.03269695553519739</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03203875184938292</v>
+        <v>0.02412255251744088</v>
       </c>
       <c r="N14" t="n">
-        <v>0.005821937109519369</v>
+        <v>0.007548948988903251</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03231774326305881</v>
+        <v>0.02176315987970274</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06501484549023412</v>
+        <v>0.07670742945051097</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03527314609219171</v>
+        <v>0.04107033638037683</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1118139554412318</v>
+        <v>0.08149520289389681</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03296599151966745</v>
+        <v>0.05912928889928235</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0647944308080519</v>
+        <v>0.09240291473796997</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08248981667717863</v>
+        <v>0.0262345116205034</v>
       </c>
       <c r="V14" t="n">
-        <v>0.002443082335251656</v>
+        <v>0.01447787678292205</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07658062896566389</v>
+        <v>0.04214665292658252</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1044471512218887</v>
+        <v>0.06393508211629012</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.001133028819661958</v>
+        <v>0.04730557293122007</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.09108575158980736</v>
+        <v>0.1028492263528135</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01753235359603253</v>
+        <v>0.01879565597544918</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.09292580644854412</v>
+        <v>0.03664308261584714</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.05175241099462968</v>
+        <v>-0.0664894990863929</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4048993186250046</v>
+        <v>0.3357798993787495</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01169826725940464</v>
+        <v>0.03290397126747704</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1114616900695233</v>
+        <v>0.004437259444126408</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02730947799853485</v>
+        <v>0.03726903137732033</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02230868085712315</v>
+        <v>0.03855716629763233</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01326843403692217</v>
+        <v>0.02352171094792346</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0149031687013345</v>
+        <v>0.0003454952533902062</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06247376546160061</v>
+        <v>0.01408987956432237</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1118263696771526</v>
+        <v>0.0527427643301905</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1198592006274849</v>
+        <v>0.0535830752641261</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00215130204698608</v>
+        <v>0.03777548069003558</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05690417699765447</v>
+        <v>0.0295521661059939</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04727636554683448</v>
+        <v>0.03032941906890323</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05451783614460074</v>
+        <v>0.05139733775458609</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04152640750169726</v>
+        <v>0.03780384884999622</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02429049077528868</v>
+        <v>0.02552655463224436</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01529740040900311</v>
+        <v>0.05697734233453797</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1201215541044177</v>
+        <v>0.1206293508957829</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05307976883262009</v>
+        <v>0.06137600393015731</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01617624669123651</v>
+        <v>0.03681793115009449</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03204873723681427</v>
+        <v>0.1087635075504187</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.006227115016821961</v>
+        <v>0.0901157474564533</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01322142921616416</v>
+        <v>0.0427821366851909</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02205211479077988</v>
+        <v>0.01270281914909628</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.07136410518439568</v>
+        <v>0.04788052288441671</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2689709395026247</v>
+        <v>0.2624847911297184</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06298087790976585</v>
+        <v>0.003859416782734298</v>
       </c>
       <c r="G16" t="n">
-        <v>0.008967461012815155</v>
+        <v>0.007972363657777762</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02107012132637419</v>
+        <v>0.02114428193379028</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02373602427426904</v>
+        <v>0.07911797705849058</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02498988881715486</v>
+        <v>0.01551216988733271</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03545222928400528</v>
+        <v>0.0235252501244427</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006806212359394184</v>
+        <v>0.03941076023449186</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02816594631389528</v>
+        <v>0.005337966207187765</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03120616224495817</v>
+        <v>0.02039765182705367</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07584426843789079</v>
+        <v>0.008493774759971168</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07084606490448504</v>
+        <v>0.05511752186054463</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03058965303383625</v>
+        <v>0.001305311958885091</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06124996739192794</v>
+        <v>0.1306780171640053</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08551593411010248</v>
+        <v>0.1215129612757208</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03820555326362466</v>
+        <v>0.09701839767442356</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07850908169315637</v>
+        <v>0.1174577143041493</v>
       </c>
       <c r="V16" t="n">
-        <v>0.009085419860858064</v>
+        <v>0.02906985784173921</v>
       </c>
       <c r="W16" t="n">
-        <v>0.032431560298035</v>
+        <v>0.009958511717290569</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06845447461138561</v>
+        <v>0.02069341728474571</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.082774621643074</v>
+        <v>0.06129554908696623</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.04102582225573305</v>
+        <v>0.0113888655267719</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.009935850326063221</v>
+        <v>0.02275949522257094</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0721568046271954</v>
+        <v>0.09697276660891384</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1256321363026952</v>
+        <v>0.1425776452543689</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3467265857900036</v>
+        <v>0.3227656035781284</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00313214814098727</v>
+        <v>0.007482922249758132</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01568372796300672</v>
+        <v>0.001754206973170152</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001886815852578435</v>
+        <v>0.03380441671561569</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001161185262076662</v>
+        <v>0.0166337314454465</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01623590350146604</v>
+        <v>0.06389610210448554</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05824507282910148</v>
+        <v>0.01097198878348518</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04870475476128881</v>
+        <v>0.1011646100355656</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08191796597591475</v>
+        <v>0.01678698422588094</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09800240145354883</v>
+        <v>0.009709988742946315</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03620681487699979</v>
+        <v>0.05227697846900035</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05600561036032945</v>
+        <v>0.005881165983808869</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09803932885260253</v>
+        <v>0.02124797769268037</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08683178664265127</v>
+        <v>0.1178782057364751</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00694219963486935</v>
+        <v>0.03864596530489052</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0418212906538243</v>
+        <v>0.0116124680885483</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05783771252770692</v>
+        <v>0.02251786539330227</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1229689136051155</v>
+        <v>0.1452572271935172</v>
       </c>
       <c r="W17" t="n">
-        <v>0.00419581637185079</v>
+        <v>0.02086103531374203</v>
       </c>
       <c r="X17" t="n">
-        <v>0.005659903134716526</v>
+        <v>0.124591829793124</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04918333765925021</v>
+        <v>0.02393101866857771</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.04783640702900429</v>
+        <v>0.05973213531808976</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02453479932010989</v>
+        <v>0.06277896480887489</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03696610359100006</v>
+        <v>0.03058221095901445</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1662229210372103</v>
+        <v>0.1680684862885647</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2861972294043012</v>
+        <v>0.2841382874011648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03712637411031847</v>
+        <v>0.0442002952284133</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003160145828564552</v>
+        <v>0.03024904652554945</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03056306714190199</v>
+        <v>0.0362820519328245</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05079090337638632</v>
+        <v>0.07167309619335706</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01856750200361895</v>
+        <v>0.0245703277217994</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05911928870510776</v>
+        <v>0.01980351928291323</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02455055941826602</v>
+        <v>0.0166969562267343</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02551982302770851</v>
+        <v>0.009781929450029744</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03415638863091588</v>
+        <v>0.006945555952758233</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04691722339742699</v>
+        <v>0.01593651472862365</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01978575758966753</v>
+        <v>0.05065146952731093</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04973599255763016</v>
+        <v>0.03207780397776381</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1142374054976141</v>
+        <v>0.06324959750223641</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09157213128994711</v>
+        <v>0.08084410693880972</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006169866376468043</v>
+        <v>0.01142879625236331</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07741653563359517</v>
+        <v>0.08890851863026134</v>
       </c>
       <c r="V18" t="n">
-        <v>0.002273993666981744</v>
+        <v>0.0353662093330379</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06970033049441429</v>
+        <v>0.07020639925207632</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06018289804898098</v>
+        <v>0.05800619016523933</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0002950017269874057</v>
+        <v>0.0614410108642914</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1363399172059938</v>
+        <v>0.08564263923846702</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01234084544301182</v>
+        <v>0.0187398617609398</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02947804882849263</v>
+        <v>0.06729810331419971</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1420657329275352</v>
+        <v>0.1348878766200803</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3708707413981347</v>
+        <v>0.3718866333221187</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01182253301623658</v>
+        <v>0.07278675182424284</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03799631443978398</v>
+        <v>0.021433338207557</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01086816108446431</v>
+        <v>0.07088796018065371</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02257177744097926</v>
+        <v>0.03336252353467732</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04486446550005725</v>
+        <v>0.0432409294496016</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03235924369137447</v>
+        <v>0.02450289114953458</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05472844347207147</v>
+        <v>0.01174840628968655</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0135502911181874</v>
+        <v>0.05181786477078435</v>
       </c>
       <c r="N19" t="n">
-        <v>0.116349634033142</v>
+        <v>0.1125570582975854</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0288537824302099</v>
+        <v>0.00156773618993738</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07694544045222484</v>
+        <v>0.02273088119764321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01676254088406116</v>
+        <v>0.0332573102108876</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1112883579269795</v>
+        <v>0.07387273786752424</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03583685674156612</v>
+        <v>0.01873005356013283</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04699085136261114</v>
+        <v>0.01595565958215378</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1065497274189039</v>
+        <v>0.09072037661397689</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09174817668121368</v>
+        <v>0.1065615372584265</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002464958063163332</v>
+        <v>0.003807170490133418</v>
       </c>
       <c r="X19" t="n">
-        <v>0.004668333011585669</v>
+        <v>0.01312079285038261</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.002249372279021042</v>
+        <v>0.01566793386374123</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.007605010715613906</v>
+        <v>0.08480289018102891</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1114567529291497</v>
+        <v>0.06229349226178784</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01146897530739952</v>
+        <v>0.01457370416792012</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1553789570795664</v>
+        <v>0.1309136457753863</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3034969545607045</v>
+        <v>0.3034281547014093</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005792035865350171</v>
+        <v>0.06024137913067928</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005159109890244372</v>
+        <v>0.0007411733285419989</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08755239076728999</v>
+        <v>0.01227676742223155</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0353069432753978</v>
+        <v>0.01270123432982313</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01450086400649749</v>
+        <v>0.03326204000031054</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05963830430233216</v>
+        <v>0.06888818521676288</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02272348413516131</v>
+        <v>0.01772341291832988</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01055452582147318</v>
+        <v>0.02802300551409612</v>
       </c>
       <c r="N20" t="n">
-        <v>0.004085617256248698</v>
+        <v>0.04980746733692802</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0944752641688567</v>
+        <v>0.1028091963751783</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1058715875472063</v>
+        <v>0.01017846197962246</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09135408698994389</v>
+        <v>0.04421200116591274</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0798845208051476</v>
+        <v>0.1125944761701953</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01125783858300273</v>
+        <v>0.06131085184766677</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0688460187672217</v>
+        <v>0.01087032099307938</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02691481201572163</v>
+        <v>0.0469996926562188</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01393064674679378</v>
+        <v>0.001158807399051668</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09370349478817197</v>
+        <v>0.110167238322294</v>
       </c>
       <c r="X20" t="n">
-        <v>0.03142615255223997</v>
+        <v>0.04763618153665582</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03065975242323283</v>
+        <v>0.1038041666943695</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06676579105280482</v>
+        <v>0.05418984232923871</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00845345532184022</v>
+        <v>0.00472526139029253</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.03635613519663596</v>
+        <v>0.005678835942520693</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.008281616630704133</v>
+        <v>0.01784431859928216</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.367200688207641</v>
+        <v>0.3873914204952521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01721252216488361</v>
+        <v>0.05597988668433364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03381784740281507</v>
+        <v>0.08922533372933458</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1013085023277476</v>
+        <v>0.04010220319884594</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002371555717117068</v>
+        <v>0.005118429941188913</v>
       </c>
       <c r="J21" t="n">
-        <v>0.004752146485083587</v>
+        <v>0.007455580254969206</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0600314047752129</v>
+        <v>0.09172791134865266</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01203131906898269</v>
+        <v>0.06617964122374356</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06306429651198371</v>
+        <v>0.01090517036869252</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02455430007917879</v>
+        <v>0.07711575617704691</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04526015618431221</v>
+        <v>0.04054476303528427</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01297344641713393</v>
+        <v>0.02443862066585435</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002442246617132771</v>
+        <v>0.01775856137176468</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0814715967211298</v>
+        <v>0.04816277900557855</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02280373775633194</v>
+        <v>0.03389392111121713</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06314631840282611</v>
+        <v>0.060269420818524</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1121174543309606</v>
+        <v>0.08460846687228266</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1033406509354444</v>
+        <v>0.1047437998599439</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02578880635063012</v>
+        <v>0.01620381590216442</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05981323421644842</v>
+        <v>0.01662622105941068</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04127828173093639</v>
+        <v>0.06400322004552558</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.04681952718586544</v>
+        <v>0.003809191735114782</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.0297675096652981</v>
+        <v>0.02956586068235053</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.03383313895254479</v>
+        <v>0.01156144490817672</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.05150866380851259</v>
+        <v>0.05339173384659295</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2789336169392975</v>
+        <v>0.2748178766769808</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08277412142814521</v>
+        <v>0.1016444336818732</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01328832997211735</v>
+        <v>0.02203248131327644</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02559287900492861</v>
+        <v>0.0006262714535349287</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1052203095622321</v>
+        <v>0.009734038249533594</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06519585078726362</v>
+        <v>0.03744235219855402</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009323132390620581</v>
+        <v>0.002851337069725649</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00193330598275172</v>
+        <v>0.02399525929992617</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06118002575362928</v>
+        <v>0.07367102457098811</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0179952190288305</v>
+        <v>0.01150746315733512</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001214542261821903</v>
+        <v>0.01405274500070676</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03611465897822243</v>
+        <v>0.08151651225889635</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.03059478923309118</v>
+        <v>0.04879858045277494</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09471262116288011</v>
+        <v>0.09930544061615955</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06004946481578072</v>
+        <v>0.1015766280720125</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07116846338394554</v>
+        <v>0.01071077781813417</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0490812139120331</v>
+        <v>0.0607446982671184</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01463123555614972</v>
+        <v>0.004164957592372277</v>
       </c>
       <c r="W22" t="n">
-        <v>0.09744909060282597</v>
+        <v>0.08252102432935778</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03484472439974098</v>
+        <v>0.08928982946037983</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05886961707078119</v>
+        <v>0.03956247409547514</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04689559009994773</v>
+        <v>0.04790863982431036</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0133863056702546</v>
+        <v>0.01397727634910294</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.008484508942006181</v>
+        <v>0.02236575486845172</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3137484251626129</v>
+        <v>0.3151940913994907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06204857645724538</v>
+        <v>0.0892711459634984</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02914990736296927</v>
+        <v>0.004722820345119547</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06583968145484362</v>
+        <v>0.05071790574528765</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04081335203839157</v>
+        <v>0.04942179751059218</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06242616962867064</v>
+        <v>0.0589946615571078</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04259984219506086</v>
+        <v>0.007651528551897897</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07882035428950762</v>
+        <v>0.07357845814585684</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01918076505220893</v>
+        <v>0.05483646005372728</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01180212480704881</v>
+        <v>0.0126993802446322</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01403859484779936</v>
+        <v>0.002839671833107025</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04647271921528239</v>
+        <v>0.01329709126763512</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005632710760854349</v>
+        <v>0.0302594216245592</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07130122063242195</v>
+        <v>0.07762681250840844</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04221381351340716</v>
+        <v>0.05954331349440677</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0200417266411478</v>
+        <v>0.03597743985406638</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05616073257608017</v>
+        <v>0.0886218560371038</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08210039308814261</v>
+        <v>0.09408540871697127</v>
       </c>
       <c r="W23" t="n">
-        <v>0.05591334631320858</v>
+        <v>0.01008015746838879</v>
       </c>
       <c r="X23" t="n">
-        <v>0.004453461913090119</v>
+        <v>0.03218416880970195</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02738777088513709</v>
+        <v>0.0502842960541979</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06265237744284728</v>
+        <v>0.05426480819458675</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01215345620805925</v>
+        <v>0.004195715093726977</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.08679690267657494</v>
+        <v>0.04484568092541992</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2805253845298168</v>
+        <v>0.2820739040976437</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08539191873167239</v>
+        <v>0.05021797623641604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00612277855931598</v>
+        <v>0.06357281885645058</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007078879957266381</v>
+        <v>0.0195920089740211</v>
       </c>
       <c r="I24" t="n">
-        <v>0.07783971842079147</v>
+        <v>0.06716972589349031</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06815190693653372</v>
+        <v>0.01469718059461697</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009502039579044752</v>
+        <v>0.04130897023138412</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01627290315441502</v>
+        <v>0.009168766478844606</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04804386356289622</v>
+        <v>0.05333111810947885</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02195227258811904</v>
+        <v>0.009426823181456077</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006565571959554703</v>
+        <v>0.02772594377361089</v>
       </c>
       <c r="P24" t="n">
-        <v>0.04086700674203668</v>
+        <v>0.04365342246033132</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02547385350859472</v>
+        <v>0.07403795368677825</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06177065507961913</v>
+        <v>0.07396289850089223</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05056163966471672</v>
+        <v>0.07103076500249081</v>
       </c>
       <c r="T24" t="n">
-        <v>0.02769770533555714</v>
+        <v>0.03999878208660217</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08480851683573172</v>
+        <v>0.07672701059490405</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01381514506616081</v>
+        <v>0.0002163826747186743</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08375715976136271</v>
+        <v>0.05411289068558008</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06527071145770358</v>
+        <v>0.0362897028091352</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.08169088070034564</v>
+        <v>0.03804534450557986</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05695481692399234</v>
+        <v>0.07645565839251348</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.005019008619068068</v>
+        <v>0.01548254245708057</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0553910468555013</v>
+        <v>0.04377531381362362</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.100265250120685</v>
+        <v>0.09143780897749496</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3145680346064431</v>
+        <v>0.4020061790850629</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02626939828793761</v>
+        <v>0.001223596261733348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01501168455119171</v>
+        <v>0.003084486940303184</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0840507792141147</v>
+        <v>0.07025666242008916</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02377639259873619</v>
+        <v>0.06067715029289339</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09166354792051004</v>
+        <v>0.08352786863972612</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01025289056356791</v>
+        <v>0.01218884297179832</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01216767005827357</v>
+        <v>0.0257300144732868</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03089179911449702</v>
+        <v>0.02854659623234718</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0687216254745998</v>
+        <v>0.08614459056803095</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01000641447862121</v>
+        <v>0.01966160519713027</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01331312236068687</v>
+        <v>0.004124068803984932</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0006131394897219537</v>
+        <v>0.00163046204835951</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05309236572588184</v>
+        <v>0.05592696615917046</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08663449713397711</v>
+        <v>0.04897620087081816</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03022888807943245</v>
+        <v>0.0901654382240427</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09979231771793561</v>
+        <v>0.07778714727806213</v>
       </c>
       <c r="V25" t="n">
-        <v>0.00512400302041128</v>
+        <v>0.04143606020415196</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01222764330955109</v>
+        <v>0.04990991943267081</v>
       </c>
       <c r="X25" t="n">
-        <v>0.05030071384005751</v>
+        <v>0.01310980922160817</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.08563045279047846</v>
+        <v>0.06561297912020105</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05687364840723055</v>
+        <v>0.05264400420291688</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05531533385834907</v>
+        <v>0.07035073877315591</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.07804167200423662</v>
+        <v>0.03728479166351847</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1441617297782654</v>
+        <v>0.1415073151844194</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.19131802880516</v>
+        <v>0.1987621328330831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07114725632817133</v>
+        <v>0.01634541272932593</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01315083539963362</v>
+        <v>0.01853296198762843</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005845875445886715</v>
+        <v>0.02799015330458461</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06956228810442991</v>
+        <v>0.07547109866692263</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04234688716044945</v>
+        <v>0.02126620684983324</v>
       </c>
       <c r="K26" t="n">
-        <v>0.004727307816164736</v>
+        <v>0.007456747797640152</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03572751566740199</v>
+        <v>0.002445702530645691</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001846061245045061</v>
+        <v>0.02643230322864271</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02832849994258304</v>
+        <v>0.04868528615114826</v>
       </c>
       <c r="O26" t="n">
-        <v>0.09986872300871859</v>
+        <v>0.08877335659166548</v>
       </c>
       <c r="P26" t="n">
-        <v>0.00857636332766985</v>
+        <v>0.08907844213264061</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.06098022039960924</v>
+        <v>0.003914776032788164</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08186108177473714</v>
+        <v>0.06214283283402324</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1009095001551995</v>
+        <v>0.07962228635236279</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0007495204079165429</v>
+        <v>0.00507393999721938</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01727657133625594</v>
+        <v>0.0303186718797359</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003223388820034773</v>
+        <v>0.04950633271561453</v>
       </c>
       <c r="W26" t="n">
-        <v>0.09258362106172723</v>
+        <v>0.08014353086058085</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0399223596650703</v>
+        <v>0.07212338698043344</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.08274902056387518</v>
+        <v>0.04555507377137345</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.05710083728387484</v>
+        <v>0.03692222873854581</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.03514842828799244</v>
+        <v>0.07788075323196793</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04636783679755273</v>
+        <v>0.03431851463467669</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.06571441597167615</v>
+        <v>0.07970778036459751</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.227973723233021</v>
+        <v>0.2268491778321147</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01117861720758282</v>
+        <v>0.03328194507187025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00529203296444001</v>
+        <v>0.02580264504478177</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05535212897043414</v>
+        <v>0.0296773622898494</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06216436196681104</v>
+        <v>0.0914345208392833</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08109956897017832</v>
+        <v>0.08995932516599144</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0107203774382623</v>
+        <v>0.0008348211873252404</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01776390628808988</v>
+        <v>0.07958686040806011</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03974879860617212</v>
+        <v>0.03076333295987886</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04060467973166634</v>
+        <v>0.0001006866473813417</v>
       </c>
       <c r="O27" t="n">
-        <v>0.007031440393720912</v>
+        <v>0.04826981448719375</v>
       </c>
       <c r="P27" t="n">
-        <v>0.09676264946626678</v>
+        <v>0.02095653536798708</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0197926922366323</v>
+        <v>0.02892524282838816</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06446293850609652</v>
+        <v>0.06591530295648015</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08938211047958837</v>
+        <v>0.06699380650790571</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02601587004019392</v>
+        <v>0.02828005780236113</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07758847369382649</v>
+        <v>0.03797833825100725</v>
       </c>
       <c r="V27" t="n">
-        <v>0.04618986509574285</v>
+        <v>0.05530929525525458</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03131734507286357</v>
+        <v>0.01158428199224449</v>
       </c>
       <c r="X27" t="n">
-        <v>0.00625937892695403</v>
+        <v>0.02564668855819049</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01768310498734946</v>
+        <v>0.03822685764723698</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.008245279744338812</v>
+        <v>0.05215730421978116</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1067950659102303</v>
+        <v>0.04789553575811825</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07854931330255858</v>
+        <v>0.09041943875342905</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.08080391844028767</v>
+        <v>0.06401234847376806</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1960158091646213</v>
+        <v>0.197353662168209</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04979876329730328</v>
+        <v>0.04893117987578723</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07387294157635285</v>
+        <v>0.07322750821029965</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02860709516215276</v>
+        <v>0.01582335441079659</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0406200534606848</v>
+        <v>0.04033809739753119</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04556718806251233</v>
+        <v>0.01940633337935992</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0655187031060713</v>
+        <v>0.01980715299751982</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03638584270214425</v>
+        <v>0.07038319796849199</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02940358045818637</v>
+        <v>0.05710622821503314</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01976246040592608</v>
+        <v>0.04437349656504936</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03233947075597305</v>
+        <v>0.01844773709508225</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0290992394217114</v>
+        <v>0.07377939317773233</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01051224624640857</v>
+        <v>0.0940694860192392</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03999023495698534</v>
+        <v>0.02111296146881557</v>
       </c>
       <c r="S28" t="n">
-        <v>0.008655151025453696</v>
+        <v>0.01899459088966994</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05228839646814065</v>
+        <v>0.03916522717471755</v>
       </c>
       <c r="U28" t="n">
-        <v>0.092473544790589</v>
+        <v>0.0007444674239997345</v>
       </c>
       <c r="V28" t="n">
-        <v>0.005762384303759483</v>
+        <v>0.002005134559560788</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0728886322108465</v>
+        <v>0.04902774436866213</v>
       </c>
       <c r="X28" t="n">
-        <v>0.08417156029664374</v>
+        <v>0.09494643638922501</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02838305238397369</v>
+        <v>0.09442222450688278</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.096978515737955</v>
+        <v>0.07172903403227052</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05682421022389857</v>
+        <v>0.007015048903341957</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.673294632732554e-05</v>
+        <v>0.02514396497093124</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2481334190863838</v>
+        <v>-0.2993869408769317</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2590838136876497</v>
+        <v>0.2444761141782779</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05448187527418429</v>
+        <v>0.05378854308118895</v>
       </c>
       <c r="G29" t="n">
-        <v>0.048504751523913</v>
+        <v>4.863942547458469e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07088769413701107</v>
+        <v>0.04937857347181373</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02531290563692591</v>
+        <v>0.004069737977009792</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09729676993424856</v>
+        <v>0.113817740232602</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07526077897966653</v>
+        <v>0.1043232420143644</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005074988122078453</v>
+        <v>0.06493583364223682</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01576041853475191</v>
+        <v>0.01614013117989732</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01170943730193878</v>
+        <v>0.01416720006491172</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01005207778145539</v>
+        <v>0.02489725861481049</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05138219898046609</v>
+        <v>0.04476478342575979</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0055639814951877</v>
+        <v>0.03088891166302609</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02023568639228997</v>
+        <v>0.02588455764744909</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04158509413923071</v>
+        <v>0.04191939264401384</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0504385163671465</v>
+        <v>0.07113021010864999</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06457271666930607</v>
+        <v>0.1181159048258937</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06289625980083002</v>
+        <v>0.01953132677865414</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06483565880155659</v>
+        <v>0.0305905826803745</v>
       </c>
       <c r="X29" t="n">
-        <v>0.030398113027916</v>
+        <v>0.01555717120142805</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01763789334259516</v>
+        <v>0.02773441993724251</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01230327393172786</v>
+        <v>0.008758090737600579</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0894918810267977</v>
+        <v>0.0282274456452846</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07431702879877584</v>
+        <v>0.09133030300031338</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2368264597345006</v>
+        <v>-0.2379347487881293</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1762409507181714</v>
+        <v>0.1768790275400037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03518002253464526</v>
+        <v>0.08281850992392309</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03523515181819135</v>
+        <v>0.009719566080547156</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07007252701293322</v>
+        <v>0.008803751305555833</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05530531999432814</v>
+        <v>0.04536623284348867</v>
       </c>
       <c r="J30" t="n">
-        <v>0.003103705988257375</v>
+        <v>0.03533051704578692</v>
       </c>
       <c r="K30" t="n">
-        <v>0.005351440405163357</v>
+        <v>0.008185068842863002</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02276106982131054</v>
+        <v>0.001048992931864262</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08668392388018077</v>
+        <v>0.06195845618645589</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01310225195948255</v>
+        <v>0.0004634802758326238</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01620263607254974</v>
+        <v>0.02624155389567423</v>
       </c>
       <c r="P30" t="n">
-        <v>0.06855937139110016</v>
+        <v>0.02321460447740843</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.009339493554126209</v>
+        <v>0.07632866645127963</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06616282939112786</v>
+        <v>0.07940677773170589</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03718212915417596</v>
+        <v>0.0749215383071692</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02866585921221772</v>
+        <v>0.02912027331970533</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0815261003379535</v>
+        <v>0.06253833736543692</v>
       </c>
       <c r="V30" t="n">
-        <v>0.06163764357829833</v>
+        <v>0.06690649339580505</v>
       </c>
       <c r="W30" t="n">
-        <v>0.06451570637603052</v>
+        <v>0.08226670135866215</v>
       </c>
       <c r="X30" t="n">
-        <v>0.07700029531071466</v>
+        <v>0.06064088777879568</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01074266913520392</v>
+        <v>0.004344320702759194</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06621725527959493</v>
+        <v>0.07676594514950461</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.003367590707806189</v>
+        <v>0.05641615605471846</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08208500708460754</v>
+        <v>0.02719316857505765</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05552690071467495</v>
+        <v>0.06037406915809573</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2166961880798221</v>
+        <v>0.1963044790801647</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05876423600920194</v>
+        <v>0.02406577078969618</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02438391222553384</v>
+        <v>0.008040955832676083</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02073526342660476</v>
+        <v>0.0262729474831427</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003938052654536357</v>
+        <v>0.01915941274891007</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09140909167029726</v>
+        <v>0.1093125739872955</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08110778850283833</v>
+        <v>0.07767972587568139</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03804442127204565</v>
+        <v>0.001584461064088248</v>
       </c>
       <c r="M31" t="n">
-        <v>0.023305736416443</v>
+        <v>0.004895063712201525</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01960130974714923</v>
+        <v>0.03792976216940305</v>
       </c>
       <c r="O31" t="n">
-        <v>0.04442192168472617</v>
+        <v>0.0314680986310962</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01026344406943599</v>
+        <v>0.06498473917416123</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02467844580549358</v>
+        <v>0.005246190348550197</v>
       </c>
       <c r="R31" t="n">
-        <v>0.06746781090671126</v>
+        <v>0.09852329307295254</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0788770437959555</v>
+        <v>0.003499469110828697</v>
       </c>
       <c r="T31" t="n">
-        <v>0.06517549347590122</v>
+        <v>0.02215779448839911</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0796106701002315</v>
+        <v>0.04671826770654661</v>
       </c>
       <c r="V31" t="n">
-        <v>0.09207716805668138</v>
+        <v>0.0960179212054415</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01559214299662551</v>
+        <v>0.0541844265879172</v>
       </c>
       <c r="X31" t="n">
-        <v>0.003482519651865178</v>
+        <v>0.03263317553685014</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02015094605152755</v>
+        <v>0.03276924098828402</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01413464051608583</v>
+        <v>0.08547681121715212</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.03331295302880866</v>
+        <v>0.01034299955311732</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08946498793530043</v>
+        <v>0.1070368987156085</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02486085290129483</v>
+        <v>0.0347789738336989</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1959982707276997</v>
+        <v>0.1958385863931137</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0427957656312834</v>
+        <v>0.07852979650840582</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009289776445891844</v>
+        <v>0.004249735473442678</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02387707993647886</v>
+        <v>0.05775107060007778</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04665410226571057</v>
+        <v>0.05854484140429832</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02477620124262729</v>
+        <v>0.00573742509356991</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0007064038262453765</v>
+        <v>0.004903125002081409</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03961651577346641</v>
+        <v>0.002664741135275457</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03016355228974442</v>
+        <v>0.07884853346232129</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05152645812750416</v>
+        <v>0.001305025779000625</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01803094370769712</v>
+        <v>0.032565680382849</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0536332338333917</v>
+        <v>0.03002469485155555</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02272381327468118</v>
+        <v>0.001647024580442941</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09538763500227278</v>
+        <v>0.1017831937894314</v>
       </c>
       <c r="S32" t="n">
-        <v>0.05814098907543268</v>
+        <v>0.04139478634204664</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01028637353757404</v>
+        <v>0.06689189356209249</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07310377858747952</v>
+        <v>0.09632104333356316</v>
       </c>
       <c r="V32" t="n">
-        <v>0.03358497532986398</v>
+        <v>0.01545161762034527</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06479950698938469</v>
+        <v>0.07904768591349064</v>
       </c>
       <c r="X32" t="n">
-        <v>0.08147591029925261</v>
+        <v>0.07022026753454871</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.03664464937373361</v>
+        <v>0.03767345111314967</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08830502582413459</v>
+        <v>0.07102758577441823</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08915700970702779</v>
+        <v>0.03860212887118363</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.00532029991912164</v>
+        <v>0.02481465187240934</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0885665233015827</v>
+        <v>0.1102841785658499</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.21115514780474</v>
+        <v>0.209284315472941</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08051086733698341</v>
+        <v>0.02561986689602425</v>
       </c>
       <c r="G33" t="n">
-        <v>0.002092461928567831</v>
+        <v>0.009568221864311093</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09723759295559696</v>
+        <v>0.05279045476182359</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006148572302118441</v>
+        <v>0.0273919863879268</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0942749641134084</v>
+        <v>0.1053079262709633</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01869303512990732</v>
+        <v>0.0004625752581489461</v>
       </c>
       <c r="L33" t="n">
-        <v>0.00293279507485712</v>
+        <v>0.02600710756890283</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07221553692782652</v>
+        <v>0.09538685216638344</v>
       </c>
       <c r="N33" t="n">
-        <v>0.07020294179050625</v>
+        <v>0.04410673678959304</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07837909818947683</v>
+        <v>0.04254288100326507</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009832466298159075</v>
+        <v>0.05743497311717604</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.006866145351601029</v>
+        <v>0.005466812031004937</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0590513846819948</v>
+        <v>0.06873777723451462</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08580890571400147</v>
+        <v>0.09644408696818278</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01664104369939272</v>
+        <v>0.06121808344225247</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06644757408053253</v>
+        <v>0.1003256939965103</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06132368365420669</v>
+        <v>0.05148783342111522</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06236421502401741</v>
+        <v>0.03316676738667613</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04631401053133623</v>
+        <v>0.004483652140395827</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01809529549738041</v>
+        <v>0.02064948102357797</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01595521462469391</v>
+        <v>0.009523469050662219</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.02124726004423746</v>
+        <v>0.03835827426625037</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.007364935049196905</v>
+        <v>0.02351848695433879</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1340588223107868</v>
+        <v>0.1192159242993803</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2040840716449</v>
+        <v>0.2065779509000926</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0164230732687578</v>
+        <v>0.007549250114197643</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06133909719385594</v>
+        <v>0.02703365980228949</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006302200459894301</v>
+        <v>0.005606709321330435</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03167581512282533</v>
+        <v>0.06002614363971154</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01850047497411261</v>
+        <v>0.005069065037763076</v>
       </c>
       <c r="K34" t="n">
-        <v>0.007837811226137617</v>
+        <v>0.02297034895485656</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01170953830745376</v>
+        <v>0.04589528149145303</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05886818590456458</v>
+        <v>0.0297960342381338</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02613661447942308</v>
+        <v>0.004702616419511038</v>
       </c>
       <c r="O34" t="n">
-        <v>0.003183037318629036</v>
+        <v>0.02827369948880858</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0892949186652747</v>
+        <v>0.08191096208752284</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.05917025706658612</v>
+        <v>0.05047072908556132</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06926907319613453</v>
+        <v>0.09768685659783348</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1093797926695112</v>
+        <v>0.07018060190716935</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01023993372927718</v>
+        <v>0.02480676790598066</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09010242886085951</v>
+        <v>0.004424917528344097</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0719325205526129</v>
+        <v>0.02068729468122013</v>
       </c>
       <c r="W34" t="n">
-        <v>0.09988037013598762</v>
+        <v>0.06572416894725373</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02148533746243493</v>
+        <v>0.09918414617671088</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04431689897818201</v>
+        <v>0.09895383503909787</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02009489910792463</v>
+        <v>0.02005209818260869</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.06795518795144642</v>
+        <v>0.09464852802018485</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.004902533368113999</v>
+        <v>0.034346285332457</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.02277083504806572</v>
+        <v>0.05105453160520626</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2388069501479128</v>
+        <v>0.2208256891942748</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1197354733893689</v>
+        <v>0.06876709050495253</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01488909808912279</v>
+        <v>0.02226022139485011</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03501525969722193</v>
+        <v>0.02536393631173633</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07380394477024665</v>
+        <v>0.06987877905429382</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0005518976893261034</v>
+        <v>0.02988938412695552</v>
       </c>
       <c r="K35" t="n">
-        <v>0.004018632843238151</v>
+        <v>0.04309275371123922</v>
       </c>
       <c r="L35" t="n">
-        <v>0.002576483640077696</v>
+        <v>0.008415385406478222</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01193114635228391</v>
+        <v>0.06161369137521259</v>
       </c>
       <c r="N35" t="n">
-        <v>0.00357980811626006</v>
+        <v>0.006253140976491397</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03046961934381663</v>
+        <v>0.01230247823218889</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05577482777096071</v>
+        <v>0.08059586022120811</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03614401257971549</v>
+        <v>0.005493662560377892</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06134550400754889</v>
+        <v>0.06902966412321518</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01432061801160007</v>
+        <v>0.07933125206983528</v>
       </c>
       <c r="T35" t="n">
-        <v>0.002731587087735159</v>
+        <v>0.03678168787704947</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1170057960357223</v>
+        <v>0.07769289936270582</v>
       </c>
       <c r="V35" t="n">
-        <v>0.02396563374509367</v>
+        <v>0.0008797362586137088</v>
       </c>
       <c r="W35" t="n">
-        <v>0.09247894094204807</v>
+        <v>0.08283663498662534</v>
       </c>
       <c r="X35" t="n">
-        <v>0.04116645709343209</v>
+        <v>0.01430828012369045</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01191758451501438</v>
+        <v>0.01945446110871308</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.04636527035095846</v>
+        <v>0.06297711125245664</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.08868086834993774</v>
+        <v>0.04027402743903143</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1115315355792701</v>
+        <v>0.08250786152207919</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.04571436392986222</v>
+        <v>0.03704941282326985</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2207247844412436</v>
+        <v>0.2224548376673345</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0623430389007392</v>
+        <v>0.08123047918714425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05890425957716391</v>
+        <v>0.05860861132299663</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0003185544904951393</v>
+        <v>0.02293873609689765</v>
       </c>
       <c r="I36" t="n">
-        <v>0.007768814253016373</v>
+        <v>0.0001445766679267146</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02378861494705956</v>
+        <v>0.04589978450850858</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01049485934341955</v>
+        <v>0.0009155079693901435</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0571249713638125</v>
+        <v>0.04037471850757478</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06524652361988169</v>
+        <v>0.08078087936571758</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01556379132568254</v>
+        <v>0.01846023753945721</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04438976255281948</v>
+        <v>0.08072676909160723</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07775400624193994</v>
+        <v>0.01942857589163602</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01715732837857566</v>
+        <v>0.01818239276990172</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08812099111971754</v>
+        <v>0.09117812868543014</v>
       </c>
       <c r="S36" t="n">
-        <v>0.09113656829409157</v>
+        <v>0.07591316590330373</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06293326185947241</v>
+        <v>0.055876114012815</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0174436009188379</v>
+        <v>0.04329229703806951</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0480310839554486</v>
+        <v>0.03972677939886243</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06010140208485789</v>
+        <v>0.05012478037882123</v>
       </c>
       <c r="X36" t="n">
-        <v>0.02991300215191437</v>
+        <v>0.007131764179022885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02165694085327712</v>
+        <v>0.02973278393114059</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04187997528539211</v>
+        <v>0.07917125328149982</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.05378598853808114</v>
+        <v>0.04561123832317901</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.04414265994430396</v>
+        <v>0.01455042594909697</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05890411277489923</v>
+        <v>0.06676471260712706</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2429316479396328</v>
+        <v>0.2626118144963039</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09164975950784507</v>
+        <v>0.003451760841605609</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00564817679340044</v>
+        <v>0.005038145300352028</v>
       </c>
       <c r="H37" t="n">
-        <v>0.008852042802548536</v>
+        <v>0.0690776205817312</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09545773010447134</v>
+        <v>0.0933868966085846</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05796242563853244</v>
+        <v>0.02874132583914588</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02025750661154706</v>
+        <v>0.05627474535430217</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00415288893460187</v>
+        <v>0.003788133104958563</v>
       </c>
       <c r="M37" t="n">
-        <v>0.009564324042290863</v>
+        <v>0.02217940823928402</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08169574262012008</v>
+        <v>0.009499380357779568</v>
       </c>
       <c r="O37" t="n">
-        <v>0.09273563882107412</v>
+        <v>0.1011635349878832</v>
       </c>
       <c r="P37" t="n">
-        <v>0.03474596640438132</v>
+        <v>0.002132215511191182</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01733099482279287</v>
+        <v>0.04250800740950422</v>
       </c>
       <c r="R37" t="n">
-        <v>0.031192841647117</v>
+        <v>0.09063008256747869</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0591867715818649</v>
+        <v>0.07966042090335794</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02618441622221072</v>
+        <v>0.02569952648937662</v>
       </c>
       <c r="U37" t="n">
-        <v>0.006790580250108712</v>
+        <v>0.03735388716918531</v>
       </c>
       <c r="V37" t="n">
-        <v>0.004573829306256133</v>
+        <v>0.02123192599548838</v>
       </c>
       <c r="W37" t="n">
-        <v>0.088260094577682</v>
+        <v>0.06166991135918617</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05875536361838621</v>
+        <v>0.07816295826822532</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01329061932569431</v>
+        <v>0.04154299237593301</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.07634643597609939</v>
+        <v>0.0777819168272455</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0598180674122888</v>
+        <v>0.01244641449078467</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.05554778297868588</v>
+        <v>0.03657878941741625</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.09074591688184123</v>
+        <v>0.06387032189697642</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2075801106831972</v>
+        <v>0.2050051191407644</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02266285059916066</v>
+        <v>0.005113945419822587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01461063294975389</v>
+        <v>0.02036411358578395</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001632736355527369</v>
+        <v>0.0407114899081297</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04791232946155175</v>
+        <v>0.02351441030726019</v>
       </c>
       <c r="J38" t="n">
-        <v>0.08801137783528194</v>
+        <v>0.001113687616131266</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01168855860432246</v>
+        <v>0.01169550825345354</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006750116825799617</v>
+        <v>0.0381879278828132</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07566701112603978</v>
+        <v>0.09810013490782045</v>
       </c>
       <c r="N38" t="n">
-        <v>0.006274574689117142</v>
+        <v>0.02440191432005552</v>
       </c>
       <c r="O38" t="n">
-        <v>0.009135627213977694</v>
+        <v>0.025897615404913</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08104194912062913</v>
+        <v>0.04584273073910819</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0393636004722793</v>
+        <v>0.007212254357973753</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08513863173566784</v>
+        <v>0.08393054673645599</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08693413518927902</v>
+        <v>0.08126409057964472</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02029943446896429</v>
+        <v>0.005185139039352919</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07342652109959236</v>
+        <v>0.07135573666363347</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02882894334520598</v>
+        <v>0.07528326720255321</v>
       </c>
       <c r="W38" t="n">
-        <v>0.06966172860877963</v>
+        <v>0.01234358543428223</v>
       </c>
       <c r="X38" t="n">
-        <v>0.06135576083612075</v>
+        <v>0.06936380033877571</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.002804773971957007</v>
+        <v>0.06128848791461465</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.06649952474965355</v>
+        <v>0.09816954531674327</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04443019388620098</v>
+        <v>0.0828347082648315</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.05586898685513781</v>
+        <v>0.01682535980584692</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0231828966048601</v>
+        <v>0.007276797059882698</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2375065472907136</v>
+        <v>0.2462266998841914</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05293881315560389</v>
+        <v>0.04904869186779442</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02265248969530282</v>
+        <v>0.03015084219860798</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001399582692103703</v>
+        <v>0.06367359136939649</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08785117411965006</v>
+        <v>0.09646355201998717</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01084120432496721</v>
+        <v>0.03909152417573661</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08360787331903775</v>
+        <v>0.08807739334287304</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06478040733128733</v>
+        <v>0.03940820583563502</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0142656253762621</v>
+        <v>0.009515014382806162</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01202556972614122</v>
+        <v>0.02572208402247232</v>
       </c>
       <c r="O39" t="n">
-        <v>0.08678920717647662</v>
+        <v>0.04319746309280975</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04455141677707346</v>
+        <v>0.0350760904504669</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.05504729935899592</v>
+        <v>0.002210603032137267</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04240258444173849</v>
+        <v>0.0356727671094335</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08964012191941592</v>
+        <v>0.05623429578908733</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05773227131867145</v>
+        <v>0.05882269688748085</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02210670599654594</v>
+        <v>0.01551496853879005</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01534526752156808</v>
+        <v>0.05533805947955352</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03122153729865008</v>
+        <v>0.03561510904934567</v>
       </c>
       <c r="X39" t="n">
-        <v>0.03919839262219531</v>
+        <v>0.03516497903787601</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.008445486260427022</v>
+        <v>0.006698876261537432</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07416812042377778</v>
+        <v>0.0734829415268721</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.04203542832912623</v>
+        <v>0.01705118590860267</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04095342081498145</v>
+        <v>0.08876906462069768</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.03495046693754375</v>
+        <v>0.01960301020224836</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2251967418090011</v>
+        <v>0.2240989508740473</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06383675524120966</v>
+        <v>0.07080028786466717</v>
       </c>
       <c r="G40" t="n">
-        <v>0.009004588077462596</v>
+        <v>0.07893955764584895</v>
       </c>
       <c r="H40" t="n">
-        <v>0.05507252657348073</v>
+        <v>0.006024471529216249</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01583638510029302</v>
+        <v>0.03175471882106404</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0732908645401517</v>
+        <v>0.0042848807136736</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00362010064432375</v>
+        <v>0.003902344127704895</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03058033661596151</v>
+        <v>0.03204660186811954</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08240087411953638</v>
+        <v>0.0311839743603554</v>
       </c>
       <c r="N40" t="n">
-        <v>0.005927416792203538</v>
+        <v>0.01896448382607388</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02148259483245389</v>
+        <v>0.03578703677437594</v>
       </c>
       <c r="P40" t="n">
-        <v>0.03578049736516829</v>
+        <v>0.04630172628057588</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03412773519556055</v>
+        <v>0.07436179176318815</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07642574656873057</v>
+        <v>0.09608260337104227</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06741773792531483</v>
+        <v>0.06485371331875948</v>
       </c>
       <c r="T40" t="n">
-        <v>0.004429077224437683</v>
+        <v>0.01587337498927031</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008825654992298043</v>
+        <v>0.0092661879209208</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0561467875848096</v>
+        <v>0.06457019169206624</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03692777574078639</v>
+        <v>0.03211938387524363</v>
       </c>
       <c r="X40" t="n">
-        <v>0.07711354477314462</v>
+        <v>0.01029638387273269</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.06028225303747319</v>
+        <v>0.09209959473591285</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08472843786799307</v>
+        <v>0.08582924480755874</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.06557694454622784</v>
+        <v>0.04157995920432866</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03116536464097864</v>
+        <v>0.05307748663730046</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.01274923616325488</v>
+        <v>-0.02340155902684452</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2873343975649406</v>
+        <v>0.2940777823412545</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01615276399411865</v>
+        <v>0.1017882281854711</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09685081868772015</v>
+        <v>0.09673265412705863</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01853666541886016</v>
+        <v>0.06915493478975299</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02694754561828011</v>
+        <v>0.04109240245141942</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08297589464385331</v>
+        <v>0.03019432065561353</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09797038642098924</v>
+        <v>0.1032040439584467</v>
       </c>
       <c r="L41" t="n">
-        <v>0.005827017679384899</v>
+        <v>0.01800522909185402</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06678948030789682</v>
+        <v>0.006964783739120862</v>
       </c>
       <c r="N41" t="n">
-        <v>0.06717268843767567</v>
+        <v>0.006777436985442139</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01936344608850046</v>
+        <v>0.04012240244402097</v>
       </c>
       <c r="P41" t="n">
-        <v>0.03000254759701831</v>
+        <v>0.001498643155985219</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.007332090685337786</v>
+        <v>0.01380326433554643</v>
       </c>
       <c r="R41" t="n">
-        <v>0.03741265989976197</v>
+        <v>0.0078295708979596</v>
       </c>
       <c r="S41" t="n">
-        <v>0.06127868212747089</v>
+        <v>0.02105363996194655</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06586389576316995</v>
+        <v>0.1070325078665059</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05082721044275448</v>
+        <v>0.005503088173050214</v>
       </c>
       <c r="V41" t="n">
-        <v>0.03339211458026911</v>
+        <v>0.03328604599196777</v>
       </c>
       <c r="W41" t="n">
-        <v>0.006605876885224781</v>
+        <v>0.08893774956472569</v>
       </c>
       <c r="X41" t="n">
-        <v>0.05441137946112157</v>
+        <v>0.03400458451670236</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.003411200675876455</v>
+        <v>0.01348397985496309</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.06509353623898403</v>
+        <v>0.06770163761232806</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.04527822347531786</v>
+        <v>0.02581418927153233</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.04050387487041336</v>
+        <v>0.06601466236858657</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01995055392497634</v>
+        <v>0.02113112751111922</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1954929495621948</v>
+        <v>0.1958821540992674</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07869429729827374</v>
+        <v>0.07664311384145614</v>
       </c>
       <c r="G42" t="n">
-        <v>0.007702607310371114</v>
+        <v>0.02853173443744175</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05084842795685592</v>
+        <v>0.00285514671576237</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01218333345084109</v>
+        <v>0.02545111754175064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01934165099012806</v>
+        <v>0.06871624765886516</v>
       </c>
       <c r="K42" t="n">
-        <v>0.002508020311552307</v>
+        <v>0.01372314905167805</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0280730587130874</v>
+        <v>2.509959787407545e-05</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06084593639429078</v>
+        <v>0.048447512199455</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0465266291904604</v>
+        <v>0.03024550504643328</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03350861661924558</v>
+        <v>0.0108193485098059</v>
       </c>
       <c r="P42" t="n">
-        <v>0.08176895714072419</v>
+        <v>0.1157915694181496</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0908756865665801</v>
+        <v>0.01092129036781332</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07039008829044513</v>
+        <v>0.1211775867829</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06066969725580411</v>
+        <v>0.06897183997919473</v>
       </c>
       <c r="T42" t="n">
-        <v>0.005180426254390348</v>
+        <v>0.06243301087107417</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04288162782685913</v>
+        <v>0.02507263726944971</v>
       </c>
       <c r="V42" t="n">
-        <v>0.036946725199065</v>
+        <v>0.04294601520246453</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0272504608460567</v>
+        <v>0.01724098219122129</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06717588591122857</v>
+        <v>0.07741491420759156</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.03878491251317158</v>
+        <v>0.02425242748206479</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.05938057450080386</v>
+        <v>0.1043169341798096</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07323823546487271</v>
+        <v>0.0116423176359265</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.005224143994892226</v>
+        <v>0.01236049981181788</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1384810220570401</v>
+        <v>0.1331046791015223</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2247850570482759</v>
+        <v>0.21867686243263</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09395220937534443</v>
+        <v>0.09054648391102876</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05857156607042366</v>
+        <v>0.009185179699880263</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08007526060255031</v>
+        <v>0.05231140554591002</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0207101207601315</v>
+        <v>0.01316187787665428</v>
       </c>
       <c r="J43" t="n">
-        <v>0.09572744665816611</v>
+        <v>0.041046755160952</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04774880332411897</v>
+        <v>0.08665583058816939</v>
       </c>
       <c r="L43" t="n">
-        <v>0.04673724520159524</v>
+        <v>0.006999462900117775</v>
       </c>
       <c r="M43" t="n">
-        <v>0.008756883160871622</v>
+        <v>0.07383716086575373</v>
       </c>
       <c r="N43" t="n">
-        <v>0.004110425760682833</v>
+        <v>0.01436275959658293</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1121807510642087</v>
+        <v>0.07835151722179497</v>
       </c>
       <c r="P43" t="n">
-        <v>0.04487171444231147</v>
+        <v>0.04305564243629303</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01204799183306528</v>
+        <v>0.0202873264834622</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01484419437343441</v>
+        <v>0.004233240317154378</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07122414132745554</v>
+        <v>0.09524987242907229</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07065899620786213</v>
+        <v>0.004271075565658066</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09082853002895311</v>
+        <v>0.07747591631457845</v>
       </c>
       <c r="V43" t="n">
-        <v>0.02754503088820794</v>
+        <v>0.03751540143217534</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0004184019309837669</v>
+        <v>0.0508889334010944</v>
       </c>
       <c r="X43" t="n">
-        <v>0.02390031206436483</v>
+        <v>0.09801700240351427</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0242366197245807</v>
+        <v>0.02852130752060884</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0328269637128649</v>
+        <v>0.03545067812930598</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.01519351117489642</v>
+        <v>0.02310122078207626</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.002832880312926081</v>
+        <v>0.01547394941816227</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1509587798637736</v>
+        <v>0.1582357404591176</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1673142887856729</v>
+        <v>0.1645857640342778</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01225027152540198</v>
+        <v>0.0846409663298843</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07541878855898644</v>
+        <v>0.004372209175925397</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02289899190942274</v>
+        <v>0.08436753948641455</v>
       </c>
       <c r="I44" t="n">
-        <v>0.004161415148729868</v>
+        <v>0.007665555272615572</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005769784400055724</v>
+        <v>0.02051104034303516</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01124433865606676</v>
+        <v>0.009017829875435516</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02753824937602235</v>
+        <v>0.0009900594129097912</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04067207866721746</v>
+        <v>0.0559038794257948</v>
       </c>
       <c r="N44" t="n">
-        <v>0.007057846106902886</v>
+        <v>0.006442518937767557</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07830445372756145</v>
+        <v>0.04126764974098057</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01063628808695222</v>
+        <v>0.01984898388479172</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.08410499700234929</v>
+        <v>0.1065668398805458</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06381248175646907</v>
+        <v>0.03612084402514682</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06841132591791094</v>
+        <v>0.1094628402758455</v>
       </c>
       <c r="T44" t="n">
-        <v>0.02317318505365661</v>
+        <v>0.0706798963166316</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06235741361376965</v>
+        <v>0.1009425906695053</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01409226639262807</v>
+        <v>0.01865723988893018</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04292886551904267</v>
+        <v>0.0252177160459776</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0805263320524358</v>
+        <v>0.02056354075726492</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.08132396861957142</v>
+        <v>0.07105426798888269</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.061963362202569</v>
+        <v>0.02007797965202828</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07063907663726632</v>
+        <v>0.02569853770249016</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05071421906901128</v>
+        <v>0.05992947491119643</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.003723875677803335</v>
+        <v>0.0008443675012952286</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.20644644695942</v>
+        <v>0.1710210146010264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.004295443898347127</v>
+        <v>0.08708416857866863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07985139117023259</v>
+        <v>0.08163645577550957</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00973116560667095</v>
+        <v>0.005149572605124461</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01599002611278974</v>
+        <v>0.008019351777558966</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05311530709939209</v>
+        <v>0.03497927712128238</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1147161867758884</v>
+        <v>0.0493699769893822</v>
       </c>
       <c r="L45" t="n">
-        <v>0.08730634677321834</v>
+        <v>0.01082654894138996</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0376620281503388</v>
+        <v>0.1092475327775651</v>
       </c>
       <c r="N45" t="n">
-        <v>0.006910207175548613</v>
+        <v>0.0226086963311973</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1027665069160458</v>
+        <v>0.09236480596268307</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03387139125238209</v>
+        <v>0.01056452460317591</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.003045934955763658</v>
+        <v>0.02416842491212678</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01639408390454559</v>
+        <v>0.1135518162455538</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1176493891779633</v>
+        <v>0.01369250488765471</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05182669820138194</v>
+        <v>0.001416623534610067</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0241957988285055</v>
+        <v>0.1083028663429614</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0461705300243242</v>
+        <v>0.003710404765615781</v>
       </c>
       <c r="W45" t="n">
-        <v>0.04476937382275074</v>
+        <v>0.002525089361350139</v>
       </c>
       <c r="X45" t="n">
-        <v>0.005172660433709406</v>
+        <v>0.00534969695600874</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.06203887852601291</v>
+        <v>0.05828731652419385</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01164200159356919</v>
+        <v>0.009102493605113495</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.01730136149504263</v>
+        <v>0.04526658005754791</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.05357728810557636</v>
+        <v>0.1027752713437259</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0233067789819946</v>
+        <v>-0.02633038165329555</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1726254074445798</v>
+        <v>0.1742330286349665</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07871336989366598</v>
+        <v>0.08944745868382897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0650005879925154</v>
+        <v>0.07611167725119852</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02067687220371343</v>
+        <v>0.04352222065762674</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04311746751526684</v>
+        <v>0.09174947693767244</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04066722426919053</v>
+        <v>0.01142483599722935</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02116320526332962</v>
+        <v>0.02498564358000673</v>
       </c>
       <c r="L46" t="n">
-        <v>0.005893496946135212</v>
+        <v>0.0002397999886801288</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05253809883859395</v>
+        <v>0.0687290140498449</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01104377692672441</v>
+        <v>0.02008603227256469</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1023699752809331</v>
+        <v>0.09332153209063618</v>
       </c>
       <c r="P46" t="n">
-        <v>0.03119517762907965</v>
+        <v>0.09187240738398034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05401009647009436</v>
+        <v>0.03034700955340971</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07667809993644049</v>
+        <v>0.06703128296355278</v>
       </c>
       <c r="S46" t="n">
-        <v>0.04818080123157745</v>
+        <v>0.06776804833276873</v>
       </c>
       <c r="T46" t="n">
-        <v>0.00393401345373798</v>
+        <v>0.02742609324794867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07521720534450531</v>
+        <v>0.003759311207360971</v>
       </c>
       <c r="V46" t="n">
-        <v>0.02631128470415327</v>
+        <v>0.004333617462324415</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0941671479005602</v>
+        <v>0.01296672730609279</v>
       </c>
       <c r="X46" t="n">
-        <v>0.02063886882668323</v>
+        <v>0.03193997904466582</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02746937292751497</v>
+        <v>0.0367950805522905</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.04127090711711122</v>
+        <v>0.07557811230840393</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.001652753391951455</v>
+        <v>0.02666906950798294</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.05809019593652202</v>
+        <v>0.003895569619929797</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.01098926181057257</v>
+        <v>-0.02388432679770326</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2106795048813286</v>
+        <v>0.1951840018897283</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03497647635695151</v>
+        <v>0.007088368538224937</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1050825349837137</v>
+        <v>0.03063944974112191</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0153958319321074</v>
+        <v>0.0459442611374005</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0988561228320962</v>
+        <v>0.04249244806459278</v>
       </c>
       <c r="J47" t="n">
-        <v>0.05000881939563426</v>
+        <v>0.05789906907637083</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06537236835256305</v>
+        <v>0.08972236456258435</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002354948197971396</v>
+        <v>0.006515272936153054</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01370729507384568</v>
+        <v>0.0612679724502092</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01010540190753652</v>
+        <v>0.007863265045278182</v>
       </c>
       <c r="O47" t="n">
-        <v>0.09184294936374017</v>
+        <v>0.04894102928706259</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1024194168553692</v>
+        <v>0.100480487043071</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.001879985833160759</v>
+        <v>0.06891324895991668</v>
       </c>
       <c r="R47" t="n">
-        <v>0.001002384879575831</v>
+        <v>0.006018932758242151</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01537620684750991</v>
+        <v>0.002379683217181663</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02776021746877285</v>
+        <v>0.06774914105221617</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0574091729601602</v>
+        <v>0.1204929947559032</v>
       </c>
       <c r="V47" t="n">
-        <v>0.05140510218674027</v>
+        <v>0.01322719695646317</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04670037567173583</v>
+        <v>0.01762286377323433</v>
       </c>
       <c r="X47" t="n">
-        <v>0.1220059386940151</v>
+        <v>0.06692667134980695</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02377384637357101</v>
+        <v>0.004025972549707941</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.06154477951122801</v>
+        <v>0.08951733404012278</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.002138519821590703</v>
+        <v>0.006658048834084995</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.001000757878584553</v>
+        <v>0.03761392387105067</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.01345824280807723</v>
+        <v>-0.01695647487507642</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1439454391882468</v>
+        <v>0.1383340692119867</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08790558308140947</v>
+        <v>0.04425251511562255</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0887671161105964</v>
+        <v>0.02083751369963063</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04017092536838145</v>
+        <v>0.01662801943670711</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0158466289128464</v>
+        <v>0.01902838315990947</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0582481238818023</v>
+        <v>0.07487367869909169</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0008174220557318414</v>
+        <v>0.01243919721021261</v>
       </c>
       <c r="L48" t="n">
-        <v>0.03539337941634527</v>
+        <v>0.009537373875113228</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05894509178376664</v>
+        <v>0.04032187818141484</v>
       </c>
       <c r="N48" t="n">
-        <v>0.008161754507881241</v>
+        <v>0.005631232392929856</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03862222043835503</v>
+        <v>0.0061059998554345</v>
       </c>
       <c r="P48" t="n">
-        <v>0.006617596092891384</v>
+        <v>0.06441402133780452</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.07017577314812673</v>
+        <v>0.08707490249776272</v>
       </c>
       <c r="R48" t="n">
-        <v>0.07379471665969323</v>
+        <v>0.08656030844643157</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0217526791659014</v>
+        <v>0.0416524843679476</v>
       </c>
       <c r="T48" t="n">
-        <v>0.08446948701891283</v>
+        <v>0.0541395744629907</v>
       </c>
       <c r="U48" t="n">
-        <v>0.02311837176606019</v>
+        <v>0.08288780240183645</v>
       </c>
       <c r="V48" t="n">
-        <v>0.02025929762053578</v>
+        <v>0.005000965188628115</v>
       </c>
       <c r="W48" t="n">
-        <v>0.009774687016182573</v>
+        <v>0.03968730221070545</v>
       </c>
       <c r="X48" t="n">
-        <v>0.01269600160708479</v>
+        <v>0.06438886491663391</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.05703282489530106</v>
+        <v>0.07463065821297275</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.0907033924181916</v>
+        <v>0.06552048105265072</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.06046394776050196</v>
+        <v>0.02880463405544324</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03626297927350011</v>
+        <v>0.0555822092221258</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.02935024089008401</v>
+        <v>0.05116786146639996</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.203860785956329</v>
+        <v>0.1816277945281057</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005634096297614741</v>
+        <v>0.03537283474653977</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02204962279544102</v>
+        <v>0.08261904076361982</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06269549181335954</v>
+        <v>0.0283794916427907</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1029091554626946</v>
+        <v>0.08347328110781481</v>
       </c>
       <c r="J49" t="n">
-        <v>0.04009799365932057</v>
+        <v>0.01768607047739477</v>
       </c>
       <c r="K49" t="n">
-        <v>0.05554559245606142</v>
+        <v>0.01496073236271667</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07115454877587983</v>
+        <v>0.05666329448229902</v>
       </c>
       <c r="M49" t="n">
-        <v>0.007460255465006001</v>
+        <v>0.0468438115622906</v>
       </c>
       <c r="N49" t="n">
-        <v>0.005296433268894489</v>
+        <v>0.00776530272216112</v>
       </c>
       <c r="O49" t="n">
-        <v>0.09313715527080905</v>
+        <v>0.04289774605820983</v>
       </c>
       <c r="P49" t="n">
-        <v>0.07618570103831522</v>
+        <v>0.01617226663730547</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.006641459922368319</v>
+        <v>0.02256066409882676</v>
       </c>
       <c r="R49" t="n">
-        <v>0.005016107777562827</v>
+        <v>0.0256859279962466</v>
       </c>
       <c r="S49" t="n">
-        <v>0.05870287524829765</v>
+        <v>0.08945149342933657</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02997709220879103</v>
+        <v>0.08993629979563324</v>
       </c>
       <c r="U49" t="n">
-        <v>0.06137568978795224</v>
+        <v>0.1087346440375672</v>
       </c>
       <c r="V49" t="n">
-        <v>0.05579446425609465</v>
+        <v>0.03108897137841951</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06413861098653065</v>
+        <v>0.08932979172195163</v>
       </c>
       <c r="X49" t="n">
-        <v>0.08493031309472639</v>
+        <v>0.008153844379700469</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.003374470656918228</v>
+        <v>0.007523474453233684</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02453580773226794</v>
+        <v>0.0232959015743456</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01402002929033854</v>
+        <v>0.06479294093350486</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04932703273475517</v>
+        <v>0.006612173638091186</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07372688960544371</v>
+        <v>0.07136811459518631</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1410795141760511</v>
+        <v>0.1408455616188884</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08491975725351775</v>
+        <v>0.0014222623800909</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01432973882416796</v>
+        <v>0.0254381045942744</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02272028315189694</v>
+        <v>0.006037503717126543</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02711807977350798</v>
+        <v>0.08181102100763435</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03584545504735599</v>
+        <v>0.01988898257602809</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02387148502557462</v>
+        <v>0.01711012724354452</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02989461294949868</v>
+        <v>0.0411180834853254</v>
       </c>
       <c r="M50" t="n">
-        <v>0.008502651797346335</v>
+        <v>0.1156591189360092</v>
       </c>
       <c r="N50" t="n">
-        <v>0.04221566223323595</v>
+        <v>0.02236859649922848</v>
       </c>
       <c r="O50" t="n">
-        <v>0.003639708264235766</v>
+        <v>0.01893460004876775</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01436364550850004</v>
+        <v>0.006488231584726514</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.09452935010735392</v>
+        <v>0.09183941552524183</v>
       </c>
       <c r="R50" t="n">
-        <v>0.09647228785977216</v>
+        <v>0.1133195020980759</v>
       </c>
       <c r="S50" t="n">
-        <v>0.04138580099132605</v>
+        <v>0.02928792174391803</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04555097967024348</v>
+        <v>0.02568060226367964</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08256192783998065</v>
+        <v>0.07577454592301955</v>
       </c>
       <c r="V50" t="n">
-        <v>0.07920094698608807</v>
+        <v>0.009950385224220846</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01929896439838788</v>
+        <v>0.002451940010376151</v>
       </c>
       <c r="X50" t="n">
-        <v>0.06029476459072512</v>
+        <v>0.01930611338457152</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05532636508561831</v>
+        <v>0.05195864387951028</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08299090164832061</v>
+        <v>0.1041450567017886</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.02554050514418487</v>
+        <v>0.04833325357795508</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.009426125849160897</v>
+        <v>0.07167598759488654</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.143316286058201</v>
+        <v>0.1431706587327816</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1552434123723701</v>
+        <v>0.1682341650431785</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003318873770868732</v>
+        <v>0.004683837843317515</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04512585966224349</v>
+        <v>0.09723122534662886</v>
       </c>
       <c r="H51" t="n">
-        <v>0.006618950332885477</v>
+        <v>0.0851115077153376</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07000843255912882</v>
+        <v>0.03343855202693194</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01310113345014608</v>
+        <v>0.07542977307117996</v>
       </c>
       <c r="K51" t="n">
-        <v>0.06834807350683614</v>
+        <v>0.06356317052831953</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04290647847792959</v>
+        <v>0.01713242127548981</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01439156097132619</v>
+        <v>0.03171431228523872</v>
       </c>
       <c r="N51" t="n">
-        <v>0.03269928814201441</v>
+        <v>0.0002552778283953119</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03647307444564565</v>
+        <v>0.0009858333142920728</v>
       </c>
       <c r="P51" t="n">
-        <v>0.006642884899125412</v>
+        <v>0.02291891556753502</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.08375476186447069</v>
+        <v>0.01765722801009769</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07148238472499872</v>
+        <v>0.06390712311793841</v>
       </c>
       <c r="S51" t="n">
-        <v>0.08641774580167617</v>
+        <v>0.08936906480962274</v>
       </c>
       <c r="T51" t="n">
-        <v>0.03127762856873748</v>
+        <v>0.04622793455944352</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02991178469451235</v>
+        <v>0.03220476492315531</v>
       </c>
       <c r="V51" t="n">
-        <v>0.08010245560376468</v>
+        <v>0.09604935362815857</v>
       </c>
       <c r="W51" t="n">
-        <v>0.07270211569602725</v>
+        <v>0.09228377038933833</v>
       </c>
       <c r="X51" t="n">
-        <v>0.06108735248136588</v>
+        <v>0.04649986878531336</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.05057064049116908</v>
+        <v>0.00188807800083605</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.05420053606232995</v>
+        <v>0.032034847876185</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.03538528049717269</v>
+        <v>0.01892734537755882</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.003472703295624978</v>
+        <v>0.03048579371968569</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.137156027046877</v>
+        <v>0.180493888884431</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1744471754248549</v>
+        <v>0.1749060962277579</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05056876547017441</v>
+        <v>0.08337798717079631</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05018056981949177</v>
+        <v>0.0621697329375672</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06971745484790129</v>
+        <v>0.0555986992363145</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01987910635118266</v>
+        <v>0.01223879581834368</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06985560642112591</v>
+        <v>0.01690612441554293</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05189391556294605</v>
+        <v>0.03945641228053775</v>
       </c>
       <c r="L52" t="n">
-        <v>0.03402402501326188</v>
+        <v>0.01329845971263514</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03535521591512962</v>
+        <v>0.01477809755242471</v>
       </c>
       <c r="N52" t="n">
-        <v>0.07665681818863108</v>
+        <v>0.06555536472545698</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04577902233245721</v>
+        <v>0.0403178393719287</v>
       </c>
       <c r="P52" t="n">
-        <v>0.07418738208660346</v>
+        <v>0.08690659801326957</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.03383474242342276</v>
+        <v>0.07030956559814529</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05661773590934063</v>
+        <v>0.004844916310554384</v>
       </c>
       <c r="S52" t="n">
-        <v>0.03133394422339901</v>
+        <v>0.02810048971766677</v>
       </c>
       <c r="T52" t="n">
-        <v>0.07722831199064327</v>
+        <v>0.08487076097789303</v>
       </c>
       <c r="U52" t="n">
-        <v>0.0102839084660619</v>
+        <v>0.01065307949104836</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0121018649027206</v>
+        <v>0.06400082897043619</v>
       </c>
       <c r="W52" t="n">
-        <v>0.007221659473947871</v>
+        <v>0.003745107964577469</v>
       </c>
       <c r="X52" t="n">
-        <v>0.07081487410631454</v>
+        <v>0.07925848539263748</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0230126893144979</v>
+        <v>0.02150465617210662</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01359210213323886</v>
+        <v>0.007029092432071996</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07480102867546208</v>
+        <v>0.08237807397434105</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01105925637204543</v>
+        <v>0.05270083176370406</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1537510469735322</v>
+        <v>-0.1621569569426365</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2131756113793955</v>
+        <v>0.1987859515945344</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001223653805237647</v>
+        <v>0.004794623415699642</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001438078408306592</v>
+        <v>0.002578460975204619</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000272613448279974</v>
+        <v>0.03242767743952511</v>
       </c>
       <c r="I53" t="n">
-        <v>0.05360636565228454</v>
+        <v>0.07129162266551729</v>
       </c>
       <c r="J53" t="n">
-        <v>0.080620002308563</v>
+        <v>0.1031853644040672</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0379570346366581</v>
+        <v>0.01304879983830278</v>
       </c>
       <c r="L53" t="n">
-        <v>0.02738519749770769</v>
+        <v>0.006204945390788114</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0950903929387879</v>
+        <v>0.09995297926485396</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0225618528947248</v>
+        <v>0.03334922073343571</v>
       </c>
       <c r="O53" t="n">
-        <v>0.04615810005484287</v>
+        <v>0.09452595136743271</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03967080020299874</v>
+        <v>0.06186142804924098</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01786638128942796</v>
+        <v>0.01875700970487754</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08593717771551168</v>
+        <v>0.02061269988358631</v>
       </c>
       <c r="S53" t="n">
-        <v>0.07195402976407338</v>
+        <v>0.08896313875287074</v>
       </c>
       <c r="T53" t="n">
-        <v>0.08895531972862535</v>
+        <v>0.09747466974257345</v>
       </c>
       <c r="U53" t="n">
-        <v>0.035117249884248</v>
+        <v>0.05428392757582017</v>
       </c>
       <c r="V53" t="n">
-        <v>0.03410882965233451</v>
+        <v>0.01123948148820769</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07375590125492598</v>
+        <v>0.01719983369558152</v>
       </c>
       <c r="X53" t="n">
-        <v>0.04267577994394645</v>
+        <v>0.09207980499949837</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.007599578098793151</v>
+        <v>0.007792992905580487</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.02947105621614453</v>
+        <v>0.00285451124979018</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01823799009052113</v>
+        <v>0.0235549985300988</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.08833661451305608</v>
+        <v>0.04196585792744659</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1389958052082297</v>
+        <v>-0.1261687697314961</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.165973107446288</v>
+        <v>0.1664791729450426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07187261469665307</v>
+        <v>0.07461608965506088</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08023067691579565</v>
+        <v>0.01619455418597696</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03080482304170067</v>
+        <v>0.04486738008929467</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01813196817665102</v>
+        <v>0.03118400977720222</v>
       </c>
       <c r="J54" t="n">
-        <v>0.008553382409780399</v>
+        <v>0.05105112018357189</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04580582649995017</v>
+        <v>0.02575056102222163</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01940440632905403</v>
+        <v>0.01481996816140482</v>
       </c>
       <c r="M54" t="n">
-        <v>0.003409096972538334</v>
+        <v>0.04304897449247467</v>
       </c>
       <c r="N54" t="n">
-        <v>0.03964723005293263</v>
+        <v>0.01938482196484074</v>
       </c>
       <c r="O54" t="n">
-        <v>0.05871970175200873</v>
+        <v>0.02892146247257665</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0349627983387959</v>
+        <v>0.02163490083941914</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.06567770920987971</v>
+        <v>0.001987374920163418</v>
       </c>
       <c r="R54" t="n">
-        <v>0.07068804354068889</v>
+        <v>0.08499344261939966</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04421362656056682</v>
+        <v>0.0604473258672247</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03484722790821208</v>
+        <v>0.05335394912008525</v>
       </c>
       <c r="U54" t="n">
-        <v>0.08621158040721565</v>
+        <v>0.0784576361371927</v>
       </c>
       <c r="V54" t="n">
-        <v>0.08086179250554458</v>
+        <v>0.07040441625334579</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07385800953883818</v>
+        <v>0.003324589274596145</v>
       </c>
       <c r="X54" t="n">
-        <v>0.03727146259528536</v>
+        <v>0.09791896061435587</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.008252276918126277</v>
+        <v>0.04064898162146914</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01551944001368539</v>
+        <v>0.01949349326483936</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.04473214605132629</v>
+        <v>0.09552861382229805</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02632415956477021</v>
+        <v>0.02196737364098587</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.1121007637889977</v>
+        <v>0.1170795287136437</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1728100479392447</v>
+        <v>0.1933196945339387</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07076813624907426</v>
+        <v>0.06623947787410317</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04726161617448902</v>
+        <v>0.01797000604844209</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03302569502439094</v>
+        <v>0.05367118736327792</v>
       </c>
       <c r="I55" t="n">
-        <v>0.03064334265636941</v>
+        <v>0.05279055802571712</v>
       </c>
       <c r="J55" t="n">
-        <v>0.009334213529049938</v>
+        <v>0.05687193025468133</v>
       </c>
       <c r="K55" t="n">
-        <v>0.08753353973949633</v>
+        <v>0.1091954428651027</v>
       </c>
       <c r="L55" t="n">
-        <v>0.006192656743815206</v>
+        <v>0.09146091662158159</v>
       </c>
       <c r="M55" t="n">
-        <v>0.02296330970112982</v>
+        <v>0.03080880525824761</v>
       </c>
       <c r="N55" t="n">
-        <v>0.03080546246401573</v>
+        <v>0.009758302816557611</v>
       </c>
       <c r="O55" t="n">
-        <v>0.05422229019161395</v>
+        <v>0.03281148212811862</v>
       </c>
       <c r="P55" t="n">
-        <v>0.007237365667849147</v>
+        <v>0.02876740480199752</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.005364133796121464</v>
+        <v>0.03022731023939607</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08630715532864085</v>
+        <v>0.03347850005485979</v>
       </c>
       <c r="S55" t="n">
-        <v>0.06444091513672495</v>
+        <v>0.07659638385097949</v>
       </c>
       <c r="T55" t="n">
-        <v>0.07058805670210549</v>
+        <v>0.03838539934778705</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08352213445882911</v>
+        <v>0.06827554951793249</v>
       </c>
       <c r="V55" t="n">
-        <v>0.08583564592253901</v>
+        <v>0.05429948633820102</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07924256164777223</v>
+        <v>0.08904933713242101</v>
       </c>
       <c r="X55" t="n">
-        <v>0.04203844822556999</v>
+        <v>0.003748842140362071</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.02267889914034645</v>
+        <v>0.003349672125254656</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.03017622246891963</v>
+        <v>0.04066489203055418</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.02305284623588381</v>
+        <v>0.004536101839206698</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.006765352795253116</v>
+        <v>0.007043011325218232</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1336142072779639</v>
+        <v>0.1260935950745711</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1876778391887244</v>
+        <v>0.1873470964266984</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02670151268265498</v>
+        <v>0.04688070207183833</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08358335478939037</v>
+        <v>0.02514376973282424</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07788908102887336</v>
+        <v>0.008284767104254001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02626545807238179</v>
+        <v>0.05006020600026631</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01601957167329426</v>
+        <v>0.02658906401909597</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1042620718300985</v>
+        <v>0.08962678837980417</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03288242254611785</v>
+        <v>0.01800874259087764</v>
       </c>
       <c r="M56" t="n">
-        <v>0.09230030369851332</v>
+        <v>0.04590176009184489</v>
       </c>
       <c r="N56" t="n">
-        <v>0.005998829945442844</v>
+        <v>0.01123080380140888</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02503180655232001</v>
+        <v>0.1033325791524085</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01141593817272591</v>
+        <v>0.006703199964919474</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.006693264051713809</v>
+        <v>0.04022781684156228</v>
       </c>
       <c r="R56" t="n">
-        <v>0.005860895327398978</v>
+        <v>0.007677569503229071</v>
       </c>
       <c r="S56" t="n">
-        <v>0.08231081275290514</v>
+        <v>0.02940881300146689</v>
       </c>
       <c r="T56" t="n">
-        <v>0.01051091266019756</v>
+        <v>0.0426798776632976</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08313879111265922</v>
+        <v>0.06542205161152334</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01768746012915264</v>
+        <v>0.05199639226035744</v>
       </c>
       <c r="W56" t="n">
-        <v>0.08930550579202017</v>
+        <v>0.05677808562744745</v>
       </c>
       <c r="X56" t="n">
-        <v>0.02570850354663265</v>
+        <v>0.1207081464294797</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04025103212049546</v>
+        <v>0.006032264555536082</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.03769086774972149</v>
+        <v>0.03892830531902862</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.08483081861978342</v>
+        <v>0.09433277411301436</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.01366078514550618</v>
+        <v>0.01404552016451483</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.01854569271260227</v>
+        <v>-0.02219236260563758</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2077842324964046</v>
+        <v>0.2200488251096715</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09968331895692283</v>
+        <v>0.1161092871611385</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0214792073007532</v>
+        <v>0.004279943277873239</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0637092828371698</v>
+        <v>0.02462254084719205</v>
       </c>
       <c r="I57" t="n">
-        <v>0.00456583716843404</v>
+        <v>0.0927598488283452</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03490987808948996</v>
+        <v>0.01933749141252196</v>
       </c>
       <c r="K57" t="n">
-        <v>0.007365518608640618</v>
+        <v>0.02112659870971048</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05847951585124542</v>
+        <v>0.09503668264152668</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05942761971732551</v>
+        <v>0.04989160745888666</v>
       </c>
       <c r="N57" t="n">
-        <v>3.390003083789587e-05</v>
+        <v>0.005508701204153817</v>
       </c>
       <c r="O57" t="n">
-        <v>0.003429008099871205</v>
+        <v>0.02717022486358926</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01483199796557421</v>
+        <v>0.04407200240555657</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02445199786404017</v>
+        <v>0.01348902648775976</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05541696909436603</v>
+        <v>0.0882362657451333</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07256842158057056</v>
+        <v>0.1163091989461923</v>
       </c>
       <c r="T57" t="n">
-        <v>0.09227716078971265</v>
+        <v>0.05880846630992602</v>
       </c>
       <c r="U57" t="n">
-        <v>0.07777763555953243</v>
+        <v>0.02827209309755363</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09607123871077912</v>
+        <v>0.02152137355053211</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03516789332463768</v>
+        <v>0.006368496803618884</v>
       </c>
       <c r="X57" t="n">
-        <v>0.02525921511192343</v>
+        <v>0.02292068158360531</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01941382655113722</v>
+        <v>0.0122666966179242</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.06453447190902296</v>
+        <v>0.04807242591564631</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02516777481189878</v>
+        <v>0.08292558396717521</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.04397831006611424</v>
+        <v>0.0008947621644384231</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.007280970801648936</v>
+        <v>-7.283743530589136e-05</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2015232150222885</v>
+        <v>0.2001689250700756</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0104122623253578</v>
+        <v>0.02469507758474675</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04406964835722958</v>
+        <v>0.04947239875117438</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05924382786981631</v>
+        <v>0.03628291994827965</v>
       </c>
       <c r="I58" t="n">
-        <v>0.07105178449523315</v>
+        <v>0.02973581187731914</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04450150319035528</v>
+        <v>0.05228519245046556</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02899729148456802</v>
+        <v>0.008963959988244348</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0921439164804659</v>
+        <v>0.04731201950190692</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04778347038204504</v>
+        <v>0.05979327483611282</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01216558633127541</v>
+        <v>0.01435796759029035</v>
       </c>
       <c r="O58" t="n">
-        <v>0.08933163594283028</v>
+        <v>0.01241946778179997</v>
       </c>
       <c r="P58" t="n">
-        <v>0.003029972209208395</v>
+        <v>0.06402025587034203</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01226431681165884</v>
+        <v>0.02179872426635907</v>
       </c>
       <c r="R58" t="n">
-        <v>0.003899765425177091</v>
+        <v>0.01785987678149579</v>
       </c>
       <c r="S58" t="n">
-        <v>0.07861117489413967</v>
+        <v>0.06916522224683769</v>
       </c>
       <c r="T58" t="n">
-        <v>0.01195300072541907</v>
+        <v>0.03934097126583327</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08744065512599063</v>
+        <v>0.08491328728409012</v>
       </c>
       <c r="V58" t="n">
-        <v>0.06053522254784166</v>
+        <v>0.06055945606493588</v>
       </c>
       <c r="W58" t="n">
-        <v>0.002062191864194064</v>
+        <v>0.005159099893172925</v>
       </c>
       <c r="X58" t="n">
-        <v>0.08740944466753868</v>
+        <v>0.08547769517812592</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.03574179868833863</v>
+        <v>0.005278825623898211</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.08193865275919307</v>
+        <v>0.08115352918315107</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.01127093603694693</v>
+        <v>0.09459473712211516</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.02414194138517628</v>
+        <v>0.03536022890930302</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.03813848060411969</v>
+        <v>0.04274755747674795</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2333977231320725</v>
+        <v>0.2252694282139099</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09981684215715199</v>
+        <v>0.09522992353615825</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02588858381574918</v>
+        <v>0.05214494571551546</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02070457365694723</v>
+        <v>0.02379231493405636</v>
       </c>
       <c r="I59" t="n">
-        <v>0.03758739648173492</v>
+        <v>0.002876890350589083</v>
       </c>
       <c r="J59" t="n">
-        <v>0.02927420939714688</v>
+        <v>0.03407552736233087</v>
       </c>
       <c r="K59" t="n">
-        <v>0.07172853359092451</v>
+        <v>0.006320243448732409</v>
       </c>
       <c r="L59" t="n">
-        <v>0.009904679760005428</v>
+        <v>0.02452133096879924</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01216012164408282</v>
+        <v>0.08678069571402695</v>
       </c>
       <c r="N59" t="n">
-        <v>0.006474761184469728</v>
+        <v>0.0107013131703727</v>
       </c>
       <c r="O59" t="n">
-        <v>0.0195955406899212</v>
+        <v>0.01732140488151649</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0578799067021231</v>
+        <v>0.05031196184162313</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.003160726695698406</v>
+        <v>0.03280459609940686</v>
       </c>
       <c r="R59" t="n">
-        <v>0.03617047794241098</v>
+        <v>0.04356941030604261</v>
       </c>
       <c r="S59" t="n">
-        <v>0.07335087072513675</v>
+        <v>0.05185842808456364</v>
       </c>
       <c r="T59" t="n">
-        <v>0.09338363938411388</v>
+        <v>0.03990777595439147</v>
       </c>
       <c r="U59" t="n">
-        <v>0.06621886172073287</v>
+        <v>0.09090383566345817</v>
       </c>
       <c r="V59" t="n">
-        <v>0.08276085373559169</v>
+        <v>0.08457097219943112</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08341754308953037</v>
+        <v>0.005243963681378894</v>
       </c>
       <c r="X59" t="n">
-        <v>0.03152836474134717</v>
+        <v>0.0911898744869338</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.02145325043719912</v>
+        <v>0.005799734836774829</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.06544381658721606</v>
+        <v>0.08062944491951808</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.03710555337402947</v>
+        <v>0.03395344446044402</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.01499089248673628</v>
+        <v>0.0354919673839354</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.07546069113270223</v>
+        <v>0.0593586142394708</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2168188433493091</v>
+        <v>0.2160731003369687</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01675134316324821</v>
+        <v>0.008076938029865017</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03455616075983869</v>
+        <v>0.08045824519589931</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06450819758276946</v>
+        <v>0.06152031333908446</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0389488795967522</v>
+        <v>0.03126712050790176</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05221339491452445</v>
+        <v>0.08443338314823969</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02098827596501824</v>
+        <v>0.04762995652286039</v>
       </c>
       <c r="L60" t="n">
-        <v>0.003053426234764189</v>
+        <v>0.04809504637866344</v>
       </c>
       <c r="M60" t="n">
-        <v>0.07440911248919688</v>
+        <v>0.05229713830689148</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01150850543397772</v>
+        <v>0.01730979729871168</v>
       </c>
       <c r="O60" t="n">
-        <v>0.09924367563281372</v>
+        <v>0.01580641915145594</v>
       </c>
       <c r="P60" t="n">
-        <v>0.007216793385092416</v>
+        <v>0.05065957501925839</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.03656293528705268</v>
+        <v>0.0003956779089456712</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1492874338177219</v>
+        <v>0.06692165402173439</v>
       </c>
       <c r="S60" t="n">
-        <v>0.04310944146342873</v>
+        <v>0.08242866263228985</v>
       </c>
       <c r="T60" t="n">
-        <v>0.07922650857800193</v>
+        <v>0.004767500342468923</v>
       </c>
       <c r="U60" t="n">
-        <v>0.00285830539693143</v>
+        <v>0.05495133703489651</v>
       </c>
       <c r="V60" t="n">
-        <v>0.01792712095763513</v>
+        <v>0.04700861602273031</v>
       </c>
       <c r="W60" t="n">
-        <v>0.03563373566002524</v>
+        <v>0.01086499016520855</v>
       </c>
       <c r="X60" t="n">
-        <v>0.1148472325702246</v>
+        <v>0.08939394182275455</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.03744789587718701</v>
+        <v>0.01100266496721812</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.00558558408653445</v>
+        <v>0.08623307474453872</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.02085158591336514</v>
+        <v>0.03617155425385972</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.03326445523389591</v>
+        <v>0.01230639318452356</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.07024787945312415</v>
+        <v>0.09035552577767574</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2406110982218421</v>
+        <v>0.2380521847701964</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08847081096122918</v>
+        <v>0.08664141434951651</v>
       </c>
       <c r="G61" t="n">
-        <v>0.005500396417410841</v>
+        <v>0.03001063542059264</v>
       </c>
       <c r="H61" t="n">
-        <v>0.004731329138757185</v>
+        <v>0.05203931237852149</v>
       </c>
       <c r="I61" t="n">
-        <v>0.003820045197186611</v>
+        <v>0.0103251381735738</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01813404130896966</v>
+        <v>0.006285685070360816</v>
       </c>
       <c r="K61" t="n">
-        <v>0.07339420609893574</v>
+        <v>0.001221265033347775</v>
       </c>
       <c r="L61" t="n">
-        <v>0.06431008574458426</v>
+        <v>0.07898653671382509</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0375076963966528</v>
+        <v>0.03420453728899197</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0003220863870761076</v>
+        <v>0.05233984186737498</v>
       </c>
       <c r="O61" t="n">
-        <v>0.04574115580670769</v>
+        <v>0.004118989524833128</v>
       </c>
       <c r="P61" t="n">
-        <v>0.04020853592324525</v>
+        <v>0.05030261968244991</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.04896323919443456</v>
+        <v>0.002766483496277153</v>
       </c>
       <c r="R61" t="n">
-        <v>0.06876763723317111</v>
+        <v>0.08568307578074345</v>
       </c>
       <c r="S61" t="n">
-        <v>0.09274232176391428</v>
+        <v>0.06558917839467283</v>
       </c>
       <c r="T61" t="n">
-        <v>0.09077769067891282</v>
+        <v>0.06259122331972224</v>
       </c>
       <c r="U61" t="n">
-        <v>0.06946153850790927</v>
+        <v>0.08864307110195682</v>
       </c>
       <c r="V61" t="n">
-        <v>0.08070028046367092</v>
+        <v>0.08843320654712085</v>
       </c>
       <c r="W61" t="n">
-        <v>0.04548018339753723</v>
+        <v>0.05266570722507794</v>
       </c>
       <c r="X61" t="n">
-        <v>0.01302374592154618</v>
+        <v>0.02372188593585647</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.003748533467909011</v>
+        <v>0.01193674821404301</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.02006078052157941</v>
+        <v>0.037418682453081</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.06213272959038894</v>
+        <v>0.06420344571847908</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.02200092987827072</v>
+        <v>0.009871316309580918</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.05725820351431644</v>
+        <v>0.08426843896438584</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.1995219208371148</v>
+        <v>0.2000450758589963</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04318969239964692</v>
+        <v>0.1006038683082414</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08824527185233687</v>
+        <v>0.03910512053165918</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02391438568176982</v>
+        <v>0.03014682777960949</v>
       </c>
       <c r="I62" t="n">
-        <v>0.005575606316656942</v>
+        <v>0.02824626334614534</v>
       </c>
       <c r="J62" t="n">
-        <v>0.001031803046682831</v>
+        <v>0.008464656764990072</v>
       </c>
       <c r="K62" t="n">
-        <v>0.07024183365781275</v>
+        <v>0.08447545254542131</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0345790095316711</v>
+        <v>0.005563858188473931</v>
       </c>
       <c r="M62" t="n">
-        <v>0.08134570358240524</v>
+        <v>0.09143604635810534</v>
       </c>
       <c r="N62" t="n">
-        <v>0.02368156062327932</v>
+        <v>0.001119377862653351</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03559678824921769</v>
+        <v>0.01331543801733926</v>
       </c>
       <c r="P62" t="n">
-        <v>0.03810567661545915</v>
+        <v>0.06995138090805149</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.05531225169461013</v>
+        <v>0.01481363939756521</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07181581299570558</v>
+        <v>0.09810954732149703</v>
       </c>
       <c r="S62" t="n">
-        <v>0.02453660433808837</v>
+        <v>0.04048039117667692</v>
       </c>
       <c r="T62" t="n">
-        <v>0.02288359137852883</v>
+        <v>0.05704260511888479</v>
       </c>
       <c r="U62" t="n">
-        <v>0.07306473226666586</v>
+        <v>0.07087728485299181</v>
       </c>
       <c r="V62" t="n">
-        <v>0.004041438880986231</v>
+        <v>0.007001859877978591</v>
       </c>
       <c r="W62" t="n">
-        <v>0.04564027727206284</v>
+        <v>0.01114027919813703</v>
       </c>
       <c r="X62" t="n">
-        <v>0.08870474830150415</v>
+        <v>0.06506128083795203</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.01169713068879387</v>
+        <v>0.01382462719617904</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.07286162128377142</v>
+        <v>0.04840457323232013</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.08059700216415992</v>
+        <v>0.03281708563585094</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.003337457178184021</v>
+        <v>0.06799853554327655</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.06562825524976</v>
+        <v>0.06649048740053821</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2129518823711205</v>
+        <v>0.2158727718367572</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07624504561269768</v>
+        <v>0.09795727804303461</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0095866378787361</v>
+        <v>0.09180141296790244</v>
       </c>
       <c r="H63" t="n">
-        <v>0.04520586217529975</v>
+        <v>0.02438882868673056</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01927220148786057</v>
+        <v>0.0006219515913777981</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001814717853106824</v>
+        <v>0.009373804416206262</v>
       </c>
       <c r="K63" t="n">
-        <v>0.00209741034332047</v>
+        <v>0.01908482099200715</v>
       </c>
       <c r="L63" t="n">
-        <v>0.08071643652357773</v>
+        <v>0.03526480621840174</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0361465418744876</v>
+        <v>0.02266016561797442</v>
       </c>
       <c r="N63" t="n">
-        <v>0.005315337167934067</v>
+        <v>0.001291553306264675</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0389081329702545</v>
+        <v>0.082508967781634</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01264212801156231</v>
+        <v>0.09675591702851034</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.04432696325911676</v>
+        <v>0.03495072045351153</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08461746963600139</v>
+        <v>0.01175676079569968</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0686277450608854</v>
+        <v>0.06485889426072861</v>
       </c>
       <c r="T63" t="n">
-        <v>0.05746225270933002</v>
+        <v>0.08279671511809171</v>
       </c>
       <c r="U63" t="n">
-        <v>0.05507495821949655</v>
+        <v>0.006802408794175005</v>
       </c>
       <c r="V63" t="n">
-        <v>0.01388498558538491</v>
+        <v>0.03377138194463866</v>
       </c>
       <c r="W63" t="n">
-        <v>0.08279290739891115</v>
+        <v>0.03818882213788977</v>
       </c>
       <c r="X63" t="n">
-        <v>0.009545637500306807</v>
+        <v>3.946204688424993e-05</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.03658322010084771</v>
+        <v>0.0419381577061082</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.009737724203484833</v>
+        <v>0.03485508581871035</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.09720908151110791</v>
+        <v>0.09529320566859445</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.1121866029162888</v>
+        <v>0.07303887860492389</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.05894839158643086</v>
+        <v>0.06710569676811075</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2032517507846837</v>
+        <v>0.2032113214213337</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09189106249373247</v>
+        <v>0.08947765048646937</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01703231715800877</v>
+        <v>0.001345749471892788</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09350915688585197</v>
+        <v>0.08559222043652034</v>
       </c>
       <c r="I64" t="n">
-        <v>0.09780847231034227</v>
+        <v>0.05121826963257128</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01843723114499237</v>
+        <v>0.02869866337140891</v>
       </c>
       <c r="K64" t="n">
-        <v>0.004330912988906126</v>
+        <v>0.07262644987035244</v>
       </c>
       <c r="L64" t="n">
-        <v>0.002486733894385394</v>
+        <v>0.006529021904713798</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03039370034089599</v>
+        <v>0.07655707150823668</v>
       </c>
       <c r="N64" t="n">
-        <v>0.00970098247407457</v>
+        <v>0.01224176613814566</v>
       </c>
       <c r="O64" t="n">
-        <v>0.05715492084497367</v>
+        <v>0.06164007666280255</v>
       </c>
       <c r="P64" t="n">
-        <v>0.07878869059365076</v>
+        <v>0.0633287981277199</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02153317180438983</v>
+        <v>0.0609528316319063</v>
       </c>
       <c r="R64" t="n">
-        <v>0.08084217129176492</v>
+        <v>0.02549499421824747</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03974843218975849</v>
+        <v>0.08230213689774465</v>
       </c>
       <c r="T64" t="n">
-        <v>0.04633127813615981</v>
+        <v>0.0253436666820919</v>
       </c>
       <c r="U64" t="n">
-        <v>0.00546961052108321</v>
+        <v>0.03889641359416379</v>
       </c>
       <c r="V64" t="n">
-        <v>0.001817533677815974</v>
+        <v>0.003198249888544777</v>
       </c>
       <c r="W64" t="n">
-        <v>0.05954985667321145</v>
+        <v>0.048432179632168</v>
       </c>
       <c r="X64" t="n">
-        <v>0.09580648869278452</v>
+        <v>0.08197208195086569</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.08298104989379208</v>
+        <v>0.001379867378452906</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.003409785064159231</v>
+        <v>0.03023298721797092</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.03900276011743286</v>
+        <v>0.04274801690551757</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.02197368080783333</v>
+        <v>0.009790836391492249</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.01124868724526061</v>
+        <v>-0.02849504783070192</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2114716581711409</v>
+        <v>0.2136537165913875</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1229733208132586</v>
+        <v>0.08790579387407225</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008185337739683843</v>
+        <v>0.04803244142507664</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02302891045293041</v>
+        <v>0.07889906134611685</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0466206469684247</v>
+        <v>0.02160509813118142</v>
       </c>
       <c r="J65" t="n">
-        <v>0.04673658155310248</v>
+        <v>0.01112012846919624</v>
       </c>
       <c r="K65" t="n">
-        <v>0.02789259346450051</v>
+        <v>0.01962521120164474</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01442230508303805</v>
+        <v>0.03120681838588897</v>
       </c>
       <c r="M65" t="n">
-        <v>0.02235729206563074</v>
+        <v>0.001681892826544144</v>
       </c>
       <c r="N65" t="n">
-        <v>0.006613468348330852</v>
+        <v>0.009299031132952183</v>
       </c>
       <c r="O65" t="n">
-        <v>0.04827628699950066</v>
+        <v>0.09214672031730112</v>
       </c>
       <c r="P65" t="n">
-        <v>0.07549864248419735</v>
+        <v>0.01300338973570901</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.009673094501448471</v>
+        <v>0.001887476069040613</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1221094051244122</v>
+        <v>0.0743777783954017</v>
       </c>
       <c r="S65" t="n">
-        <v>0.04503843387088662</v>
+        <v>0.02281873509078622</v>
       </c>
       <c r="T65" t="n">
-        <v>0.005084861923002238</v>
+        <v>0.04127895583296307</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0344587420323765</v>
+        <v>0.07628082100324604</v>
       </c>
       <c r="V65" t="n">
-        <v>0.04429291333103268</v>
+        <v>0.02284042666616146</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0003068284383054802</v>
+        <v>0.02293528665662554</v>
       </c>
       <c r="X65" t="n">
-        <v>0.09731428705098474</v>
+        <v>0.09736703789504278</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1089893744894187</v>
+        <v>0.1008301352296642</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.01963662539619975</v>
+        <v>0.0277564820409519</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.03838584367648909</v>
+        <v>0.008482952524946781</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.03210420419284517</v>
+        <v>0.08861832574948611</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.003059007493109253</v>
+        <v>-0.004847950891731147</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1761935695385973</v>
+        <v>0.1772256478263488</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002807640649233487</v>
+        <v>0.01274239006089362</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06237228249216085</v>
+        <v>0.02194401776274209</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1138606821984154</v>
+        <v>0.1034687547722103</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02608471627931531</v>
+        <v>0.03636483876731698</v>
       </c>
       <c r="J66" t="n">
-        <v>0.04536409880473222</v>
+        <v>0.02676890393786438</v>
       </c>
       <c r="K66" t="n">
-        <v>0.006196645786479558</v>
+        <v>0.05110432684988837</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03384425189130208</v>
+        <v>0.01781833531061243</v>
       </c>
       <c r="M66" t="n">
-        <v>0.103110204176465</v>
+        <v>0.01958072592126237</v>
       </c>
       <c r="N66" t="n">
-        <v>0.003727439785419542</v>
+        <v>0.0223814305224295</v>
       </c>
       <c r="O66" t="n">
-        <v>0.002368791198452977</v>
+        <v>0.01532738128887109</v>
       </c>
       <c r="P66" t="n">
-        <v>0.07249948804518774</v>
+        <v>0.05800329015458727</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01134857596608979</v>
+        <v>0.02657285837806396</v>
       </c>
       <c r="R66" t="n">
-        <v>0.0161953589620667</v>
+        <v>0.04579724544076502</v>
       </c>
       <c r="S66" t="n">
-        <v>0.109531694436138</v>
+        <v>0.06005623505182318</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02548070217715409</v>
+        <v>0.09099148391261952</v>
       </c>
       <c r="U66" t="n">
-        <v>0.08586085132094588</v>
+        <v>0.07675315219282701</v>
       </c>
       <c r="V66" t="n">
-        <v>0.031931273779861</v>
+        <v>0.01405253975007889</v>
       </c>
       <c r="W66" t="n">
-        <v>0.02277290024682559</v>
+        <v>0.09111233522418287</v>
       </c>
       <c r="X66" t="n">
-        <v>0.08266668277182973</v>
+        <v>0.09605245889114319</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.02264723232433496</v>
+        <v>0.02975200895944802</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.06077431970096228</v>
+        <v>0.01845820659573464</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.03465018510619223</v>
+        <v>0.01958379969903536</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.02390398190043557</v>
+        <v>0.04531328055559984</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.0349751502538146</v>
+        <v>0.04488240263105538</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1953103152395131</v>
+        <v>0.188764407551507</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0942928573479766</v>
+        <v>0.08699144157798042</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02119554254543947</v>
+        <v>0.03044185959940233</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0708548348209134</v>
+        <v>0.08680939082766891</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02825371005229397</v>
+        <v>0.01582413030733944</v>
       </c>
       <c r="J67" t="n">
-        <v>0.06233908116074407</v>
+        <v>0.001733096496663935</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01511153164969818</v>
+        <v>0.006155008719979352</v>
       </c>
       <c r="L67" t="n">
-        <v>0.007157057374247555</v>
+        <v>0.03055226224326409</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01008130528595693</v>
+        <v>0.04062184476266234</v>
       </c>
       <c r="N67" t="n">
-        <v>0.02265121528875401</v>
+        <v>0.01521832440748178</v>
       </c>
       <c r="O67" t="n">
-        <v>0.03578454140721689</v>
+        <v>0.07189893483280209</v>
       </c>
       <c r="P67" t="n">
-        <v>0.002432308153498516</v>
+        <v>0.006345108971641722</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02117081336351595</v>
+        <v>0.003979391008166643</v>
       </c>
       <c r="R67" t="n">
-        <v>0.02629705361245047</v>
+        <v>0.01608226606746882</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01805442637931673</v>
+        <v>0.03125214677936835</v>
       </c>
       <c r="T67" t="n">
-        <v>0.02619024076321194</v>
+        <v>0.01687297706320003</v>
       </c>
       <c r="U67" t="n">
-        <v>0.07570713650228753</v>
+        <v>0.06478550768791258</v>
       </c>
       <c r="V67" t="n">
-        <v>0.08836030872430423</v>
+        <v>0.04392559546904168</v>
       </c>
       <c r="W67" t="n">
-        <v>0.01349701666644793</v>
+        <v>0.06990919494140871</v>
       </c>
       <c r="X67" t="n">
-        <v>0.05854324128816284</v>
+        <v>0.09998783659143913</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.07185050561209358</v>
+        <v>0.02971061248357849</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.08525885377121509</v>
+        <v>0.06093467684953004</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.09402778583332061</v>
+        <v>0.0984052120931459</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.05088863239693341</v>
+        <v>0.07156318021885348</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.03626026001771351</v>
+        <v>0.04640519130130798</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1559712236795664</v>
+        <v>0.1562595762818348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07644960751604805</v>
+        <v>0.05422359320920431</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03275623063394693</v>
+        <v>0.05083306825549756</v>
       </c>
       <c r="H68" t="n">
-        <v>0.04850373551721624</v>
+        <v>0.06634151865939997</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06658308968235595</v>
+        <v>0.06626394521201759</v>
       </c>
       <c r="J68" t="n">
-        <v>0.04680042420696061</v>
+        <v>0.04667755384649058</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05072004016828136</v>
+        <v>0.07330321869436676</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05693519168549801</v>
+        <v>0.03450810140617121</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03580835584537028</v>
+        <v>0.04067930337328953</v>
       </c>
       <c r="N68" t="n">
-        <v>0.02499593164155909</v>
+        <v>0.008357064133573145</v>
       </c>
       <c r="O68" t="n">
-        <v>0.009194039688357648</v>
+        <v>0.008865135759624042</v>
       </c>
       <c r="P68" t="n">
-        <v>0.07232531966630025</v>
+        <v>0.02551123372279138</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02628795179449244</v>
+        <v>0.03932663003353869</v>
       </c>
       <c r="R68" t="n">
-        <v>0.07436528429749695</v>
+        <v>0.05455585168309585</v>
       </c>
       <c r="S68" t="n">
-        <v>0.02670798101967203</v>
+        <v>0.08619814367695491</v>
       </c>
       <c r="T68" t="n">
-        <v>0.07296451100355894</v>
+        <v>0.05203607689159188</v>
       </c>
       <c r="U68" t="n">
-        <v>0.063959931721387</v>
+        <v>0.04430593863172857</v>
       </c>
       <c r="V68" t="n">
-        <v>0.001280060321790913</v>
+        <v>0.00398131721631053</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02427483537971957</v>
+        <v>0.07591886256629435</v>
       </c>
       <c r="X68" t="n">
-        <v>0.05049147305499057</v>
+        <v>0.04668595393689902</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0001491507366651607</v>
+        <v>0.02076482612367727</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.06466655917185614</v>
+        <v>0.08125853827531528</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.07348362049815817</v>
+        <v>0.01930560882589741</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.0002966747483176935</v>
+        <v>9.851586627033356e-05</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.01553740118537122</v>
+        <v>-0.007597334327381687</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.229682263801797</v>
+        <v>0.2063981721597684</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0770863130795211</v>
+        <v>0.09237869042392312</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01178254066579545</v>
+        <v>0.000154934814989031</v>
       </c>
       <c r="H69" t="n">
-        <v>0.005394162713865239</v>
+        <v>0.04653151272832802</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02702247010208729</v>
+        <v>0.02598215995142212</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0233722365790182</v>
+        <v>0.000983139944743116</v>
       </c>
       <c r="K69" t="n">
-        <v>0.08754294526542791</v>
+        <v>0.09295698440422148</v>
       </c>
       <c r="L69" t="n">
-        <v>0.003288036387971214</v>
+        <v>0.01634600194631933</v>
       </c>
       <c r="M69" t="n">
-        <v>0.08709774277704355</v>
+        <v>0.04660731696110344</v>
       </c>
       <c r="N69" t="n">
-        <v>0.01209168018107819</v>
+        <v>0.01465062132504804</v>
       </c>
       <c r="O69" t="n">
-        <v>0.04649388402288911</v>
+        <v>0.008195626186029334</v>
       </c>
       <c r="P69" t="n">
-        <v>0.03066677815585449</v>
+        <v>0.02816981992769567</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.08131053260006309</v>
+        <v>0.07941566815463298</v>
       </c>
       <c r="R69" t="n">
-        <v>0.001000391086533328</v>
+        <v>0.06419635932389868</v>
       </c>
       <c r="S69" t="n">
-        <v>0.002803531327183455</v>
+        <v>0.001422953492756659</v>
       </c>
       <c r="T69" t="n">
-        <v>0.02114204634810339</v>
+        <v>0.07012133101140167</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03324815992231989</v>
+        <v>0.02006221165874534</v>
       </c>
       <c r="V69" t="n">
-        <v>0.09733446935012333</v>
+        <v>0.09356411236885649</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02988878053572289</v>
+        <v>0.001481731733786067</v>
       </c>
       <c r="X69" t="n">
-        <v>0.09547934771415721</v>
+        <v>0.04706007157830289</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.08460894038042842</v>
+        <v>0.05560797570352592</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.006241957756910146</v>
+        <v>0.06596035145679954</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.06579797524069522</v>
+        <v>0.07050926289344299</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.06930507780720785</v>
+        <v>0.05764116201002805</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.01767072443274826</v>
+        <v>0.001072836816825439</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1331055526391479</v>
+        <v>0.1345866413259394</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03332218199499777</v>
+        <v>0.002898629868379672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03568832801040626</v>
+        <v>0.0622715006354445</v>
       </c>
       <c r="H70" t="n">
-        <v>0.09303123871820566</v>
+        <v>0.06589897310924767</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03829383430557724</v>
+        <v>0.1021341140440642</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02061555944349978</v>
+        <v>0.002585719394854335</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01668779062974683</v>
+        <v>0.0107347276450165</v>
       </c>
       <c r="L70" t="n">
-        <v>0.005565340066558245</v>
+        <v>0.04253751825954145</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0274481730737333</v>
+        <v>0.05183748599912092</v>
       </c>
       <c r="N70" t="n">
-        <v>0.001750065665863156</v>
+        <v>0.007901586019216388</v>
       </c>
       <c r="O70" t="n">
-        <v>0.07023290629671015</v>
+        <v>0.049235721692891</v>
       </c>
       <c r="P70" t="n">
-        <v>0.03898251197019858</v>
+        <v>0.06269929348556373</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.06029418206344189</v>
+        <v>0.06077324946477524</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0793817275314735</v>
+        <v>0.07974171735354491</v>
       </c>
       <c r="S70" t="n">
-        <v>0.05561015142293873</v>
+        <v>0.0164518622214553</v>
       </c>
       <c r="T70" t="n">
-        <v>0.02870796861899104</v>
+        <v>0.0009811923840624952</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0921411830641751</v>
+        <v>0.07337762837105906</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02319292053065749</v>
+        <v>0.03427084487506412</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08147916257613935</v>
+        <v>0.09357653745602462</v>
       </c>
       <c r="X70" t="n">
-        <v>0.04503076140662404</v>
+        <v>0.05402845121682028</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.01207959290027191</v>
+        <v>0.01569791302895316</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08514074214581757</v>
+        <v>0.09756541742584801</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.04577724193045543</v>
+        <v>0.01102548612118503</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.009546435633516925</v>
+        <v>0.001774429927867192</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.02297574462045</v>
+        <v>-0.03070396398005286</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1570564509356377</v>
+        <v>0.1456890623227498</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05081887730255348</v>
+        <v>0.07070371116846332</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05932259429046526</v>
+        <v>0.02275142879140903</v>
       </c>
       <c r="H71" t="n">
-        <v>0.008631458603807629</v>
+        <v>0.004861089796892329</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04653609019554895</v>
+        <v>0.01011915980770711</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02168692577651853</v>
+        <v>0.03072104912151115</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02440238236367129</v>
+        <v>0.01642043046397174</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02743577517691924</v>
+        <v>0.007516959121237049</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01368196581127684</v>
+        <v>0.004726248067136658</v>
       </c>
       <c r="N71" t="n">
-        <v>0.009081753780282583</v>
+        <v>0.001405731919467209</v>
       </c>
       <c r="O71" t="n">
-        <v>0.08009990145949365</v>
+        <v>0.08751002049123412</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0137092550877215</v>
+        <v>0.02385040824075805</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.08101345485745795</v>
+        <v>0.1012189963432625</v>
       </c>
       <c r="R71" t="n">
-        <v>0.0151802831689635</v>
+        <v>0.06938908383403405</v>
       </c>
       <c r="S71" t="n">
-        <v>0.07299863297388631</v>
+        <v>0.03209820016943567</v>
       </c>
       <c r="T71" t="n">
-        <v>0.02867356893258062</v>
+        <v>0.05915838677182848</v>
       </c>
       <c r="U71" t="n">
-        <v>0.02126583090490547</v>
+        <v>0.02199712336272562</v>
       </c>
       <c r="V71" t="n">
-        <v>0.07725710016361309</v>
+        <v>0.03602414178447771</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0213950251536348</v>
+        <v>0.1030267386864446</v>
       </c>
       <c r="X71" t="n">
-        <v>0.06294046828131802</v>
+        <v>0.08157109010938214</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.08527119378033962</v>
+        <v>0.09200150434502002</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.09266632909504173</v>
+        <v>0.05835739854577182</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.0134623529020412</v>
+        <v>0.02354652719995734</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.07246877993795864</v>
+        <v>0.04102457185787232</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.04741592731315789</v>
+        <v>-0.02366936598007949</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1188634426582181</v>
+        <v>0.1193483735703555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06966099175926564</v>
+        <v>0.05204202030786144</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03809017769252132</v>
+        <v>0.03026530747331025</v>
       </c>
       <c r="H72" t="n">
-        <v>0.002020887212104063</v>
+        <v>0.0311364439438668</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05389748853281452</v>
+        <v>0.08871737665499009</v>
       </c>
       <c r="J72" t="n">
-        <v>0.05220025944941189</v>
+        <v>0.07945188267032512</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01728159660325539</v>
+        <v>0.02002829846203308</v>
       </c>
       <c r="L72" t="n">
-        <v>0.041825664828321</v>
+        <v>0.01998279246627249</v>
       </c>
       <c r="M72" t="n">
-        <v>0.06521086444104716</v>
+        <v>0.02388506055450167</v>
       </c>
       <c r="N72" t="n">
-        <v>0.02547304788761147</v>
+        <v>0.03927026962791382</v>
       </c>
       <c r="O72" t="n">
-        <v>0.03977356773869232</v>
+        <v>0.08160793496206933</v>
       </c>
       <c r="P72" t="n">
-        <v>0.07950622907476598</v>
+        <v>0.09300629539229176</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.08019719773821438</v>
+        <v>0.04459023148522872</v>
       </c>
       <c r="R72" t="n">
-        <v>0.00982407354669851</v>
+        <v>0.01413476491080929</v>
       </c>
       <c r="S72" t="n">
-        <v>0.02099204355408235</v>
+        <v>0.005857352497113529</v>
       </c>
       <c r="T72" t="n">
-        <v>0.05807497476945207</v>
+        <v>0.001917620777134778</v>
       </c>
       <c r="U72" t="n">
-        <v>0.07620026438875971</v>
+        <v>0.0816898991666636</v>
       </c>
       <c r="V72" t="n">
-        <v>0.009245535564916993</v>
+        <v>0.02081880865499352</v>
       </c>
       <c r="W72" t="n">
-        <v>0.05548460764392047</v>
+        <v>0.09001203250340417</v>
       </c>
       <c r="X72" t="n">
-        <v>0.07116587702486077</v>
+        <v>0.08850116391043264</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0002058982954911184</v>
+        <v>0.006099438678145943</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.07685028402381169</v>
+        <v>0.0385056499359786</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.05497080780984524</v>
+        <v>0.03576673676860496</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.001847660420136051</v>
+        <v>0.01271261819605426</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1390226207186355</v>
+        <v>-0.1385668657804331</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1320539530529969</v>
+        <v>0.13538164834873</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0773277471841428</v>
+        <v>0.002529789640364833</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08547216512199365</v>
+        <v>0.03451870603297151</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02954019519336292</v>
+        <v>0.01738142581639428</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02234856936456731</v>
+        <v>0.006020875857086127</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01363695067598916</v>
+        <v>0.04569920231307327</v>
       </c>
       <c r="K73" t="n">
-        <v>0.05166575144247093</v>
+        <v>0.002064157049639126</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03458469733545457</v>
+        <v>0.004371387997325112</v>
       </c>
       <c r="M73" t="n">
-        <v>0.06252284293377082</v>
+        <v>0.1044951918174613</v>
       </c>
       <c r="N73" t="n">
-        <v>0.000244519415378819</v>
+        <v>0.01771793266989661</v>
       </c>
       <c r="O73" t="n">
-        <v>0.07141875571632127</v>
+        <v>0.1202859134018599</v>
       </c>
       <c r="P73" t="n">
-        <v>0.02674976007548934</v>
+        <v>0.06052817777669665</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0805405740013279</v>
+        <v>0.1228294682513951</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0663419989260787</v>
+        <v>0.008016190195704796</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0117930805954623</v>
+        <v>0.004966230470893161</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0005982198261935705</v>
+        <v>0.0307093124204825</v>
       </c>
       <c r="U73" t="n">
-        <v>0.01581362346748945</v>
+        <v>0.07765470430269458</v>
       </c>
       <c r="V73" t="n">
-        <v>0.04459713300145324</v>
+        <v>0.002851911507264887</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0078296686020938</v>
+        <v>0.0131189422909961</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0757034989049182</v>
+        <v>0.02504183365737082</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.07634067944828718</v>
+        <v>0.11963963671998</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.03427703075960326</v>
+        <v>0.06227707327034324</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.05083919518305614</v>
+        <v>0.02053513947693271</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.05981334282509469</v>
+        <v>0.09674679706317346</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.15300506394399</v>
+        <v>-0.1284915771111152</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1190605374385875</v>
+        <v>0.1167629208430767</v>
       </c>
       <c r="F74" t="n">
-        <v>0.002315449992530352</v>
+        <v>0.03591910954553529</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06138416810943811</v>
+        <v>0.0532426275007013</v>
       </c>
       <c r="H74" t="n">
-        <v>0.004613253999285287</v>
+        <v>0.07558324048423301</v>
       </c>
       <c r="I74" t="n">
-        <v>0.05136073079149474</v>
+        <v>0.03534344861156431</v>
       </c>
       <c r="J74" t="n">
-        <v>0.03005305199947582</v>
+        <v>0.06377333020054583</v>
       </c>
       <c r="K74" t="n">
-        <v>0.04420206803089342</v>
+        <v>0.01431439901263541</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02692203628001647</v>
+        <v>0.01045876508057209</v>
       </c>
       <c r="M74" t="n">
-        <v>0.08437180510753148</v>
+        <v>0.08569458479420089</v>
       </c>
       <c r="N74" t="n">
-        <v>0.02091522461244051</v>
+        <v>0.0005258568172496681</v>
       </c>
       <c r="O74" t="n">
-        <v>0.05180256748831014</v>
+        <v>0.05550027452503874</v>
       </c>
       <c r="P74" t="n">
-        <v>0.07760076907200242</v>
+        <v>0.06698027409083861</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.0405820653540488</v>
+        <v>0.05188843100053378</v>
       </c>
       <c r="R74" t="n">
-        <v>0.06864782831967935</v>
+        <v>0.03155558878737342</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03256926224265373</v>
+        <v>0.01915205675967048</v>
       </c>
       <c r="T74" t="n">
-        <v>0.003973044739235237</v>
+        <v>0.01704182798474178</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04030582417122996</v>
+        <v>0.05641313040763547</v>
       </c>
       <c r="V74" t="n">
-        <v>0.01818189880078898</v>
+        <v>0.02408527395483154</v>
       </c>
       <c r="W74" t="n">
-        <v>0.0618478599290177</v>
+        <v>0.08663307862704542</v>
       </c>
       <c r="X74" t="n">
-        <v>0.08357540205522278</v>
+        <v>0.07876728406562283</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.04700991967826749</v>
+        <v>0.02892865303343468</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.05955580500280831</v>
+        <v>0.06201946314060301</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.06870313581523808</v>
+        <v>0.02634576086433969</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.01950682840839061</v>
+        <v>0.01983354071105277</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1332764033230485</v>
+        <v>0.1323046001620441</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1359735372821796</v>
+        <v>0.129051528595471</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09290213469753102</v>
+        <v>0.08247939231495148</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0469423812581674</v>
+        <v>0.0515352279226047</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01518184387823371</v>
+        <v>0.1212986045906563</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0556480495550056</v>
+        <v>0.01686221359097965</v>
       </c>
       <c r="J75" t="n">
-        <v>0.05261409182790165</v>
+        <v>0.05920838638420547</v>
       </c>
       <c r="K75" t="n">
-        <v>0.05038711072222782</v>
+        <v>0.0005797565329713222</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01978448141003027</v>
+        <v>0.00686041946661928</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0399126232631791</v>
+        <v>0.09632469257907326</v>
       </c>
       <c r="N75" t="n">
-        <v>0.005510531518967737</v>
+        <v>0.03129189383651636</v>
       </c>
       <c r="O75" t="n">
-        <v>0.003922072106641044</v>
+        <v>0.005505380193513157</v>
       </c>
       <c r="P75" t="n">
-        <v>0.04360723328128199</v>
+        <v>0.005522185314655932</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.003957036749154567</v>
+        <v>0.08233417555119149</v>
       </c>
       <c r="R75" t="n">
-        <v>0.07081161655661332</v>
+        <v>0.04968928689903959</v>
       </c>
       <c r="S75" t="n">
-        <v>0.06623608335231762</v>
+        <v>0.031278777801002</v>
       </c>
       <c r="T75" t="n">
-        <v>0.001534481068149366</v>
+        <v>0.007900714099347055</v>
       </c>
       <c r="U75" t="n">
-        <v>0.002148966648365351</v>
+        <v>0.03392145754071402</v>
       </c>
       <c r="V75" t="n">
-        <v>0.03944475907269964</v>
+        <v>0.03285170267612102</v>
       </c>
       <c r="W75" t="n">
-        <v>0.07168475427934527</v>
+        <v>0.05372379637660034</v>
       </c>
       <c r="X75" t="n">
-        <v>0.06212391172091606</v>
+        <v>0.05666859581848402</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.01181286907867295</v>
+        <v>0.002518417167175295</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.08434374880768444</v>
+        <v>0.1249457994444701</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.06241952647159196</v>
+        <v>0.0007478272548041707</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.09706969267532217</v>
+        <v>0.04595129664430408</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.151307723382007</v>
+        <v>0.1537748728016279</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1286551798447748</v>
+        <v>0.127910875096557</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07837358528524443</v>
+        <v>0.05247118487739554</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04706850625133124</v>
+        <v>0.04043573301419371</v>
       </c>
       <c r="H76" t="n">
-        <v>0.004256341425299893</v>
+        <v>0.02244132457376087</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02685426079850527</v>
+        <v>0.0490942783622833</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1056106296813941</v>
+        <v>0.04740884995854708</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0564303114215354</v>
+        <v>0.02279406144629647</v>
       </c>
       <c r="L76" t="n">
-        <v>0.04402846792399884</v>
+        <v>0.01724684412628542</v>
       </c>
       <c r="M76" t="n">
-        <v>0.01403042106873313</v>
+        <v>0.06811520447975471</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02680219442631718</v>
+        <v>0.01460449031676502</v>
       </c>
       <c r="O76" t="n">
-        <v>0.06430945469330161</v>
+        <v>0.06226190912921441</v>
       </c>
       <c r="P76" t="n">
-        <v>0.1029093755023422</v>
+        <v>0.07917424960816023</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.00656683040880855</v>
+        <v>0.04520461648421031</v>
       </c>
       <c r="R76" t="n">
-        <v>0.02374781317030032</v>
+        <v>0.04338521794273863</v>
       </c>
       <c r="S76" t="n">
-        <v>0.04315637882158608</v>
+        <v>0.054190613575253</v>
       </c>
       <c r="T76" t="n">
-        <v>0.01577106285454497</v>
+        <v>0.06533011383443774</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08332730429703011</v>
+        <v>0.08258980698789964</v>
       </c>
       <c r="V76" t="n">
-        <v>0.02289306558458919</v>
+        <v>0.004588795595516991</v>
       </c>
       <c r="W76" t="n">
-        <v>0.03775728634163549</v>
+        <v>0.04550243923250667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.07876405677312615</v>
+        <v>0.06790006870911681</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.03371778451831208</v>
+        <v>0.01427066898901513</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.0596291767157139</v>
+        <v>0.0113973155077758</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.0186818122002314</v>
+        <v>0.04245361818274884</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.005313879836118741</v>
+        <v>0.04713859506612362</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.06343822942580687</v>
+        <v>-0.0495867365127257</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1520993918930875</v>
+        <v>0.1480573350155337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09596077590772861</v>
+        <v>0.1116917061128327</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01828441698323522</v>
+        <v>0.05527287398350962</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04995449769214658</v>
+        <v>0.02969635347817207</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02790668327827455</v>
+        <v>0.02858376239338292</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01469558098379117</v>
+        <v>0.010766709189313</v>
       </c>
       <c r="K77" t="n">
-        <v>0.005698813575273519</v>
+        <v>0.03842107793399877</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0006726578187317947</v>
+        <v>0.009972205041381219</v>
       </c>
       <c r="M77" t="n">
-        <v>0.09047978883546533</v>
+        <v>0.1048027245093129</v>
       </c>
       <c r="N77" t="n">
-        <v>0.00134592806428669</v>
+        <v>0.009337501657098589</v>
       </c>
       <c r="O77" t="n">
-        <v>0.004084199489688751</v>
+        <v>0.04888850311892171</v>
       </c>
       <c r="P77" t="n">
-        <v>0.04819519800123678</v>
+        <v>0.06998254651048466</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.09962232157621559</v>
+        <v>0.01736909401598783</v>
       </c>
       <c r="R77" t="n">
-        <v>0.05231368606225393</v>
+        <v>0.002755191053609226</v>
       </c>
       <c r="S77" t="n">
-        <v>0.06485442981589627</v>
+        <v>0.003547569670707784</v>
       </c>
       <c r="T77" t="n">
-        <v>0.04339879041237998</v>
+        <v>0.01348950873731313</v>
       </c>
       <c r="U77" t="n">
-        <v>0.0934592464231971</v>
+        <v>0.09258651792317685</v>
       </c>
       <c r="V77" t="n">
-        <v>0.01030076180722642</v>
+        <v>0.01984781960083435</v>
       </c>
       <c r="W77" t="n">
-        <v>0.08492717101836381</v>
+        <v>0.005062204242681998</v>
       </c>
       <c r="X77" t="n">
-        <v>0.003056001916904096</v>
+        <v>0.09372560710626458</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.08289142243260564</v>
+        <v>0.1064382195666691</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.04502525646428614</v>
+        <v>0.1012129664106035</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.01811162887539389</v>
+        <v>0.005874332451074366</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.04476074256541817</v>
+        <v>0.02067500529266902</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.02003753732815276</v>
+        <v>0.005931709357930415</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.128919009633048</v>
+        <v>0.1293578861657901</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08202880011902061</v>
+        <v>0.04805975570194338</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0187785527236686</v>
+        <v>0.03609478968396011</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03994779680667961</v>
+        <v>0.04944496593452249</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02083278847186567</v>
+        <v>0.007120706378817203</v>
       </c>
       <c r="J78" t="n">
-        <v>0.08535338916230267</v>
+        <v>0.04649371166794296</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01123821073204228</v>
+        <v>0.008336226680481187</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04452091778880055</v>
+        <v>0.01992789126440339</v>
       </c>
       <c r="M78" t="n">
-        <v>0.05053559093881643</v>
+        <v>0.06453139787465927</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01603960264788986</v>
+        <v>0.02482022523905644</v>
       </c>
       <c r="O78" t="n">
-        <v>0.05571391331362374</v>
+        <v>0.04914576116518062</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1089055767261083</v>
+        <v>0.09718310242563279</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.03731328986893526</v>
+        <v>0.1072560155643006</v>
       </c>
       <c r="R78" t="n">
-        <v>0.01383102787328361</v>
+        <v>0.06116300923246556</v>
       </c>
       <c r="S78" t="n">
-        <v>0.05256703773463645</v>
+        <v>0.07100420182306598</v>
       </c>
       <c r="T78" t="n">
-        <v>0.07934308417246112</v>
+        <v>0.06057655117538454</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08321699693256554</v>
+        <v>0.001798432181958296</v>
       </c>
       <c r="V78" t="n">
-        <v>0.0021921444494934</v>
+        <v>0.002836642339327763</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04448410389438295</v>
+        <v>0.1064767921975003</v>
       </c>
       <c r="X78" t="n">
-        <v>0.044901379423332</v>
+        <v>0.05394052548204016</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.05053066976522088</v>
+        <v>0.02491696630372305</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.05149298771521475</v>
+        <v>0.001182917215236123</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.003900031424199263</v>
+        <v>0.04232812439111057</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.002332107315456489</v>
+        <v>0.01536128807728724</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.07524738761557051</v>
+        <v>0.08921969374043801</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1365074755671777</v>
+        <v>0.1402336122348438</v>
       </c>
       <c r="F79" t="n">
-        <v>0.09994254522330856</v>
+        <v>0.09328131357646122</v>
       </c>
       <c r="G79" t="n">
-        <v>0.06601484004453807</v>
+        <v>0.09622634734673728</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001471500652034212</v>
+        <v>0.01755587539495492</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01554673950150533</v>
+        <v>0.0006086819180778011</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02925505103428564</v>
+        <v>0.002444280076093532</v>
       </c>
       <c r="K79" t="n">
-        <v>0.012671772609584</v>
+        <v>0.02162268872024654</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02218921307820945</v>
+        <v>0.07307569595097094</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08252158374792186</v>
+        <v>0.07861792438293468</v>
       </c>
       <c r="N79" t="n">
-        <v>0.003357448191190881</v>
+        <v>0.01946838035508681</v>
       </c>
       <c r="O79" t="n">
-        <v>0.08068809527024971</v>
+        <v>0.04846686672392165</v>
       </c>
       <c r="P79" t="n">
-        <v>0.09629916750537575</v>
+        <v>0.05384147093094865</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.02867460739041443</v>
+        <v>0.05114328309200517</v>
       </c>
       <c r="R79" t="n">
-        <v>0.02833568125134258</v>
+        <v>0.003168754534678086</v>
       </c>
       <c r="S79" t="n">
-        <v>0.06496071789381613</v>
+        <v>0.004395159588907523</v>
       </c>
       <c r="T79" t="n">
-        <v>0.02098348279185489</v>
+        <v>0.06243274397264855</v>
       </c>
       <c r="U79" t="n">
-        <v>0.02916824793849351</v>
+        <v>0.01214990961024543</v>
       </c>
       <c r="V79" t="n">
-        <v>0.0139928957866284</v>
+        <v>0.05285769179148143</v>
       </c>
       <c r="W79" t="n">
-        <v>0.02704143083682819</v>
+        <v>0.04748452683657418</v>
       </c>
       <c r="X79" t="n">
-        <v>0.04470053522230306</v>
+        <v>0.02836337283452816</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.06938303049306331</v>
+        <v>0.09017138468013211</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.06826216490516175</v>
+        <v>0.04725561386982254</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.004651547142030553</v>
+        <v>0.08193004575005609</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.08988770148985971</v>
+        <v>0.0134379880624869</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.08489854849094602</v>
+        <v>0.09582699101861711</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1430314755423708</v>
+        <v>0.1456354418774091</v>
       </c>
       <c r="F80" t="n">
-        <v>0.03728475636591008</v>
+        <v>0.015916259860922</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03717622481169663</v>
+        <v>0.07592297569918564</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00466555310082178</v>
+        <v>0.006584707211618961</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02384243969932699</v>
+        <v>0.03497090345306229</v>
       </c>
       <c r="J80" t="n">
-        <v>0.06161173847161742</v>
+        <v>0.04205842567600489</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04318062644213515</v>
+        <v>0.06461936103405065</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02633929782651764</v>
+        <v>0.03079125074971522</v>
       </c>
       <c r="M80" t="n">
-        <v>0.07786030475501586</v>
+        <v>0.08373123564374893</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04442938383307014</v>
+        <v>0.03238315947444297</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01990306909738126</v>
+        <v>0.06909281060799972</v>
       </c>
       <c r="P80" t="n">
-        <v>0.08127115469426996</v>
+        <v>0.03921396020985764</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.1128017707050212</v>
+        <v>0.08514112939231087</v>
       </c>
       <c r="R80" t="n">
-        <v>0.05742905427742912</v>
+        <v>0.03046146994832618</v>
       </c>
       <c r="S80" t="n">
-        <v>0.01385226548180019</v>
+        <v>0.008068042407099392</v>
       </c>
       <c r="T80" t="n">
-        <v>0.02814971917719528</v>
+        <v>0.03623087667268318</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04335406073501102</v>
+        <v>0.02488724452185559</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02054555377831978</v>
+        <v>0.003332198402188083</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01188895022053633</v>
+        <v>0.01793004165210621</v>
       </c>
       <c r="X80" t="n">
-        <v>0.03578470199888288</v>
+        <v>0.06765421683212056</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.07624864324758825</v>
+        <v>0.05782381122280425</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.1014202725804985</v>
+        <v>0.08283463692947622</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.03685030618118319</v>
+        <v>0.08821805603688349</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.004110152518771288</v>
+        <v>0.002133226361537142</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.1557417508788178</v>
+        <v>-0.1937122562041756</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1641278302703939</v>
+        <v>0.153396269854003</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07307325580271107</v>
+        <v>0.002057781572381741</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02364441194768719</v>
+        <v>0.01793113944812805</v>
       </c>
       <c r="H81" t="n">
-        <v>0.006472724721716658</v>
+        <v>0.01691886081407607</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02327458231174328</v>
+        <v>0.03533901702308892</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04550817393993625</v>
+        <v>0.0008366412474788838</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01403271683945293</v>
+        <v>0.01676938461270256</v>
       </c>
       <c r="L81" t="n">
-        <v>0.005997199007343486</v>
+        <v>0.04023831723814197</v>
       </c>
       <c r="M81" t="n">
-        <v>0.09193923212392222</v>
+        <v>0.09550803609126658</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07001589147809813</v>
+        <v>0.004579416777003554</v>
       </c>
       <c r="O81" t="n">
-        <v>0.08818500097972487</v>
+        <v>0.103282554289224</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01084995246159246</v>
+        <v>0.06947992744677012</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.0148807788967561</v>
+        <v>0.05229546896584977</v>
       </c>
       <c r="R81" t="n">
-        <v>0.03178521417971358</v>
+        <v>0.07464345901004812</v>
       </c>
       <c r="S81" t="n">
-        <v>0.02242730540450942</v>
+        <v>0.00272580234120132</v>
       </c>
       <c r="T81" t="n">
-        <v>0.00781274078666524</v>
+        <v>0.04284130672618298</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08400915476726101</v>
+        <v>0.04626792864586832</v>
       </c>
       <c r="V81" t="n">
-        <v>0.06526560294681422</v>
+        <v>0.02814170157373981</v>
       </c>
       <c r="W81" t="n">
-        <v>0.02485426840739418</v>
+        <v>0.006516652384137244</v>
       </c>
       <c r="X81" t="n">
-        <v>0.08860866760163759</v>
+        <v>0.1007533808935604</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.09241030798753745</v>
+        <v>0.1022124181355719</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.07573303741961163</v>
+        <v>0.09209001325295967</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.002839035505057601</v>
+        <v>0.01602148531498278</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.03638074448311324</v>
+        <v>0.03254930619563544</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1662573550978095</v>
+        <v>-0.1587198902126401</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2049359767027615</v>
+        <v>0.2069585850083531</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08765181055800092</v>
+        <v>0.001497268341403326</v>
       </c>
       <c r="G82" t="n">
-        <v>0.08034927027677871</v>
+        <v>0.06566805346025789</v>
       </c>
       <c r="H82" t="n">
-        <v>0.007002473656223581</v>
+        <v>0.06794301468656296</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03853783743910964</v>
+        <v>0.06623198935579808</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02888990147925673</v>
+        <v>0.01741810596151237</v>
       </c>
       <c r="K82" t="n">
-        <v>0.04108962828486676</v>
+        <v>0.03817931827677254</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02501086890411058</v>
+        <v>0.00424442110627113</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02021843642887846</v>
+        <v>0.07734704257242228</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0355047134238908</v>
+        <v>0.005626974702274221</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02269976648195908</v>
+        <v>0.07657701206920348</v>
       </c>
       <c r="P82" t="n">
-        <v>0.08877025051391246</v>
+        <v>0.07860846479765646</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.08798642744696117</v>
+        <v>0.05188220965224565</v>
       </c>
       <c r="R82" t="n">
-        <v>0.07180320012655397</v>
+        <v>0.07422310416555991</v>
       </c>
       <c r="S82" t="n">
-        <v>0.009897768983967945</v>
+        <v>0.04844540011090991</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01832663110402192</v>
+        <v>0.05157329772877638</v>
       </c>
       <c r="U82" t="n">
-        <v>0.06798688146215567</v>
+        <v>0.05176119520957812</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01490645912020231</v>
+        <v>0.01150538665950099</v>
       </c>
       <c r="W82" t="n">
-        <v>0.03772302751805297</v>
+        <v>0.02860909576147177</v>
       </c>
       <c r="X82" t="n">
-        <v>0.06224254502525469</v>
+        <v>0.00948858036091004</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.07989957003939638</v>
+        <v>0.05630034940188863</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.06629352645887819</v>
+        <v>0.03826424796823255</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.003458418482773704</v>
+        <v>0.07100092657504907</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.003750586784793664</v>
+        <v>0.007604541075742076</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1685177462083341</v>
+        <v>0.1609783401555391</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2132126466626207</v>
+        <v>0.2494211348258817</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08820696953340407</v>
+        <v>0.03459500277441077</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0156733931500949</v>
+        <v>0.07966399344230787</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03483968987901351</v>
+        <v>0.02372005244814725</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04440046480643823</v>
+        <v>0.027210576760814</v>
       </c>
       <c r="J83" t="n">
-        <v>0.006709153506084825</v>
+        <v>0.001485279601777437</v>
       </c>
       <c r="K83" t="n">
-        <v>0.008050750708351971</v>
+        <v>0.04352328835376106</v>
       </c>
       <c r="L83" t="n">
-        <v>0.003745639082555996</v>
+        <v>0.005777511557188893</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05240190546324369</v>
+        <v>0.0996288205756941</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05769324184044868</v>
+        <v>0.08061767372818539</v>
       </c>
       <c r="O83" t="n">
-        <v>0.06544249081582673</v>
+        <v>0.04293079957296139</v>
       </c>
       <c r="P83" t="n">
-        <v>0.03577298438644585</v>
+        <v>0.06198981078731398</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.09652350373707187</v>
+        <v>0.02831591302857078</v>
       </c>
       <c r="R83" t="n">
-        <v>0.08070324847231121</v>
+        <v>0.05796335073140844</v>
       </c>
       <c r="S83" t="n">
-        <v>0.01078053441507606</v>
+        <v>0.01170245561966697</v>
       </c>
       <c r="T83" t="n">
-        <v>0.01980705200966938</v>
+        <v>0.001591635936083678</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0454376753010404</v>
+        <v>0.02123517347947276</v>
       </c>
       <c r="V83" t="n">
-        <v>0.008615184503173386</v>
+        <v>0.04758366059952625</v>
       </c>
       <c r="W83" t="n">
-        <v>0.008625444524348401</v>
+        <v>0.0167336700326147</v>
       </c>
       <c r="X83" t="n">
-        <v>0.09270290693373767</v>
+        <v>0.03462168092425929</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.08365918745443764</v>
+        <v>0.1020706886883061</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.083206906654581</v>
+        <v>0.07531808071275849</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.04129021621797665</v>
+        <v>0.07234248313144258</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.01571145660466798</v>
+        <v>0.02937839751332753</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1868303018816677</v>
+        <v>0.1955055024970945</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2355440487555106</v>
+        <v>0.2357003026417404</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02977648490456233</v>
+        <v>0.07131245115570287</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03013591316031849</v>
+        <v>0.04635025092782587</v>
       </c>
       <c r="H84" t="n">
-        <v>0.002049617504264138</v>
+        <v>0.007320439153539173</v>
       </c>
       <c r="I84" t="n">
-        <v>0.07317017852937678</v>
+        <v>0.01832332688207157</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01825986243894949</v>
+        <v>0.04569458483807126</v>
       </c>
       <c r="K84" t="n">
-        <v>0.009511978937200873</v>
+        <v>0.08880271710614732</v>
       </c>
       <c r="L84" t="n">
-        <v>0.007144449713530909</v>
+        <v>0.01583928023176266</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01121141633276513</v>
+        <v>0.08078470547042915</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02804449018888941</v>
+        <v>0.002407108433547543</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01593035211758488</v>
+        <v>0.01157283779339873</v>
       </c>
       <c r="P84" t="n">
-        <v>0.04752283222736096</v>
+        <v>0.06618272377934807</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.08949640225976398</v>
+        <v>0.05930091321130566</v>
       </c>
       <c r="R84" t="n">
-        <v>0.06683987303370084</v>
+        <v>0.1065355817515042</v>
       </c>
       <c r="S84" t="n">
-        <v>0.08529310480747763</v>
+        <v>0.04657444953671301</v>
       </c>
       <c r="T84" t="n">
-        <v>0.03214975527286407</v>
+        <v>0.01302929370638124</v>
       </c>
       <c r="U84" t="n">
-        <v>0.08591631106622238</v>
+        <v>0.07665919145909661</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02634253488595539</v>
+        <v>0.006193537604225216</v>
       </c>
       <c r="W84" t="n">
-        <v>0.05713582305921747</v>
+        <v>0.0273839636677486</v>
       </c>
       <c r="X84" t="n">
-        <v>0.06607085759329674</v>
+        <v>0.03909227440728617</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.08838337272923415</v>
+        <v>0.004565463340879647</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.00315824534395809</v>
+        <v>0.0715940434306972</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.04731495613851586</v>
+        <v>0.06716243041910545</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.07914118775499007</v>
+        <v>0.0273184316932126</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.03723773714639652</v>
+        <v>0.03676295923534353</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2518800750552045</v>
+        <v>0.2653129677934782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07065435260861716</v>
+        <v>0.086799910076927</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02419235048723408</v>
+        <v>0.006225922519597399</v>
       </c>
       <c r="H85" t="n">
-        <v>0.003019253578999846</v>
+        <v>0.005826816838838155</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0872557833535054</v>
+        <v>0.02762020681998361</v>
       </c>
       <c r="J85" t="n">
-        <v>0.009617568607071011</v>
+        <v>0.03265100324115646</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01707062875604766</v>
+        <v>0.07720384595351465</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03481562590396825</v>
+        <v>0.04445729374189092</v>
       </c>
       <c r="M85" t="n">
-        <v>0.08637121164021345</v>
+        <v>0.06141932005916722</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03536088891016907</v>
+        <v>0.005205044396452974</v>
       </c>
       <c r="O85" t="n">
-        <v>0.09049337196307791</v>
+        <v>0.09159782795493465</v>
       </c>
       <c r="P85" t="n">
-        <v>0.06908122818486036</v>
+        <v>0.02399606897131165</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.04329760077963959</v>
+        <v>0.08164402070598042</v>
       </c>
       <c r="R85" t="n">
-        <v>0.04555964338592746</v>
+        <v>0.05218176746018864</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02740272434963686</v>
+        <v>0.04127245200432039</v>
       </c>
       <c r="T85" t="n">
-        <v>0.0006321891469127989</v>
+        <v>0.03149879091699604</v>
       </c>
       <c r="U85" t="n">
-        <v>0.04495854615436379</v>
+        <v>0.02948645334915103</v>
       </c>
       <c r="V85" t="n">
-        <v>0.005106110080747561</v>
+        <v>0.01701127363750548</v>
       </c>
       <c r="W85" t="n">
-        <v>0.05273404556454431</v>
+        <v>0.06446714520612623</v>
       </c>
       <c r="X85" t="n">
-        <v>0.02876176845883278</v>
+        <v>0.0185500145470446</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.09954482362478524</v>
+        <v>0.08637487260108041</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.08421676216103635</v>
+        <v>0.02726552161254228</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.001422307966488735</v>
+        <v>0.02448382259397161</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.03843121433332034</v>
+        <v>0.06276060479131819</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.0149410500384773</v>
+        <v>0.06993785002077196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>